--- a/Coba2 - Copy.xlsx
+++ b/Coba2 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua A Kosasih\Documents\_kuliah_TA\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9BE3DE-5482-492D-9DC3-E0BA79505A37}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721ABCC2-B43C-4BAD-8049-19AB53DEADA6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="586" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="125">
   <si>
     <t>Embedding</t>
   </si>
@@ -395,13 +395,16 @@
     <t>Minute</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t>F-1 Score</t>
+  </si>
+  <si>
+    <t>word2vec</t>
+  </si>
+  <si>
+    <t>fastText</t>
+  </si>
+  <si>
+    <t>Not trainable</t>
   </si>
 </sst>
 </file>
@@ -568,18 +571,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -605,6 +598,18 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1822,6 +1827,889 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Embedding and Model Choices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WE only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$14:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>polyglot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>word2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fastText</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$14:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88300000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EAD-4C76-9489-D31C75D48EBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CE only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$14:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>polyglot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>word2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fastText</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EAD-4C76-9489-D31C75D48EBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$14:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>polyglot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>word2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fastText</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$14:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3EAD-4C76-9489-D31C75D48EBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="629033792"/>
+        <c:axId val="632919136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="629033792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632919136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="632919136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629033792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model and Trainable</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Choices</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not trainable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$R$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>WE only</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CE only</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$23:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC96-47FF-AD1C-018BD4931F73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trainable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$22:$R$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>WE only</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CE only</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$24:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC96-47FF-AD1C-018BD4931F73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="629313776"/>
+        <c:axId val="628576336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="629313776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628576336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="628576336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629313776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1902,6 +2790,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2407,6 +3375,1012 @@
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2977,6 +4951,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC91B54-04BC-43EA-AC1E-6FA0F1BF6BF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C912155C-5A50-4891-9234-A5658E6D37A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3284,1285 +5330,1285 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S50"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="4">
         <v>0.90300000000000002</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="4">
         <v>0.9</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="4">
         <v>0.90300000000000002</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>0.91100000000000003</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="1">
         <v>8</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="4">
         <v>0.75</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="4">
         <v>0.75</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="4">
         <v>0.75</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="5">
         <v>0.78900000000000003</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <v>8</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="4">
         <v>0.91400000000000003</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="4">
         <v>0.91</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="4">
         <v>0.91400000000000003</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="5">
         <v>0.91400000000000003</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="4">
         <v>0.5</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="4">
         <v>0.52</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="4">
         <v>0.53</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="5">
         <v>0.86299999999999999</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="1">
         <v>8</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="4">
         <v>0.82</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="4">
         <v>0.82</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="4">
         <v>0.82</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="5">
         <v>0.83399999999999996</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="1">
         <v>8</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="4">
         <v>0.874</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="4">
         <v>0.87</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="4">
         <v>0.874</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="5">
         <v>0.88</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>3</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="1">
         <v>8</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <v>0.876</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="4">
         <v>0.88</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="4">
         <v>0.88300000000000001</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="5">
         <v>0.88400000000000001</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="1">
         <v>8</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="4">
         <v>0.83799999999999997</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="4">
         <v>0.84</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="4">
         <v>0.83799999999999997</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="5">
         <v>0.87</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="1">
         <v>8</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="4">
         <v>0.91</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="5">
         <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
         <v>10</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="1">
         <v>32</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="4">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="4">
         <v>0.92</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="4">
         <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="1">
         <v>128</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="4">
         <v>0.90200000000000002</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="4">
         <v>0.9</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="4">
         <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="1">
         <v>32</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="4">
         <v>0.89900000000000002</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="4">
         <v>0.9</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="4">
         <v>0.89900000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
         <v>7</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="1">
         <v>32</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="4">
         <v>0.91200000000000003</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="4">
         <v>0.91</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="4">
         <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
         <v>15</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="1">
         <v>32</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="4">
         <v>0.92149999999999999</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="4">
         <v>0.92</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="4">
         <v>0.92169999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
         <v>10</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="1">
         <v>32</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="4">
         <v>0.91600000000000004</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="4">
         <v>0.92</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="4">
         <v>0.91700000000000004</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
         <v>3</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="1">
         <v>8</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="4">
         <v>0.72599999999999998</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="4">
         <v>0.71</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="4">
         <v>0.72699999999999998</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="1">
         <v>8</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="4">
         <v>0.75700000000000001</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="4">
         <v>0.74</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="4">
         <v>0.75700000000000001</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="1">
         <v>8</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="4">
         <v>0.91700000000000004</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="4">
         <v>0.92</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="4">
         <v>0.91700000000000004</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="1">
         <v>8</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="4">
         <v>0.91400000000000003</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="4">
         <v>0.91</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="4">
         <v>0.91400000000000003</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="1">
         <v>8</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="4">
         <v>0.91</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
         <v>15</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="1">
         <v>32</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="4">
         <v>0.93</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="1">
         <v>3</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="1">
         <v>8</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="4">
         <v>0.90100000000000002</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="4">
         <v>0.9</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="4">
         <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="1">
         <v>3</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="1">
         <v>8</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="4">
         <v>0.90300000000000002</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="4">
         <v>0.90300000000000002</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="4">
         <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="1">
         <v>8</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="4">
         <v>0.92</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="4">
         <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="1">
         <v>3</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="1">
         <v>8</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="4">
         <v>0.92300000000000004</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="4">
         <v>0.92</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="4">
         <v>0.92300000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="1">
         <v>3</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="1">
         <v>8</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="4">
         <v>0.84799999999999998</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="4">
         <v>0.85</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="4">
         <v>0.84799999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="1">
         <v>3</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="1">
         <v>8</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="4">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="4">
         <v>0.93</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="4">
         <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="1">
         <v>10</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="1">
         <v>32</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="4">
         <v>0.93</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="4">
         <v>0.93</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="4">
         <v>0.93</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="1">
         <v>3</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="1">
         <v>8</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="4">
         <v>0.91600000000000004</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="4">
         <v>0.92</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="4">
         <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="1">
         <v>3</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="1">
         <v>8</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="4">
         <v>0.90700000000000003</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="4">
         <v>0.91</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="4">
         <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="1">
         <v>3</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="1">
         <v>8</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="4">
         <v>0.90800000000000003</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="4">
         <v>0.91</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="4">
         <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="1">
         <v>3</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="1">
         <v>8</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="4">
         <v>0.91</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="4">
         <v>0.91</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="4">
         <v>0.91</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
+      <c r="E42" s="24"/>
+      <c r="F42" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5" t="s">
+      <c r="F43" s="24"/>
+      <c r="G43" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="4">
         <v>0.57199999999999995</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="4">
         <v>0.65900000000000003</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="4">
         <v>0.68300000000000005</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="4">
         <v>0.92400000000000004</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="4">
         <v>0.93300000000000005</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="4">
         <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12">
+      <c r="C46" s="7"/>
+      <c r="D46" s="8">
         <v>0.93300000000000005</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="8">
         <v>0.94299999999999995</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="8">
         <v>0.93300000000000005</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="4">
         <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="4">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="4">
         <v>0.92200000000000004</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="4">
         <v>0.92</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12">
+      <c r="C48" s="7"/>
+      <c r="D48" s="8">
         <v>0.93600000000000005</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="8">
         <v>0.95199999999999996</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="8">
         <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="4">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="4">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="4">
         <v>0.92300000000000004</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12">
+      <c r="C50" s="7"/>
+      <c r="D50" s="8">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="8">
         <v>0.96099999999999997</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="8">
         <v>0.92700000000000005</v>
       </c>
     </row>
@@ -4590,29 +6636,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="5"/>
-    <col min="2" max="2" width="14" style="5"/>
-    <col min="3" max="4" width="7.42578125" style="5"/>
-    <col min="5" max="5" width="12.28515625" style="5"/>
-    <col min="6" max="6" width="6.140625" style="5"/>
-    <col min="7" max="7" width="12.28515625" style="5"/>
-    <col min="8" max="8" width="6.140625" style="5"/>
-    <col min="9" max="9" width="12.28515625" style="5"/>
-    <col min="10" max="10" width="6.140625" style="5"/>
-    <col min="11" max="11" width="12.28515625" style="5"/>
-    <col min="12" max="12" width="6.140625" style="5"/>
-    <col min="13" max="13" width="12.28515625" style="5"/>
-    <col min="14" max="14" width="6.28515625" style="5"/>
-    <col min="15" max="15" width="12.42578125" style="5"/>
-    <col min="16" max="16" width="6.28515625" style="5"/>
-    <col min="17" max="1025" width="7.42578125" style="5"/>
+    <col min="1" max="1" width="7.42578125" style="1"/>
+    <col min="2" max="2" width="14" style="1"/>
+    <col min="3" max="4" width="7.42578125" style="1"/>
+    <col min="5" max="5" width="12.28515625" style="1"/>
+    <col min="6" max="6" width="6.140625" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1"/>
+    <col min="8" max="8" width="6.140625" style="1"/>
+    <col min="9" max="9" width="12.28515625" style="1"/>
+    <col min="10" max="10" width="6.140625" style="1"/>
+    <col min="11" max="11" width="12.28515625" style="1"/>
+    <col min="12" max="12" width="6.140625" style="1"/>
+    <col min="13" max="13" width="12.28515625" style="1"/>
+    <col min="14" max="14" width="6.28515625" style="1"/>
+    <col min="15" max="15" width="12.42578125" style="1"/>
+    <col min="16" max="16" width="6.28515625" style="1"/>
+    <col min="17" max="1025" width="7.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1"/>
       <c r="D1"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F1"/>
@@ -4629,249 +6675,249 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="16"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="1">
         <v>10</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="14">
         <v>4</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="14">
         <v>6</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="1">
         <v>2</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="1">
         <v>10</v>
       </c>
       <c r="I4"/>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="1">
         <v>2</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I5"/>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>4</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I6"/>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>5</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7"/>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>6</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="1">
         <v>2</v>
       </c>
       <c r="I8"/>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>7</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="16" t="s">
         <v>71</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>8</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="16" t="s">
         <v>75</v>
       </c>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>9</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I11"/>
@@ -4889,20 +6935,20 @@
       <c r="I14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G15" s="22">
+      <c r="G15" s="18">
         <f>10*10*2*2*4*6*2*2*10*8*14</f>
         <v>43008000</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="1">
         <f>G15*1.5/(24*30*12)</f>
         <v>7466.666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4921,12 +6967,12 @@
   <dimension ref="A1:AMK19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H5" sqref="H5:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="7.42578125" style="5"/>
+    <col min="1" max="1025" width="7.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.2">
@@ -4948,7 +6994,7 @@
       <c r="S1"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D2"/>
@@ -4968,7 +7014,7 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D3"/>
@@ -4992,7 +7038,7 @@
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I4"/>
@@ -5008,170 +7054,170 @@
       <c r="S4"/>
     </row>
     <row r="5" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D5"/>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>4477</v>
       </c>
       <c r="F5"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>188</v>
       </c>
       <c r="F6"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <v>20</v>
       </c>
       <c r="F8"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9"/>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <v>17</v>
       </c>
       <c r="F9"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10"/>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="1">
         <v>13</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>233</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11"/>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="1">
         <v>212</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12"/>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="1">
         <v>14.5</v>
       </c>
     </row>
@@ -5196,28 +7242,28 @@
       <c r="E16"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="1">
         <v>416</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="1">
         <v>434</v>
       </c>
     </row>
@@ -5239,116 +7285,116 @@
   <dimension ref="A2:AMK20"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.7109375" style="5"/>
+    <col min="1" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="19">
         <v>0.72130000000000005</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="23">
+      <c r="B9" s="19">
         <v>0.73670000000000002</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11"/>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13"/>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14"/>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15"/>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16"/>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17"/>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18"/>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19"/>
-      <c r="E19" s="24"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20"/>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="20" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5364,10 +7410,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C1C2E4-CC99-49C8-A308-39D62912F582}">
-  <dimension ref="B2:D37"/>
+  <dimension ref="B2:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5376,7 +7422,7 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -5386,130 +7432,305 @@
       <c r="D2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="22">
         <v>0.35570000000000002</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <v>0.28839999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <v>0.1777</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>0.14360000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>0.1454</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <v>0.1067</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>0.1235</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O6" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>0.10920000000000001</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>7.7100000000000002E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="22">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <v>6.8699999999999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O8" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.874</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="22">
         <v>6.1899999999999997E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="22">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="22"/>
+      <c r="O10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="22">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="21"/>
+      <c r="O11" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>6.88E-2</v>
       </c>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="21"/>
+      <c r="P13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="22">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="21"/>
+      <c r="O14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="R14" s="29">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="29">
+        <v>0.53</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>0.82</v>
+      </c>
+      <c r="R15" s="29">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>123</v>
+      </c>
+      <c r="P16" s="29">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="R16" s="29">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>120</v>
       </c>
@@ -5519,146 +7740,294 @@
       <c r="D22" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="22">
         <v>0.35570000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="29">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="R23" s="29">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="22">
         <v>0.1777</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="22">
         <v>0.28839999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="29">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="Q24" s="29">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="R24" s="29">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="22">
         <v>0.1454</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="23">
         <f>(D24+D26)/2</f>
         <v>0.216</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="22">
         <v>0.1235</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="22">
         <v>0.14360000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="22">
         <v>0.10920000000000001</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="23">
         <f>(D26+D28)/2</f>
         <v>0.12515000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="22">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="22">
         <v>0.1067</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="22">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="23">
         <f>(D28+D30)/2</f>
         <v>9.6849999999999992E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="22">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="22">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>9</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="22">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="23">
         <f>(D30+D32)/2</f>
         <v>8.2049999999999998E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="22">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="22">
         <v>7.7100000000000002E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>11</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="22">
         <v>6.88E-2</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="23">
         <f>(D32+D34)/2</f>
         <v>7.2899999999999993E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>12</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="22">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="22">
         <v>6.8699999999999997E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="26"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="26"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="D36" s="22"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="D37" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5676,60 +8045,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="7.42578125" style="5"/>
+    <col min="1" max="1025" width="7.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
+      <c r="B5" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Coba2 - Copy.xlsx
+++ b/Coba2 - Copy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="CompilePref" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Baseline" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Epoch" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="168">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -518,6 +519,18 @@
   </si>
   <si>
     <t xml:space="preserve">Micro 0.820424948595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1 from DEV: 90% 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">← non transfer data will be updated with datas from hpc</t>
   </si>
 </sst>
 </file>
@@ -701,7 +714,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -810,6 +823,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -823,7 +840,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -835,7 +852,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -869,7 +886,7 @@
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -882,7 +899,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1205,11 +1222,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="15049626"/>
-        <c:axId val="83846747"/>
+        <c:axId val="27494215"/>
+        <c:axId val="38546654"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15049626"/>
+        <c:axId val="27494215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,14 +1262,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83846747"/>
+        <c:crossAx val="38546654"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83846747"/>
+        <c:axId val="38546654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1297,7 +1314,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15049626"/>
+        <c:crossAx val="27494215"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1335,7 +1352,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1703,11 +1720,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="13271376"/>
-        <c:axId val="58393152"/>
+        <c:axId val="39873110"/>
+        <c:axId val="33938839"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13271376"/>
+        <c:axId val="39873110"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,14 +1760,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58393152"/>
+        <c:crossAx val="33938839"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58393152"/>
+        <c:axId val="33938839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1795,7 +1812,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13271376"/>
+        <c:crossAx val="39873110"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1833,7 +1850,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2088,11 +2105,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="66465231"/>
-        <c:axId val="70718759"/>
+        <c:axId val="46765696"/>
+        <c:axId val="88225556"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66465231"/>
+        <c:axId val="46765696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,14 +2145,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70718759"/>
+        <c:crossAx val="88225556"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70718759"/>
+        <c:axId val="88225556"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -2179,7 +2196,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66465231"/>
+        <c:crossAx val="46765696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2217,7 +2234,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2404,11 +2421,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="16149666"/>
-        <c:axId val="82899296"/>
+        <c:axId val="96707330"/>
+        <c:axId val="95069553"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="16149666"/>
+        <c:axId val="96707330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,14 +2461,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82899296"/>
+        <c:crossAx val="95069553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82899296"/>
+        <c:axId val="95069553"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.7"/>
@@ -2495,7 +2512,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16149666"/>
+        <c:crossAx val="96707330"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2533,6 +2550,2659 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Epoch!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Epoch!$I$3:$I$202</c:f>
+              <c:strCache>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Epoch!$J$3:$J$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.582955349817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.671683602510333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.732885307357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.746346741711667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.783395772440333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.794644906197667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.801879349467333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.811661714688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.812307382206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.813669373284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.824729541776333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.831412011346667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.835836875571333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.834872069107667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84386518453</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.831397230590667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.840001944036667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.847456752646667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.842722277327333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.845354211624667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.845215825110333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.844901069911333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.842493237945333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.846022612353</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.848474470259333</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.849721579819667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.847630786619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.845877862153</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.843373769846333</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.846746047259</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.847666193441667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.846435698093333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.846703229368667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.846019439038667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.846022700181333</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.845364120996667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.844876431785667</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.844579523091666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.842176440927</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.846178748757</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.844696809562333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.843484556325</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.843713908595667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.843943647354667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.845934106589</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.845411230772</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.84240729181</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.843596004473667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.844975906437333</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.840822481556333</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.846433106900667</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.847178174037</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.844009805516333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.843509824610667</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.843539054129667</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.844031039425667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.843733225105667</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.842914804862333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.843530572816333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.844971946958667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.845367606695333</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.842688169196</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.843357684040667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.842831139421333</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.843971278162333</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.844342639748333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.844803385530333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.842970390709</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.843114240614</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.842558819168</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.842882922125333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.844500793746333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.844502111818333</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.844251582812333</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.844760156924</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.844970731749667</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.84417414081</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.845022322345</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.845548176264667</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.844482615459333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.844425575858333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.843214285754333</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.844761236342667</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.842032737591333</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.843424935269</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.842028441152</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.843548231772</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.843237943965667</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.845375732768</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.843973848713333</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.845465939629667</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.8453741146</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.841263881760667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.844307786146667</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.844535357873333</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.843627532989333</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.844277084217</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.842924442029667</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.843054219820667</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.844402321529333</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.843370594974333</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.842181909437333</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.844284191937333</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.844356066822333</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.842209487453333</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.843651264993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.843729063631667</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.844502887439667</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.842084257713667</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.844101403594667</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.844222539462667</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.843120960095</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.842965859032667</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.841720863612667</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.841368035574</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.840066489206333</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.841066441792333</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.841260239438</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.84304208233</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.842163816565667</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.841293868186</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.841763450648333</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.843014985489333</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.841943275598333</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.840213278227</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.841183804703667</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.841840753625</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.84029835845</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.841298898126667</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.837014251368</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.839548264793667</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.841236222907</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.838258443462333</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.839354610569333</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.842073827407667</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.842036885133333</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.840104248337333</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.840247065164</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.839949337768667</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.839062175088666</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.836800643040333</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.834178667356333</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.835843363533333</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.837869224213667</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.838467154253</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.837171493276</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.836537628184333</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.838062487988333</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.837243640161333</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.838273193865333</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.839600310625667</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.839023677265</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.839058404734333</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.836297361292333</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.838323521815333</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.837633946201667</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.836837697714</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.837125985026667</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.838074250917</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.834848445514667</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.837482999876</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.837151458713667</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.836772586175333</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.836010217610667</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.836849713234667</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.836969462451</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.835799124087667</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.834715808044</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.834105972306</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.835117141245</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.834013683271333</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.837052702978333</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.835295881417</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.833756100981</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.834369280892667</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.834369280892667</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.836187451848667</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.834975542878</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.834298093111667</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.834266056973667</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.835571652974</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.835630052688333</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.835831178423</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.833312134581</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.833464225275667</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.833464225275667</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.833607885127667</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.834227996606667</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.834783607494333</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.834995208023667</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.835196974399333</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.836102097028333</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.833447505722333</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.834565287154333</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.83480045772</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.834903422646</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.834067683281667</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.835189563985667</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.834794961516667</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.837015817366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Epoch!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non Transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Epoch!$I$3:$I$202</c:f>
+              <c:strCache>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Epoch!$K$3:$K$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>0.5490736372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6642383982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7351148098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7405055733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7734545952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7862022852</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7910897148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7963624696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8076267518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8155558801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8128106654</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8167831898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8199583517</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8224781495</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.818846499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.824894952</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8244922126</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8273505981</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8276256175</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8283407923</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8292704898</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8292163146</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8251775675</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.8273954141</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8322608685</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8280899315</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8289827079</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8325657609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.8317071896</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.831731555</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.8345088855</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8331399168</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.8324325064</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.8324232969</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.8322055707</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.8327981282</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.8312514372</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.8329322629</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8343152134</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.8216662015</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8318716997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.8314786949</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.8300189682</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.8271076019</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.8296943481</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.8323619982</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.8323742599</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.8304847874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8327848409</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.8306132193</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.8322748023</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.8312398391</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.8306925263</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.8314054429</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.8313942866</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.8321088583</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.8319892258</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.830991231</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8306857987</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.8337282454</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.8305851757</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.8303073416</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.829268237</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.8293379738</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.8293662573</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.8295918802</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.8288995117</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.829116747</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.8284970447</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8270329349</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.8266108296</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.8273578671</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.8228271471</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.8230904736</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.8265103095</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.8236056708</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.8236641666</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.8250432874</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.8284814663</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8285345613</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8229964583</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.827321608</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.8287308142</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.8268054261</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8251238451</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.8249479952</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.8207811268</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.8233186344</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8216100099</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.8227652381</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.8216853994</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.8215388987</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.8271575168</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.8265552228</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.8243149166</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.8221389339</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.8216292279</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.8240629083</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.827004807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.8217679987</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.8228434373</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.8210998318</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.8236285265</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.8263889839</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.8251434782</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.8242395424</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.8238318617</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.8244666725</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.8217578986</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.8227791464</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.8221314902</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.8228332105</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.8236659172</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.8201528402</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.8214087774</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.8209691947</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.8229796592</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.8187678261</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.8280878108</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.8237474713</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.8188146274</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.8194116407</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.8204882549</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.8214461387</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.8192953466</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.821136676</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.8211770796</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.8182655296</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.8220463631</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.8215427969</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.8217578986</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.8210501582</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.8222180895</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.8243106867</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.8236934234</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.822520095</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.8237292409</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.8225998726</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.8260356873</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.8216294375</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.8235595725</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.8187774196</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.8171887891</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.8191138118</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.8192952713</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.8210446626</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.8176057183</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.8204643605</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.814532437</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.8196707621</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.8212658669</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.8221844284</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.8239814057</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.8235499467</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.8204756304</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.815083879</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.8203731418</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.8186763991</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.8197575172</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.8197358197</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.8194471826</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.8203679332</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.8197358197</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.8190724237</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.8185163874</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.819589723</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.8209785408</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.8197802198</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.8191898465</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.819508834</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.8201013422</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.8185264556</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.819888897</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.8193396008</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.820075436</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.8196763743</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.8184023142</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.8199939616</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.8182695538</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.8185529637</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.8162393162</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.8184023142</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.8172434189</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.8164357364</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.8180841208</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.81673456</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.8174249951</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.8180010793</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.8183843582</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.8196218696</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.8213147302</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.8197619351</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.817377989</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.8196474594</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.8199407784</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.8193396008</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.8202320058</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.8222360077</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.8180404355</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.8198757764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="44301343"/>
+        <c:axId val="45397669"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="44301343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45397669"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45397669"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44301343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2544,9 +5214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:colOff>303120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2554,8 +5224,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3571560" y="338040"/>
-        <a:ext cx="4304160" cy="2742120"/>
+        <a:off x="3638520" y="338040"/>
+        <a:ext cx="4503600" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2574,9 +5244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>317880</xdr:colOff>
+      <xdr:colOff>317520</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2584,8 +5254,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3585960" y="3414600"/>
-        <a:ext cx="4304160" cy="2742120"/>
+        <a:off x="3652920" y="3414600"/>
+        <a:ext cx="4503600" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2604,9 +5274,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>484560</xdr:colOff>
+      <xdr:colOff>484200</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2614,8 +5284,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11182320" y="338040"/>
-        <a:ext cx="4303800" cy="2742120"/>
+        <a:off x="11620440" y="338040"/>
+        <a:ext cx="4503600" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2634,9 +5304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>465480</xdr:colOff>
+      <xdr:colOff>465120</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2644,12 +5314,47 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11163240" y="3414600"/>
-        <a:ext cx="4303800" cy="2742120"/>
+        <a:off x="11601360" y="3414600"/>
+        <a:ext cx="4503600" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168480</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>763200</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="168480" y="21352320"/>
+        <a:ext cx="16850520" cy="6703200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2670,6 +5375,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -3975,22 +6683,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4315,7 +7023,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4637,7 +7345,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,8 +7485,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,7 +8404,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5765,14 +8475,11 @@
   </sheetPr>
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -5942,4 +8649,6051 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:M202"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.570300157978</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.55523255814</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.623333333333</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">AVERAGE(C3,E3,G3)</f>
+        <v>0.582955349817</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.5490736372</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.707717569787</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.629737609329</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.677595628415</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">AVERAGE(C4,E4,G4)</f>
+        <v>0.671683602510333</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.6642383982</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.755804643715</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.693847294292</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.749003984064</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">AVERAGE(C5,E5,G5)</f>
+        <v>0.732885307357</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.7351148098</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.752738654147</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.710791366906</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.775510204082</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">AVERAGE(C6,E6,G6)</f>
+        <v>0.746346741711667</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.7405055733</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.795238095238</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.756834532374</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.798114689709</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">AVERAGE(C7,E7,G7)</f>
+        <v>0.783395772440333</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.7734545952</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.767543859649</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.816390858944</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">AVERAGE(C8,E8,G8)</f>
+        <v>0.794644906197667</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.7862022852</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.803812549643</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.784570596798</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.817254901961</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">AVERAGE(C9,E9,G9)</f>
+        <v>0.801879349467333</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.7910897148</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.798393574297</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.803779069767</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.8328125</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">AVERAGE(C10,E10,G10)</f>
+        <v>0.811661714688</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.7963624696</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.817679558011</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.784992784993</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.834249803614</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">AVERAGE(C11,E11,G11)</f>
+        <v>0.812307382206</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.8076267518</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.808510638298</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.802308802309</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.830188679245</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">AVERAGE(C12,E12,G12)</f>
+        <v>0.813669373284</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.8155558801</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.816812053925</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.815519765739</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.841856805665</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">AVERAGE(C13,E13,G13)</f>
+        <v>0.824729541776333</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.8128106654</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.832140015911</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.81957633309</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.842519685039</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">AVERAGE(C14,E14,G14)</f>
+        <v>0.831412011346667</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.8167831898</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.832012678288</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.827586206897</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.847911741529</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">AVERAGE(C15,E15,G15)</f>
+        <v>0.835836875571333</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.8199583517</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.834123222749</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.827232796486</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.843260188088</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">AVERAGE(C16,E16,G16)</f>
+        <v>0.834872069107667</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.8224781495</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.84748427673</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.829197080292</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.854914196568</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">AVERAGE(C17,E17,G17)</f>
+        <v>0.84386518453</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.818846499</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.812451361868</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.821897810219</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.859842519685</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">AVERAGE(C18,E18,G18)</f>
+        <v>0.831397230590667</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.824894952</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.839215686275</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.823871906841</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.856918238994</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">AVERAGE(C19,E19,G19)</f>
+        <v>0.840001944036667</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.8244922126</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.841282251759</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.836734693878</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.864353312303</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">AVERAGE(C20,E20,G20)</f>
+        <v>0.847456752646667</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.8273505981</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.840625</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.8357771261</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.851764705882</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">AVERAGE(C21,E21,G21)</f>
+        <v>0.842722277327333</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.8276256175</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.844652615144</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.832244008715</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.859166011015</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">AVERAGE(C22,E22,G22)</f>
+        <v>0.845354211624667</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.8283407923</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.83937007874</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.831884057971</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.86439333862</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">AVERAGE(C23,E23,G23)</f>
+        <v>0.845215825110333</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.8292704898</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.840625</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.833576642336</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.860501567398</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">AVERAGE(C24,E24,G24)</f>
+        <v>0.844901069911333</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.8292163146</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.838810641628</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.83918128655</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.849487785658</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">AVERAGE(C25,E25,G25)</f>
+        <v>0.842493237945333</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0.8251775675</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.840625</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.83918128655</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.858261550509</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">AVERAGE(C26,E26,G26)</f>
+        <v>0.846022612353</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0.8273954141</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.8421875</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.838709677419</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.864526233359</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">AVERAGE(C27,E27,G27)</f>
+        <v>0.848474470259333</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0.8322608685</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.841777084957</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.837481698389</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.869905956113</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" s="27" t="n">
+        <f aca="false">AVERAGE(C28,E28,G28)</f>
+        <v>0.849721579819667</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0.8280899315</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.844827586207</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.833578792342</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.864485981308</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">AVERAGE(C29,E29,G29)</f>
+        <v>0.847630786619</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0.8289827079</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.837245696401</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.833089311859</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.867298578199</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">AVERAGE(C30,E30,G30)</f>
+        <v>0.845877862153</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0.8325657609</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.839467501958</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.824561403509</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.866092404072</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">AVERAGE(C31,E31,G31)</f>
+        <v>0.843373769846333</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0.8317071896</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.838154808444</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.833333333333</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.86875</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">AVERAGE(C32,E32,G32)</f>
+        <v>0.846746047259</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0.831731555</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.834375</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.836869056328</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.871754523997</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">AVERAGE(C33,E33,G33)</f>
+        <v>0.847666193441667</v>
+      </c>
+      <c r="K33" s="27" t="n">
+        <v>0.8345088855</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.83775351014</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.83431085044</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.8672427337</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">AVERAGE(C34,E34,G34)</f>
+        <v>0.846435698093333</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0.8331399168</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.8390625</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.835164835165</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.865882352941</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">AVERAGE(C35,E35,G35)</f>
+        <v>0.846703229368667</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0.8324325064</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.837901331245</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.835164835165</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0.864992150706</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <f aca="false">AVERAGE(C36,E36,G36)</f>
+        <v>0.846019439038667</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>0.8324232969</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.839874411303</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.833455612619</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0.864738076622</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <f aca="false">AVERAGE(C37,E37,G37)</f>
+        <v>0.846022700181333</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>0.8322055707</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.836335160532</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.834553440703</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.865203761755</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">AVERAGE(C38,E38,G38)</f>
+        <v>0.845364120996667</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0.8327981282</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.833723653396</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.834553440703</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0.866352201258</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <f aca="false">AVERAGE(C39,E39,G39)</f>
+        <v>0.844876431785667</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>0.8312514372</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.832162373146</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.831263696129</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0.8703125</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <f aca="false">AVERAGE(C40,E40,G40)</f>
+        <v>0.844579523091666</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0.8329322629</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.835423197492</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0.83284457478</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0.858261550509</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <f aca="false">AVERAGE(C41,E41,G41)</f>
+        <v>0.842176440927</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0.8343152134</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.841444270016</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.833455612619</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.863636363636</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <f aca="false">AVERAGE(C42,E42,G42)</f>
+        <v>0.846178748757</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0.8216662015</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.838154808444</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.830520909758</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0.865414710485</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <f aca="false">AVERAGE(C43,E43,G43)</f>
+        <v>0.844696809562333</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0.8318716997</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.83476898982</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.832724616508</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0.862960062647</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <f aca="false">AVERAGE(C44,E44,G44)</f>
+        <v>0.843484556325</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0.8314786949</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.836990595611</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0.828947368421</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0.865203761755</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <f aca="false">AVERAGE(C45,E45,G45)</f>
+        <v>0.843713908595667</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>0.8300189682</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.837245696401</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.831625183016</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0.862960062647</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <f aca="false">AVERAGE(C46,E46,G46)</f>
+        <v>0.843943647354667</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>0.8271076019</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.839215686275</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0.832234432234</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0.866352201258</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <f aca="false">AVERAGE(C47,E47,G47)</f>
+        <v>0.845934106589</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>0.8296943481</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.837647058824</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.832234432234</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.866352201258</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <f aca="false">AVERAGE(C48,E48,G48)</f>
+        <v>0.845411230772</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0.8323619982</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.834115805947</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.825863335783</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0.8672427337</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <f aca="false">AVERAGE(C49,E49,G49)</f>
+        <v>0.84240729181</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>0.8323742599</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.833855799373</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.830161054173</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0.866771159875</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="false">AVERAGE(C50,E50,G50)</f>
+        <v>0.843596004473667</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>0.8304847874</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.830336200156</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.832234432234</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.872357086922</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="false">AVERAGE(C51,E51,G51)</f>
+        <v>0.844975906437333</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>0.8327848409</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.829420970266</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0.827586206897</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0.865460267506</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <f aca="false">AVERAGE(C52,E52,G52)</f>
+        <v>0.840822481556333</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>0.8306132193</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.834633385335</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.831625183016</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0.873040752351</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <f aca="false">AVERAGE(C53,E53,G53)</f>
+        <v>0.846433106900667</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>0.8322748023</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.836990595611</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0.831016825165</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0.873527101335</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <f aca="false">AVERAGE(C54,E54,G54)</f>
+        <v>0.847178174037</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>0.8312398391</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.827208756841</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.830409356725</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0.874411302983</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <f aca="false">AVERAGE(C55,E55,G55)</f>
+        <v>0.844009805516333</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>0.8306925263</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.8296875</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0.830051057622</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0.87079091621</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <f aca="false">AVERAGE(C56,E56,G56)</f>
+        <v>0.843509824610667</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>0.8314054429</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.828393135725</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.828696925329</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.873527101335</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <f aca="false">AVERAGE(C57,E57,G57)</f>
+        <v>0.843539054129667</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>0.8313942866</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.830601092896</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0.830903790087</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0.870588235294</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <f aca="false">AVERAGE(C58,E58,G58)</f>
+        <v>0.844031039425667</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0.8321088583</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.829039812646</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0.829802775749</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0.872357086922</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <f aca="false">AVERAGE(C59,E59,G59)</f>
+        <v>0.843733225105667</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0.8319892258</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.8296875</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0.828947368421</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0.870109546166</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <f aca="false">AVERAGE(C60,E60,G60)</f>
+        <v>0.842914804862333</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>0.830991231</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.83125</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0.831625183016</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0.867716535433</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <f aca="false">AVERAGE(C61,E61,G61)</f>
+        <v>0.843530572816333</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>0.8306857987</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.832162373146</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0.82991202346</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0.87284144427</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <f aca="false">AVERAGE(C62,E62,G62)</f>
+        <v>0.844971946958667</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>0.8337282454</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.830070477682</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0.831130690162</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0.874901652242</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <f aca="false">AVERAGE(C63,E63,G63)</f>
+        <v>0.845367606695333</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>0.8305851757</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.826938136257</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0.831016825165</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0.870109546166</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <f aca="false">AVERAGE(C64,E64,G64)</f>
+        <v>0.842688169196</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>0.8303073416</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.827478532397</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0.829553767374</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0.873040752351</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <f aca="false">AVERAGE(C65,E65,G65)</f>
+        <v>0.843357684040667</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>0.829268237</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.830601092896</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0.829553767374</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0.868338557994</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <f aca="false">AVERAGE(C66,E66,G66)</f>
+        <v>0.842831139421333</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>0.8293379738</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.8296875</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0.832116788321</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0.870109546166</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <f aca="false">AVERAGE(C67,E67,G67)</f>
+        <v>0.843971278162333</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>0.8293662573</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.828772478499</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>0.833942940746</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0.8703125</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <f aca="false">AVERAGE(C68,E68,G68)</f>
+        <v>0.844342639748333</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>0.8295918802</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.829420970266</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0.831263696129</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0.873725490196</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <f aca="false">AVERAGE(C69,E69,G69)</f>
+        <v>0.844803385530333</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>0.8288995117</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.827478532397</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0.830161054173</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0.871271585557</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <f aca="false">AVERAGE(C70,E70,G70)</f>
+        <v>0.842970390709</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>0.829116747</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.825645035184</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0.830656934307</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0.873040752351</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <f aca="false">AVERAGE(C71,E71,G71)</f>
+        <v>0.843114240614</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>0.8284970447</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.826291079812</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0.82991202346</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>0.871473354232</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <f aca="false">AVERAGE(C72,E72,G72)</f>
+        <v>0.842558819168</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>0.8270329349</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.826938136257</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0.829553767374</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0.872156862745</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <f aca="false">AVERAGE(C73,E73,G73)</f>
+        <v>0.842882922125333</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>0.8266108296</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.828125</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0.830769230769</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>0.87460815047</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <f aca="false">AVERAGE(C74,E74,G74)</f>
+        <v>0.844500793746333</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>0.8273578671</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.828772478499</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0.833942940746</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>0.87079091621</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <f aca="false">AVERAGE(C75,E75,G75)</f>
+        <v>0.844502111818333</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>0.8228271471</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.828772478499</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0.831625183016</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>0.872357086922</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <f aca="false">AVERAGE(C76,E76,G76)</f>
+        <v>0.844251582812333</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>0.8230904736</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.830336200156</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>0.831988261189</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>0.871956009427</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <f aca="false">AVERAGE(C77,E77,G77)</f>
+        <v>0.844760156924</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>0.8265103095</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.828885400314</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>0.834553440703</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>0.871473354232</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <f aca="false">AVERAGE(C78,E78,G78)</f>
+        <v>0.844970731749667</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>0.8236056708</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.8265625</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>0.832234432234</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>0.873725490196</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <f aca="false">AVERAGE(C79,E79,G79)</f>
+        <v>0.84417414081</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>0.8236641666</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.829420970266</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0.833089311859</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>0.87255668491</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <f aca="false">AVERAGE(C80,E80,G80)</f>
+        <v>0.845022322345</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>0.8250432874</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.827586206897</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0.836017569546</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>0.873040752351</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <f aca="false">AVERAGE(C81,E81,G81)</f>
+        <v>0.845548176264667</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>0.8284814663</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.8296875</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0.830520909758</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0.87323943662</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <f aca="false">AVERAGE(C82,E82,G82)</f>
+        <v>0.844482615459333</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>0.8285345613</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.830336200156</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0.831871345029</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>0.87106918239</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <f aca="false">AVERAGE(C83,E83,G83)</f>
+        <v>0.844425575858333</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>0.8229964583</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.829039812646</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>0.83137829912</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>0.869224745497</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <f aca="false">AVERAGE(C84,E84,G84)</f>
+        <v>0.843214285754333</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>0.827321608</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.829153605016</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>0.833455612619</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>0.871674491393</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <f aca="false">AVERAGE(C85,E85,G85)</f>
+        <v>0.844761236342667</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>0.8287308142</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.825645035184</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>0.82966226138</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>0.87079091621</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <f aca="false">AVERAGE(C86,E86,G86)</f>
+        <v>0.842032737591333</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>0.8268054261</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.825645035184</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>0.831988261189</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>0.872641509434</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <f aca="false">AVERAGE(C87,E87,G87)</f>
+        <v>0.843424935269</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <v>0.8251238451</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.824451410658</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0.833089311859</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>0.868544600939</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <f aca="false">AVERAGE(C88,E88,G88)</f>
+        <v>0.842028441152</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>0.8249479952</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.828504306969</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0.832234432234</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>0.869905956113</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <f aca="false">AVERAGE(C89,E89,G89)</f>
+        <v>0.843548231772</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>0.8207811268</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.827208756841</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0.832599118943</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>0.869905956113</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <f aca="false">AVERAGE(C90,E90,G90)</f>
+        <v>0.843237943965667</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>0.8233186344</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.828504306969</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0.8336996337</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>0.873923257635</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <f aca="false">AVERAGE(C91,E91,G91)</f>
+        <v>0.845375732768</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>0.8216100099</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.827208756841</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>0.831871345029</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>0.87284144427</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <f aca="false">AVERAGE(C92,E92,G92)</f>
+        <v>0.843973848713333</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>0.8227652381</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.827208756841</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0.8336996337</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>0.875489428348</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <f aca="false">AVERAGE(C93,E93,G93)</f>
+        <v>0.845465939629667</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>0.8216853994</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.831636648395</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>0.830271858927</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>0.874213836478</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <f aca="false">AVERAGE(C94,E94,G94)</f>
+        <v>0.8453741146</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>0.8215388987</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.826291079812</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0.830520909758</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>0.866979655712</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <f aca="false">AVERAGE(C95,E95,G95)</f>
+        <v>0.841263881760667</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>0.8271575168</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.828504306969</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>0.83137829912</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>0.873040752351</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <f aca="false">AVERAGE(C96,E96,G96)</f>
+        <v>0.844307786146667</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>0.8265552228</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.831636648395</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>0.83431085044</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>0.867658574785</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <f aca="false">AVERAGE(C97,E97,G97)</f>
+        <v>0.844535357873333</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>0.8243149166</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.826291079812</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>0.832234432234</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>0.872357086922</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <f aca="false">AVERAGE(C98,E98,G98)</f>
+        <v>0.843627532989333</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>0.8221389339</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.829420970266</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>0.834185536888</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>0.869224745497</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <f aca="false">AVERAGE(C99,E99,G99)</f>
+        <v>0.844277084217</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>0.8216292279</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.825371965544</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0.8336996337</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>0.869701726845</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <f aca="false">AVERAGE(C100,E100,G100)</f>
+        <v>0.842924442029667</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>0.8240629083</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.824355971897</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0.833333333333</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>0.871473354232</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <f aca="false">AVERAGE(C101,E101,G101)</f>
+        <v>0.843054219820667</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>0.827004807</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.824081313526</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>0.835886214442</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>0.87323943662</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <f aca="false">AVERAGE(C102,E102,G102)</f>
+        <v>0.844402321529333</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <v>0.8217679987</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.822517591869</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>0.834553440703</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>0.873040752351</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <f aca="false">AVERAGE(C103,E103,G103)</f>
+        <v>0.843370594974333</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>0.8228434373</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.8234375</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0.828696925329</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>0.874411302983</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <f aca="false">AVERAGE(C104,E104,G104)</f>
+        <v>0.842181909437333</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>0.8210998318</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.824726134585</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>0.831263696129</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>0.876862745098</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <f aca="false">AVERAGE(C105,E105,G105)</f>
+        <v>0.844284191937333</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>0.8236285265</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.826938136257</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>0.833089311859</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>0.873040752351</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <f aca="false">AVERAGE(C106,E106,G106)</f>
+        <v>0.844356066822333</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>0.8263889839</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.823805794832</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0.832234432234</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>0.870588235294</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <f aca="false">AVERAGE(C107,E107,G107)</f>
+        <v>0.842209487453333</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <v>0.8251434782</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.8265625</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0.832234432234</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>0.872156862745</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <f aca="false">AVERAGE(C108,E108,G108)</f>
+        <v>0.843651264993</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <v>0.8242395424</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.8265625</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>0.83492296405</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>0.869701726845</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <f aca="false">AVERAGE(C109,E109,G109)</f>
+        <v>0.843729063631667</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>0.8238318617</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.829536527887</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>0.831130690162</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>0.87284144427</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <f aca="false">AVERAGE(C110,E110,G110)</f>
+        <v>0.844502887439667</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>0.8244666725</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.823805794832</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>0.827838827839</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>0.87460815047</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <f aca="false">AVERAGE(C111,E111,G111)</f>
+        <v>0.842084257713667</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>0.8217578986</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.824726134585</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>0.832479882955</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>0.875098193244</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <f aca="false">AVERAGE(C112,E112,G112)</f>
+        <v>0.844101403594667</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>0.8227791464</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>0.824726134585</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0.833333333333</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>0.87460815047</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <f aca="false">AVERAGE(C113,E113,G113)</f>
+        <v>0.844222539462667</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <v>0.8221314902</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>0.824726134585</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0.832479882955</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>0.872156862745</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <f aca="false">AVERAGE(C114,E114,G114)</f>
+        <v>0.843120960095</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>0.8228332105</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>0.824726134585</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0.831130690162</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>0.873040752351</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <f aca="false">AVERAGE(C115,E115,G115)</f>
+        <v>0.842965859032667</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>0.8236659172</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>0.821960784314</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>0.830161054173</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>0.873040752351</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <f aca="false">AVERAGE(C116,E116,G116)</f>
+        <v>0.841720863612667</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <v>0.8201528402</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>0.822517591869</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0.82991202346</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>0.871674491393</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <f aca="false">AVERAGE(C117,E117,G117)</f>
+        <v>0.841368035574</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>0.8214087774</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>0.822884012539</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0.828090709583</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>0.869224745497</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <f aca="false">AVERAGE(C118,E118,G118)</f>
+        <v>0.840066489206333</v>
+      </c>
+      <c r="K118" s="0" t="n">
+        <v>0.8209691947</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>0.824451410658</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0.830409356725</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>0.868338557994</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <f aca="false">AVERAGE(C119,E119,G119)</f>
+        <v>0.841066441792333</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <v>0.8229796592</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>0.823805794832</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0.827133479212</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>0.87284144427</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <f aca="false">AVERAGE(C120,E120,G120)</f>
+        <v>0.841260239438</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <v>0.8187678261</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>0.825098039216</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0.831871345029</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>0.872156862745</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <f aca="false">AVERAGE(C121,E121,G121)</f>
+        <v>0.84304208233</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <v>0.8280878108</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>0.823252160251</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0.833333333333</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>0.869905956113</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <f aca="false">AVERAGE(C122,E122,G122)</f>
+        <v>0.842163816565667</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <v>0.8237474713</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>0.822884012539</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0.830409356725</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>0.870588235294</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <f aca="false">AVERAGE(C123,E123,G123)</f>
+        <v>0.841293868186</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <v>0.8188146274</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>0.823252160251</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0.8336996337</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>0.868338557994</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <f aca="false">AVERAGE(C124,E124,G124)</f>
+        <v>0.841763450648333</v>
+      </c>
+      <c r="K124" s="0" t="n">
+        <v>0.8194116407</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>0.823529411765</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0.835405998537</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>0.870109546166</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <f aca="false">AVERAGE(C125,E125,G125)</f>
+        <v>0.843014985489333</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <v>0.8204882549</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>0.81875</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0.83492296405</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>0.872156862745</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <f aca="false">AVERAGE(C126,E126,G126)</f>
+        <v>0.841943275598333</v>
+      </c>
+      <c r="K126" s="0" t="n">
+        <v>0.8214461387</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>0.815912636505</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>0.833455612619</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>0.871271585557</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <f aca="false">AVERAGE(C127,E127,G127)</f>
+        <v>0.840213278227</v>
+      </c>
+      <c r="K127" s="0" t="n">
+        <v>0.8192953466</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>0.818110850898</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0.832599118943</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>0.87284144427</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <f aca="false">AVERAGE(C128,E128,G128)</f>
+        <v>0.841183804703667</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <v>0.821136676</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>0.820392156863</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>0.833455612619</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>0.871674491393</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <f aca="false">AVERAGE(C129,E129,G129)</f>
+        <v>0.841840753625</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <v>0.8211770796</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>0.818466353678</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>0.830271858927</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>0.872156862745</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <f aca="false">AVERAGE(C130,E130,G130)</f>
+        <v>0.84029835845</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>0.8182655296</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>0.819672131148</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>0.834795321637</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>0.869429241595</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <f aca="false">AVERAGE(C131,E131,G131)</f>
+        <v>0.841298898126667</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>0.8220463631</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>0.8203125</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0.823959094229</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>0.866771159875</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <f aca="false">AVERAGE(C132,E132,G132)</f>
+        <v>0.837014251368</v>
+      </c>
+      <c r="K132" s="0" t="n">
+        <v>0.8215427969</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>0.818466353678</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0.834553440703</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>0.865625</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <f aca="false">AVERAGE(C133,E133,G133)</f>
+        <v>0.839548264793667</v>
+      </c>
+      <c r="K133" s="0" t="n">
+        <v>0.8217578986</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>0.818466353678</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>0.836017569546</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>0.869224745497</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <f aca="false">AVERAGE(C134,E134,G134)</f>
+        <v>0.841236222907</v>
+      </c>
+      <c r="K134" s="0" t="n">
+        <v>0.8210501582</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>0.816549570648</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0.827232796486</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>0.870992963253</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <f aca="false">AVERAGE(C135,E135,G135)</f>
+        <v>0.838258443462333</v>
+      </c>
+      <c r="K135" s="0" t="n">
+        <v>0.8222180895</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>0.81875</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0.830769230769</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>0.868544600939</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <f aca="false">AVERAGE(C136,E136,G136)</f>
+        <v>0.839354610569333</v>
+      </c>
+      <c r="K136" s="0" t="n">
+        <v>0.8243106867</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>0.82131661442</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0.834795321637</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>0.870109546166</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <f aca="false">AVERAGE(C137,E137,G137)</f>
+        <v>0.842073827407667</v>
+      </c>
+      <c r="K137" s="0" t="n">
+        <v>0.8236934234</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>0.820392156863</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>0.835405998537</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>0.8703125</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <f aca="false">AVERAGE(C138,E138,G138)</f>
+        <v>0.842036885133333</v>
+      </c>
+      <c r="K138" s="0" t="n">
+        <v>0.822520095</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>0.819390148554</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>0.833942940746</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>0.866979655712</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <f aca="false">AVERAGE(C139,E139,G139)</f>
+        <v>0.840104248337333</v>
+      </c>
+      <c r="K139" s="0" t="n">
+        <v>0.8237292409</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>0.819107282694</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0.833089311859</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>0.868544600939</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <f aca="false">AVERAGE(C140,E140,G140)</f>
+        <v>0.840247065164</v>
+      </c>
+      <c r="K140" s="0" t="n">
+        <v>0.8225998726</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>0.818823529412</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>0.832479882955</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>0.868544600939</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <f aca="false">AVERAGE(C141,E141,G141)</f>
+        <v>0.839949337768667</v>
+      </c>
+      <c r="K141" s="0" t="n">
+        <v>0.8260356873</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>0.814698983581</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0.833942940746</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>0.868544600939</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <f aca="false">AVERAGE(C142,E142,G142)</f>
+        <v>0.839062175088666</v>
+      </c>
+      <c r="K142" s="0" t="n">
+        <v>0.8216294375</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>0.8078125</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0.832479882955</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>0.870109546166</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <f aca="false">AVERAGE(C143,E143,G143)</f>
+        <v>0.836800643040333</v>
+      </c>
+      <c r="K143" s="0" t="n">
+        <v>0.8235595725</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>0.811912225705</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>0.825420014609</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>0.865203761755</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <f aca="false">AVERAGE(C144,E144,G144)</f>
+        <v>0.834178667356333</v>
+      </c>
+      <c r="K144" s="0" t="n">
+        <v>0.8187774196</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>0.813771517997</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0.825420014609</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>0.868338557994</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <f aca="false">AVERAGE(C145,E145,G145)</f>
+        <v>0.835843363533333</v>
+      </c>
+      <c r="K145" s="0" t="n">
+        <v>0.8171887891</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>0.8147566719</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0.831871345029</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>0.866979655712</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <f aca="false">AVERAGE(C146,E146,G146)</f>
+        <v>0.837869224213667</v>
+      </c>
+      <c r="K146" s="0" t="n">
+        <v>0.8191138118</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>0.8147566719</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>0.831625183016</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>0.869019607843</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <f aca="false">AVERAGE(C147,E147,G147)</f>
+        <v>0.838467154253</v>
+      </c>
+      <c r="K147" s="0" t="n">
+        <v>0.8192952713</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>0.811912225705</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>0.831263696129</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>0.868338557994</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <f aca="false">AVERAGE(C148,E148,G148)</f>
+        <v>0.837171493276</v>
+      </c>
+      <c r="K148" s="0" t="n">
+        <v>0.8210446626</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>0.815047021944</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0.827586206897</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>0.866979655712</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <f aca="false">AVERAGE(C149,E149,G149)</f>
+        <v>0.836537628184333</v>
+      </c>
+      <c r="K149" s="0" t="n">
+        <v>0.8176057183</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>0.81220657277</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>0.831871345029</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>0.870109546166</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <f aca="false">AVERAGE(C150,E150,G150)</f>
+        <v>0.838062487988333</v>
+      </c>
+      <c r="K150" s="0" t="n">
+        <v>0.8204643605</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>0.813135261923</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0.830051057622</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>0.868544600939</v>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="J151" s="0" t="n">
+        <f aca="false">AVERAGE(C151,E151,G151)</f>
+        <v>0.837243640161333</v>
+      </c>
+      <c r="K151" s="0" t="n">
+        <v>0.814532437</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>0.819749216301</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>0.828090709583</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>0.866979655712</v>
+      </c>
+      <c r="I152" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="J152" s="0" t="n">
+        <f aca="false">AVERAGE(C152,E152,G152)</f>
+        <v>0.838273193865333</v>
+      </c>
+      <c r="K152" s="0" t="n">
+        <v>0.8196707621</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>0.817254901961</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>0.832116788321</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>0.869429241595</v>
+      </c>
+      <c r="I153" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="J153" s="0" t="n">
+        <f aca="false">AVERAGE(C153,E153,G153)</f>
+        <v>0.839600310625667</v>
+      </c>
+      <c r="K153" s="0" t="n">
+        <v>0.8212658669</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>0.817541111981</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>0.831871345029</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>0.867658574785</v>
+      </c>
+      <c r="I154" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="J154" s="0" t="n">
+        <f aca="false">AVERAGE(C154,E154,G154)</f>
+        <v>0.839023677265</v>
+      </c>
+      <c r="K154" s="0" t="n">
+        <v>0.8221844284</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>0.817541111981</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>0.830409356725</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>0.869224745497</v>
+      </c>
+      <c r="I155" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="J155" s="0" t="n">
+        <f aca="false">AVERAGE(C155,E155,G155)</f>
+        <v>0.839058404734333</v>
+      </c>
+      <c r="K155" s="0" t="n">
+        <v>0.8239814057</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>0.814352574103</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>0.826880934989</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>0.867658574785</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="J156" s="0" t="n">
+        <f aca="false">AVERAGE(C156,E156,G156)</f>
+        <v>0.836297361292333</v>
+      </c>
+      <c r="K156" s="0" t="n">
+        <v>0.8235499467</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>0.815336463224</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>0.830409356725</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>0.869224745497</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="J157" s="0" t="n">
+        <f aca="false">AVERAGE(C157,E157,G157)</f>
+        <v>0.838323521815333</v>
+      </c>
+      <c r="K157" s="0" t="n">
+        <v>0.8204756304</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>0.816901408451</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>0.828341855369</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>0.867658574785</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="J158" s="0" t="n">
+        <f aca="false">AVERAGE(C158,E158,G158)</f>
+        <v>0.837633946201667</v>
+      </c>
+      <c r="K158" s="0" t="n">
+        <v>0.815083879</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>0.814408770556</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>0.828445747801</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>0.867658574785</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="J159" s="0" t="n">
+        <f aca="false">AVERAGE(C159,E159,G159)</f>
+        <v>0.836837697714</v>
+      </c>
+      <c r="K159" s="0" t="n">
+        <v>0.8203731418</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>0.8140625</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>0.828090709583</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>0.869224745497</v>
+      </c>
+      <c r="I160" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="J160" s="0" t="n">
+        <f aca="false">AVERAGE(C160,E160,G160)</f>
+        <v>0.837125985026667</v>
+      </c>
+      <c r="K160" s="0" t="n">
+        <v>0.8186763991</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>0.815974941269</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>0.828341855369</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>0.869905956113</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="J161" s="0" t="n">
+        <f aca="false">AVERAGE(C161,E161,G161)</f>
+        <v>0.838074250917</v>
+      </c>
+      <c r="K161" s="0" t="n">
+        <v>0.8197575172</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>0.813135261923</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>0.823959094229</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>0.867450980392</v>
+      </c>
+      <c r="I162" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="J162" s="0" t="n">
+        <f aca="false">AVERAGE(C162,E162,G162)</f>
+        <v>0.834848445514667</v>
+      </c>
+      <c r="K162" s="0" t="n">
+        <v>0.8197358197</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>0.816614420063</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>0.825928623452</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>0.869905956113</v>
+      </c>
+      <c r="I163" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="J163" s="0" t="n">
+        <f aca="false">AVERAGE(C163,E163,G163)</f>
+        <v>0.837482999876</v>
+      </c>
+      <c r="K163" s="0" t="n">
+        <v>0.8194471826</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>0.811912225705</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>0.827385287691</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>0.872156862745</v>
+      </c>
+      <c r="I164" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="J164" s="0" t="n">
+        <f aca="false">AVERAGE(C164,E164,G164)</f>
+        <v>0.837151458713667</v>
+      </c>
+      <c r="K164" s="0" t="n">
+        <v>0.8203679332</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>0.813771517997</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>0.825072886297</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>0.871473354232</v>
+      </c>
+      <c r="I165" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="J165" s="0" t="n">
+        <f aca="false">AVERAGE(C165,E165,G165)</f>
+        <v>0.836772586175333</v>
+      </c>
+      <c r="K165" s="0" t="n">
+        <v>0.8197358197</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>0.811912225705</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>0.825327510917</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>0.87079091621</v>
+      </c>
+      <c r="I166" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="J166" s="0" t="n">
+        <f aca="false">AVERAGE(C166,E166,G166)</f>
+        <v>0.836010217610667</v>
+      </c>
+      <c r="K166" s="0" t="n">
+        <v>0.8190724237</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>0.815047021944</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>0.826277372263</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>0.869224745497</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="J167" s="0" t="n">
+        <f aca="false">AVERAGE(C167,E167,G167)</f>
+        <v>0.836849713234667</v>
+      </c>
+      <c r="K167" s="0" t="n">
+        <v>0.8185163874</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>0.813771517997</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>0.828592268417</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>0.868544600939</v>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="J168" s="0" t="n">
+        <f aca="false">AVERAGE(C168,E168,G168)</f>
+        <v>0.836969462451</v>
+      </c>
+      <c r="K168" s="0" t="n">
+        <v>0.819589723</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>0.810344827586</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>0.828238719068</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>0.868813825609</v>
+      </c>
+      <c r="I169" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="J169" s="0" t="n">
+        <f aca="false">AVERAGE(C169,E169,G169)</f>
+        <v>0.835799124087667</v>
+      </c>
+      <c r="K169" s="0" t="n">
+        <v>0.8209785408</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>0.811276429131</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>0.825420014609</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>0.867450980392</v>
+      </c>
+      <c r="I170" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="J170" s="0" t="n">
+        <f aca="false">AVERAGE(C170,E170,G170)</f>
+        <v>0.834715808044</v>
+      </c>
+      <c r="K170" s="0" t="n">
+        <v>0.8197802198</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>0.804705882353</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>0.830161054173</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="G171" s="0" t="n">
+        <v>0.867450980392</v>
+      </c>
+      <c r="I171" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="J171" s="0" t="n">
+        <f aca="false">AVERAGE(C171,E171,G171)</f>
+        <v>0.834105972306</v>
+      </c>
+      <c r="K171" s="0" t="n">
+        <v>0.8191898465</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>0.809411764706</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>0.828696925329</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>0.8672427337</v>
+      </c>
+      <c r="I172" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="J172" s="0" t="n">
+        <f aca="false">AVERAGE(C172,E172,G172)</f>
+        <v>0.835117141245</v>
+      </c>
+      <c r="K172" s="0" t="n">
+        <v>0.819508834</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>0.810344827586</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>0.823357664234</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>0.868338557994</v>
+      </c>
+      <c r="I173" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="J173" s="0" t="n">
+        <f aca="false">AVERAGE(C173,E173,G173)</f>
+        <v>0.834013683271333</v>
+      </c>
+      <c r="K173" s="0" t="n">
+        <v>0.8201013422</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>0.812842599843</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>0.830656934307</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>0.867658574785</v>
+      </c>
+      <c r="I174" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="J174" s="0" t="n">
+        <f aca="false">AVERAGE(C174,E174,G174)</f>
+        <v>0.837052702978333</v>
+      </c>
+      <c r="K174" s="0" t="n">
+        <v>0.8185264556</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>0.809710258418</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>0.827838827839</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>0.868338557994</v>
+      </c>
+      <c r="I175" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="J175" s="0" t="n">
+        <f aca="false">AVERAGE(C175,E175,G175)</f>
+        <v>0.835295881417</v>
+      </c>
+      <c r="K175" s="0" t="n">
+        <v>0.819888897</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>0.809076682316</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>0.828341855369</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>0.863849765258</v>
+      </c>
+      <c r="I176" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="J176" s="0" t="n">
+        <f aca="false">AVERAGE(C176,E176,G176)</f>
+        <v>0.833756100981</v>
+      </c>
+      <c r="K176" s="0" t="n">
+        <v>0.8193396008</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>0.811276429131</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>0.826627651792</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>0.865203761755</v>
+      </c>
+      <c r="I177" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="J177" s="0" t="n">
+        <f aca="false">AVERAGE(C177,E177,G177)</f>
+        <v>0.834369280892667</v>
+      </c>
+      <c r="K177" s="0" t="n">
+        <v>0.820075436</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>0.811276429131</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>0.826627651792</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>0.865203761755</v>
+      </c>
+      <c r="I178" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="J178" s="0" t="n">
+        <f aca="false">AVERAGE(C178,E178,G178)</f>
+        <v>0.834369280892667</v>
+      </c>
+      <c r="K178" s="0" t="n">
+        <v>0.8196763743</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>0.811276429131</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>0.828947368421</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>0.868338557994</v>
+      </c>
+      <c r="I179" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="J179" s="0" t="n">
+        <f aca="false">AVERAGE(C179,E179,G179)</f>
+        <v>0.836187451848667</v>
+      </c>
+      <c r="K179" s="0" t="n">
+        <v>0.8184023142</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>0.81220657277</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>0.826627651792</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>0.866092404072</v>
+      </c>
+      <c r="I180" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="J180" s="0" t="n">
+        <f aca="false">AVERAGE(C180,E180,G180)</f>
+        <v>0.834975542878</v>
+      </c>
+      <c r="K180" s="0" t="n">
+        <v>0.8199939616</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>0.810641627543</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>0.826627651792</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="G181" s="0" t="n">
+        <v>0.865625</v>
+      </c>
+      <c r="I181" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="J181" s="0" t="n">
+        <f aca="false">AVERAGE(C181,E181,G181)</f>
+        <v>0.834298093111667</v>
+      </c>
+      <c r="K181" s="0" t="n">
+        <v>0.8182695538</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>0.811571540266</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>0.826277372263</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>0.864949258392</v>
+      </c>
+      <c r="I182" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="J182" s="0" t="n">
+        <f aca="false">AVERAGE(C182,E182,G182)</f>
+        <v>0.834266056973667</v>
+      </c>
+      <c r="K182" s="0" t="n">
+        <v>0.8185529637</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>0.81220657277</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>0.827737226277</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>0.866771159875</v>
+      </c>
+      <c r="I183" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="J183" s="0" t="n">
+        <f aca="false">AVERAGE(C183,E183,G183)</f>
+        <v>0.835571652974</v>
+      </c>
+      <c r="K183" s="0" t="n">
+        <v>0.8162393162</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>0.814698983581</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>0.825420014609</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>0.866771159875</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="J184" s="0" t="n">
+        <f aca="false">AVERAGE(C184,E184,G184)</f>
+        <v>0.835630052688333</v>
+      </c>
+      <c r="K184" s="0" t="n">
+        <v>0.8184023142</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>0.814698983581</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>0.826023391813</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>0.866771159875</v>
+      </c>
+      <c r="I185" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="J185" s="0" t="n">
+        <f aca="false">AVERAGE(C185,E185,G185)</f>
+        <v>0.835831178423</v>
+      </c>
+      <c r="K185" s="0" t="n">
+        <v>0.8172434189</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>0.81220657277</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>0.821637426901</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>0.866092404072</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="J186" s="0" t="n">
+        <f aca="false">AVERAGE(C186,E186,G186)</f>
+        <v>0.833312134581</v>
+      </c>
+      <c r="K186" s="0" t="n">
+        <v>0.8164357364</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>0.811276429131</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>0.823701536211</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>0.865414710485</v>
+      </c>
+      <c r="I187" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="J187" s="0" t="n">
+        <f aca="false">AVERAGE(C187,E187,G187)</f>
+        <v>0.833464225275667</v>
+      </c>
+      <c r="K187" s="0" t="n">
+        <v>0.8180841208</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>0.811276429131</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>0.823701536211</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>0.865414710485</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="J188" s="0" t="n">
+        <f aca="false">AVERAGE(C188,E188,G188)</f>
+        <v>0.833464225275667</v>
+      </c>
+      <c r="K188" s="0" t="n">
+        <v>0.81673456</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>0.81220657277</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>0.821637426901</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>0.866979655712</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="J189" s="0" t="n">
+        <f aca="false">AVERAGE(C189,E189,G189)</f>
+        <v>0.833607885127667</v>
+      </c>
+      <c r="K189" s="0" t="n">
+        <v>0.8174249951</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>0.810641627543</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>0.826627651792</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>0.865414710485</v>
+      </c>
+      <c r="I190" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="J190" s="0" t="n">
+        <f aca="false">AVERAGE(C190,E190,G190)</f>
+        <v>0.834227996606667</v>
+      </c>
+      <c r="K190" s="0" t="n">
+        <v>0.8180010793</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>0.81220657277</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>0.825164594001</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>0.866979655712</v>
+      </c>
+      <c r="I191" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="J191" s="0" t="n">
+        <f aca="false">AVERAGE(C191,E191,G191)</f>
+        <v>0.834783607494333</v>
+      </c>
+      <c r="K191" s="0" t="n">
+        <v>0.8183843582</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>0.811276429131</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>0.825164594001</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>0.868544600939</v>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="J192" s="0" t="n">
+        <f aca="false">AVERAGE(C192,E192,G192)</f>
+        <v>0.834995208023667</v>
+      </c>
+      <c r="K192" s="0" t="n">
+        <v>0.8196218696</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>0.812842599843</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>0.825768667643</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>0.866979655712</v>
+      </c>
+      <c r="I193" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="J193" s="0" t="n">
+        <f aca="false">AVERAGE(C193,E193,G193)</f>
+        <v>0.835196974399333</v>
+      </c>
+      <c r="K193" s="0" t="n">
+        <v>0.8213147302</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>0.814698983581</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>0.826627651792</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="G194" s="0" t="n">
+        <v>0.866979655712</v>
+      </c>
+      <c r="I194" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="J194" s="0" t="n">
+        <f aca="false">AVERAGE(C194,E194,G194)</f>
+        <v>0.836102097028333</v>
+      </c>
+      <c r="K194" s="0" t="n">
+        <v>0.8197619351</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>0.811571540266</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>0.821376281113</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>0.867394695788</v>
+      </c>
+      <c r="I195" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="J195" s="0" t="n">
+        <f aca="false">AVERAGE(C195,E195,G195)</f>
+        <v>0.833447505722333</v>
+      </c>
+      <c r="K195" s="0" t="n">
+        <v>0.817377989</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>0.813771517997</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>0.822058823529</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>0.867865519937</v>
+      </c>
+      <c r="I196" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="J196" s="0" t="n">
+        <f aca="false">AVERAGE(C196,E196,G196)</f>
+        <v>0.834565287154333</v>
+      </c>
+      <c r="K196" s="0" t="n">
+        <v>0.8196474594</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>0.812842599843</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>0.825256975037</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>0.86630179828</v>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="J197" s="0" t="n">
+        <f aca="false">AVERAGE(C197,E197,G197)</f>
+        <v>0.83480045772</v>
+      </c>
+      <c r="K197" s="0" t="n">
+        <v>0.8199407784</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>0.813771517997</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>0.823959094229</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>0.866979655712</v>
+      </c>
+      <c r="I198" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="J198" s="0" t="n">
+        <f aca="false">AVERAGE(C198,E198,G198)</f>
+        <v>0.834903422646</v>
+      </c>
+      <c r="K198" s="0" t="n">
+        <v>0.8193396008</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>0.811865729899</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>0.823357664234</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>0.866979655712</v>
+      </c>
+      <c r="I199" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="J199" s="0" t="n">
+        <f aca="false">AVERAGE(C199,E199,G199)</f>
+        <v>0.834067683281667</v>
+      </c>
+      <c r="K199" s="0" t="n">
+        <v>0.8202320058</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>0.813771517997</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>0.824817518248</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>0.866979655712</v>
+      </c>
+      <c r="I200" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="J200" s="0" t="n">
+        <f aca="false">AVERAGE(C200,E200,G200)</f>
+        <v>0.835189563985667</v>
+      </c>
+      <c r="K200" s="0" t="n">
+        <v>0.8222360077</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>0.814408770556</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>0.824561403509</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>0.865414710485</v>
+      </c>
+      <c r="I201" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="J201" s="0" t="n">
+        <f aca="false">AVERAGE(C201,E201,G201)</f>
+        <v>0.834794961516667</v>
+      </c>
+      <c r="K201" s="0" t="n">
+        <v>0.8180404355</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>0.815047021944</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>0.828341855369</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G202" s="0" t="n">
+        <v>0.867658574785</v>
+      </c>
+      <c r="I202" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J202" s="0" t="n">
+        <f aca="false">AVERAGE(C202,E202,G202)</f>
+        <v>0.837015817366</v>
+      </c>
+      <c r="K202" s="0" t="n">
+        <v>0.8198757764</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Coba2 - Copy.xlsx
+++ b/Coba2 - Copy.xlsx
@@ -543,7 +543,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -593,6 +593,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -899,7 +905,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1222,11 +1228,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="27494215"/>
-        <c:axId val="38546654"/>
+        <c:axId val="19156337"/>
+        <c:axId val="64269227"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27494215"/>
+        <c:axId val="19156337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1262,14 +1268,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38546654"/>
+        <c:crossAx val="64269227"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38546654"/>
+        <c:axId val="64269227"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1314,7 +1320,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27494215"/>
+        <c:crossAx val="19156337"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1352,7 +1358,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1720,11 +1726,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="39873110"/>
-        <c:axId val="33938839"/>
+        <c:axId val="37460273"/>
+        <c:axId val="37470040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39873110"/>
+        <c:axId val="37460273"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,14 +1766,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33938839"/>
+        <c:crossAx val="37470040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33938839"/>
+        <c:axId val="37470040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1812,7 +1818,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39873110"/>
+        <c:crossAx val="37460273"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1850,7 +1856,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2105,11 +2111,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="46765696"/>
-        <c:axId val="88225556"/>
+        <c:axId val="1867814"/>
+        <c:axId val="53928796"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46765696"/>
+        <c:axId val="1867814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,14 +2151,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88225556"/>
+        <c:crossAx val="53928796"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88225556"/>
+        <c:axId val="53928796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -2196,7 +2202,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46765696"/>
+        <c:crossAx val="1867814"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2234,7 +2240,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2421,11 +2427,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="96707330"/>
-        <c:axId val="95069553"/>
+        <c:axId val="75632442"/>
+        <c:axId val="42828787"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96707330"/>
+        <c:axId val="75632442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,14 +2467,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95069553"/>
+        <c:crossAx val="42828787"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95069553"/>
+        <c:axId val="42828787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.7"/>
@@ -2512,7 +2518,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96707330"/>
+        <c:crossAx val="75632442"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2550,7 +2556,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2587,6 +2593,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3842,6 +3849,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5076,11 +5084,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="44301343"/>
-        <c:axId val="45397669"/>
+        <c:axId val="42061576"/>
+        <c:axId val="86992418"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44301343"/>
+        <c:axId val="42061576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5115,14 +5123,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45397669"/>
+        <c:crossAx val="86992418"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45397669"/>
+        <c:axId val="86992418"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5137,7 +5145,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5166,7 +5174,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44301343"/>
+        <c:crossAx val="42061576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5214,9 +5222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>303120</xdr:colOff>
+      <xdr:colOff>302760</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5224,8 +5232,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3638520" y="338040"/>
-        <a:ext cx="4503600" cy="2741760"/>
+        <a:off x="3590640" y="338040"/>
+        <a:ext cx="4436640" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5244,9 +5252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>317520</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5254,8 +5262,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3652920" y="3414600"/>
-        <a:ext cx="4503600" cy="2741760"/>
+        <a:off x="3605040" y="3414600"/>
+        <a:ext cx="4436640" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5274,9 +5282,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>484200</xdr:colOff>
+      <xdr:colOff>483840</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5284,8 +5292,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11620440" y="338040"/>
-        <a:ext cx="4503600" cy="2741760"/>
+        <a:off x="11449080" y="338040"/>
+        <a:ext cx="4436640" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5304,9 +5312,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>465120</xdr:colOff>
+      <xdr:colOff>464760</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5314,8 +5322,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11601360" y="3414600"/>
-        <a:ext cx="4503600" cy="2741760"/>
+        <a:off x="11430000" y="3414600"/>
+        <a:ext cx="4436640" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5339,9 +5347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>763200</xdr:colOff>
+      <xdr:colOff>762840</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5350,7 +5358,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="168480" y="21352320"/>
-        <a:ext cx="16850520" cy="6703200"/>
+        <a:ext cx="16596360" cy="6702840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5376,7 +5384,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6683,22 +6691,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7023,7 +7031,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,7 +7353,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7485,10 +7493,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8404,7 +8412,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,6 +8488,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -8658,13 +8669,13 @@
   </sheetPr>
   <dimension ref="B1:M202"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coba2 - Copy.xlsx
+++ b/Coba2 - Copy.xlsx
@@ -905,7 +905,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1228,11 +1228,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="19156337"/>
-        <c:axId val="64269227"/>
+        <c:axId val="96223500"/>
+        <c:axId val="6641339"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="19156337"/>
+        <c:axId val="96223500"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,14 +1268,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64269227"/>
+        <c:crossAx val="6641339"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64269227"/>
+        <c:axId val="6641339"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1320,7 +1320,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19156337"/>
+        <c:crossAx val="96223500"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1358,7 +1358,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1726,11 +1726,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="37460273"/>
-        <c:axId val="37470040"/>
+        <c:axId val="80774415"/>
+        <c:axId val="61451343"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37460273"/>
+        <c:axId val="80774415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,14 +1766,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37470040"/>
+        <c:crossAx val="61451343"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37470040"/>
+        <c:axId val="61451343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1818,7 +1818,391 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37460273"/>
+        <c:crossAx val="80774415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Embedding and Model Choices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WE only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472c4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$14:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>polyglot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>word2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fastText</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$14:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CE only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$14:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>polyglot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>word2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fastText</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Both</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a5a5a5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$14:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>polyglot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>word2vec</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fastText</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$14:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="44052361"/>
+        <c:axId val="78556918"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44052361"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78556918"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78556918"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44052361"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1892,7 +2276,7 @@
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>Embedding and Model Choices</a:t>
+              <a:t>Model and Trainable Choices</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1910,11 +2294,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$13</c:f>
+              <c:f>Sheet1!$O$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WE only</c:v>
+                  <c:v>Not trainable</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1939,35 +2323,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$O$14:$O$16</c:f>
+              <c:f>Sheet1!$P$22:$R$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>polyglot</c:v>
+                  <c:v>WE only</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>word2vec</c:v>
+                  <c:v>CE only</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>fastText</c:v>
+                  <c:v>Both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$14:$P$16</c:f>
+              <c:f>Sheet1!$P$23:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.883</c:v>
+                  <c:v>0.914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,11 +2362,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$13</c:f>
+              <c:f>Sheet1!$O$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CE only</c:v>
+                  <c:v>Trainable</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2007,103 +2391,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$O$14:$O$16</c:f>
+              <c:f>Sheet1!$P$22:$R$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>polyglot</c:v>
+                  <c:v>WE only</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>word2vec</c:v>
+                  <c:v>CE only</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>fastText</c:v>
+                  <c:v>Both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$14:$Q$16</c:f>
+              <c:f>Sheet1!$P$24:$R$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0.924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82</c:v>
+                  <c:v>0.848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.838</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Both</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$O$14:$O$16</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>polyglot</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>word2vec</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fastText</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$R$14:$R$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.874</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.908</c:v>
+                  <c:v>0.932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,11 +2427,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1867814"/>
-        <c:axId val="53928796"/>
+        <c:axId val="49182874"/>
+        <c:axId val="36765330"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1867814"/>
+        <c:axId val="49182874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,330 +2467,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53928796"/>
+        <c:crossAx val="36765330"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53928796"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1867814"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Model and Trainable Choices</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$O$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Not trainable</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$P$22:$R$22</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>WE only</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CE only</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Both</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$23:$R$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.914</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$O$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Trainable</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$P$22:$R$22</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>WE only</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CE only</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Both</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$24:$R$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.924</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.848</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.932</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="75632442"/>
-        <c:axId val="42828787"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="75632442"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="42828787"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="42828787"/>
+        <c:axId val="36765330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.7"/>
@@ -2518,7 +2518,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75632442"/>
+        <c:crossAx val="49182874"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2556,7 +2556,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4472,604 +4472,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>0.5490736372</c:v>
+                  <c:v>0.637964346201333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6642383982</c:v>
+                  <c:v>0.718984819786667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7351148098</c:v>
+                  <c:v>0.756419815339333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7405055733</c:v>
+                  <c:v>0.767008005067667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7734545952</c:v>
+                  <c:v>0.770266205402333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7862022852</c:v>
+                  <c:v>0.807427260808333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7910897148</c:v>
+                  <c:v>0.806515272935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7963624696</c:v>
+                  <c:v>0.817554691146666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8076267518</c:v>
+                  <c:v>0.815348472983333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8155558801</c:v>
+                  <c:v>0.824559036967333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8128106654</c:v>
+                  <c:v>0.821942867101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8167831898</c:v>
+                  <c:v>0.832213739814333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8199583517</c:v>
+                  <c:v>0.829379026955333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.8224781495</c:v>
+                  <c:v>0.829483438854333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.818846499</c:v>
+                  <c:v>0.834812366074</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.824894952</c:v>
+                  <c:v>0.837884096665667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8244922126</c:v>
+                  <c:v>0.830302066889333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8273505981</c:v>
+                  <c:v>0.843442196741333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8276256175</c:v>
+                  <c:v>0.840077099325</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.8283407923</c:v>
+                  <c:v>0.838027529943</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8292704898</c:v>
+                  <c:v>0.843846847201667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.8292163146</c:v>
+                  <c:v>0.837761299801667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8251775675</c:v>
+                  <c:v>0.84162932521</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8273954141</c:v>
+                  <c:v>0.838217351907333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8322608685</c:v>
+                  <c:v>0.8415421103</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8280899315</c:v>
+                  <c:v>0.841332864345333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.8289827079</c:v>
+                  <c:v>0.844294122188</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8325657609</c:v>
+                  <c:v>0.843366219719333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8317071896</c:v>
+                  <c:v>0.838307904282333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.831731555</c:v>
+                  <c:v>0.842909537423667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.8345088855</c:v>
+                  <c:v>0.843382771965667</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.8331399168</c:v>
+                  <c:v>0.840714401638</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.8324325064</c:v>
+                  <c:v>0.839371153667667</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.8324232969</c:v>
+                  <c:v>0.840491204213</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.8322055707</c:v>
+                  <c:v>0.840126755526667</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.8327981282</c:v>
+                  <c:v>0.829413680735667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.8312514372</c:v>
+                  <c:v>0.840030921254667</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.8329322629</c:v>
+                  <c:v>0.839356047621333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.8343152134</c:v>
+                  <c:v>0.839321633797667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.8216662015</c:v>
+                  <c:v>0.841832448910667</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.8318716997</c:v>
+                  <c:v>0.838125394726667</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.8314786949</c:v>
+                  <c:v>0.838909689518667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.8300189682</c:v>
+                  <c:v>0.841561486444667</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.8271076019</c:v>
+                  <c:v>0.839533667902333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.8296943481</c:v>
+                  <c:v>0.840314034799333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.8323619982</c:v>
+                  <c:v>0.837944868533333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.8323742599</c:v>
+                  <c:v>0.836756958527667</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.8304847874</c:v>
+                  <c:v>0.836792826094333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.8327848409</c:v>
+                  <c:v>0.838675772843667</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.8306132193</c:v>
+                  <c:v>0.835442507191</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.8322748023</c:v>
+                  <c:v>0.838449724592</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.8312398391</c:v>
+                  <c:v>0.836833467218</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.8306925263</c:v>
+                  <c:v>0.836227740348667</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.8314054429</c:v>
+                  <c:v>0.839003343953</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.8313942866</c:v>
+                  <c:v>0.837912588947667</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.8321088583</c:v>
+                  <c:v>0.837650719302667</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.8319892258</c:v>
+                  <c:v>0.833691012449333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.830991231</c:v>
+                  <c:v>0.838487219004333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.8306857987</c:v>
+                  <c:v>0.838159932585</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.8337282454</c:v>
+                  <c:v>0.834789613499333</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.8305851757</c:v>
+                  <c:v>0.833232539989</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.8303073416</c:v>
+                  <c:v>0.836092113115667</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.829268237</c:v>
+                  <c:v>0.834219231382333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.8293379738</c:v>
+                  <c:v>0.838629166796333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.8293662573</c:v>
+                  <c:v>0.839809788357333</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.8295918802</c:v>
+                  <c:v>0.835015091929</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.8288995117</c:v>
+                  <c:v>0.833962328414333</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.829116747</c:v>
+                  <c:v>0.835081556584</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.8284970447</c:v>
+                  <c:v>0.837614280202</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.8270329349</c:v>
+                  <c:v>0.835066788417</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.8266108296</c:v>
+                  <c:v>0.838062831732667</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.8273578671</c:v>
+                  <c:v>0.83390794124</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.8228271471</c:v>
+                  <c:v>0.836314985360667</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.8230904736</c:v>
+                  <c:v>0.835561282701</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.8265103095</c:v>
+                  <c:v>0.840059212419667</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.8236056708</c:v>
+                  <c:v>0.838249655303</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.8236641666</c:v>
+                  <c:v>0.837943294394667</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.8250432874</c:v>
+                  <c:v>0.836106298006667</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.8284814663</c:v>
+                  <c:v>0.834433284644</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.8285345613</c:v>
+                  <c:v>0.834890881564333</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.8229964583</c:v>
+                  <c:v>0.834726831159</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.827321608</c:v>
+                  <c:v>0.835958523087</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.8287308142</c:v>
+                  <c:v>0.833826932445333</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.8268054261</c:v>
+                  <c:v>0.837120584919333</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.8251238451</c:v>
+                  <c:v>0.83680659364</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.8249479952</c:v>
+                  <c:v>0.838543882536</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.8207811268</c:v>
+                  <c:v>0.829024072721667</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.8233186344</c:v>
+                  <c:v>0.838019130048</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.8216100099</c:v>
+                  <c:v>0.834001770935333</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.8227652381</c:v>
+                  <c:v>0.836029244311667</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.8216853994</c:v>
+                  <c:v>0.836119208085</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.8215388987</c:v>
+                  <c:v>0.834764310944</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.8271575168</c:v>
+                  <c:v>0.833104067244333</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.8265552228</c:v>
+                  <c:v>0.836215582549666</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.8243149166</c:v>
+                  <c:v>0.836835514237</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.8221389339</c:v>
+                  <c:v>0.839551182501333</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.8216292279</c:v>
+                  <c:v>0.835401536891333</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.8240629083</c:v>
+                  <c:v>0.837442112507333</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.827004807</c:v>
+                  <c:v>0.834109536940667</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.8217679987</c:v>
+                  <c:v>0.838290992311</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.8228434373</c:v>
+                  <c:v>0.836448168805667</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.8210998318</c:v>
+                  <c:v>0.83757602375</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.8236285265</c:v>
+                  <c:v>0.836771735089667</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.8263889839</c:v>
+                  <c:v>0.836296553052</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.8251434782</c:v>
+                  <c:v>0.837816712437333</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.8242395424</c:v>
+                  <c:v>0.83341718124</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.8238318617</c:v>
+                  <c:v>0.834493408185333</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.8244666725</c:v>
+                  <c:v>0.835619335136333</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.8217578986</c:v>
+                  <c:v>0.836548761753333</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.8227791464</c:v>
+                  <c:v>0.837606280775333</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.8221314902</c:v>
+                  <c:v>0.835743376017</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.8228332105</c:v>
+                  <c:v>0.835365583141</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.8236659172</c:v>
+                  <c:v>0.834759195949333</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.8201528402</c:v>
+                  <c:v>0.836444486191333</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.8214087774</c:v>
+                  <c:v>0.833536461573</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.8209691947</c:v>
+                  <c:v>0.833596856479333</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.8229796592</c:v>
+                  <c:v>0.833069006554667</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.8187678261</c:v>
+                  <c:v>0.832262205835667</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.8280878108</c:v>
+                  <c:v>0.833878658026333</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.8237474713</c:v>
+                  <c:v>0.837353144133</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.8188146274</c:v>
+                  <c:v>0.833345338874</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.8194116407</c:v>
+                  <c:v>0.835477172011</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.8204882549</c:v>
+                  <c:v>0.834725052246667</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.8214461387</c:v>
+                  <c:v>0.835176142609667</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.8192953466</c:v>
+                  <c:v>0.834268017810333</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.821136676</c:v>
+                  <c:v>0.833516685862</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.8211770796</c:v>
+                  <c:v>0.832821546387333</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.8182655296</c:v>
+                  <c:v>0.833619998444333</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.8220463631</c:v>
+                  <c:v>0.833176023157667</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.8215427969</c:v>
+                  <c:v>0.831222703678</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.8217578986</c:v>
+                  <c:v>0.834712672332667</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.8210501582</c:v>
+                  <c:v>0.833982422439333</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.8222180895</c:v>
+                  <c:v>0.834048154439333</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.8243106867</c:v>
+                  <c:v>0.833350371205333</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.8236934234</c:v>
+                  <c:v>0.834433284644</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.822520095</c:v>
+                  <c:v>0.836685564873333</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.8237292409</c:v>
+                  <c:v>0.835093287154333</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.8225998726</c:v>
+                  <c:v>0.834745763693333</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.8260356873</c:v>
+                  <c:v>0.834750375233</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.8216294375</c:v>
+                  <c:v>0.833389624842667</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.8235595725</c:v>
+                  <c:v>0.834004842576667</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.8187774196</c:v>
+                  <c:v>0.834859432349333</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.8171887891</c:v>
+                  <c:v>0.834836200927333</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.8191138118</c:v>
+                  <c:v>0.832536678032667</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.8192952713</c:v>
+                  <c:v>0.833521881842333</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.8210446626</c:v>
+                  <c:v>0.834322786171667</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.8176057183</c:v>
+                  <c:v>0.834589464545333</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.8204643605</c:v>
+                  <c:v>0.833377179332</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.814532437</c:v>
+                  <c:v>0.831527958958667</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.8196707621</c:v>
+                  <c:v>0.832617875868</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.8212658669</c:v>
+                  <c:v>0.832238819599333</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.8221844284</c:v>
+                  <c:v>0.834100713804</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.8239814057</c:v>
+                  <c:v>0.83572323132</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.8235499467</c:v>
+                  <c:v>0.834771064154667</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.8204756304</c:v>
+                  <c:v>0.834604331720333</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.815083879</c:v>
+                  <c:v>0.836498343992667</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.8203731418</c:v>
+                  <c:v>0.833906512376333</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.8186763991</c:v>
+                  <c:v>0.833944607331</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.8197575172</c:v>
+                  <c:v>0.834418489136667</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.8197358197</c:v>
+                  <c:v>0.833521257676</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.8194471826</c:v>
+                  <c:v>0.834626465380333</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.8203679332</c:v>
+                  <c:v>0.833083310769667</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.8197358197</c:v>
+                  <c:v>0.834469276265333</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.8190724237</c:v>
+                  <c:v>0.834443107255667</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.8185163874</c:v>
+                  <c:v>0.83299295607</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.819589723</c:v>
+                  <c:v>0.833362213087</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.8209785408</c:v>
+                  <c:v>0.833769672027</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.8197802198</c:v>
+                  <c:v>0.834661457618333</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.8191898465</c:v>
+                  <c:v>0.834453889954</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.819508834</c:v>
+                  <c:v>0.830547832787667</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.8201013422</c:v>
+                  <c:v>0.833703873318333</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.8185264556</c:v>
+                  <c:v>0.834633385409</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.819888897</c:v>
+                  <c:v>0.835298278883</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.8193396008</c:v>
+                  <c:v>0.834946488693333</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.820075436</c:v>
+                  <c:v>0.835498480985</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.8196763743</c:v>
+                  <c:v>0.834555603812667</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.8184023142</c:v>
+                  <c:v>0.833584843533667</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.8199939616</c:v>
+                  <c:v>0.835013984861</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.8182695538</c:v>
+                  <c:v>0.836607615052</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.8185529637</c:v>
+                  <c:v>0.835251624548333</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.8162393162</c:v>
+                  <c:v>0.835406708905</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.8184023142</c:v>
+                  <c:v>0.834732818317</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.8172434189</c:v>
+                  <c:v>0.834146907669</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.8164357364</c:v>
+                  <c:v>0.834207691406</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.8180841208</c:v>
+                  <c:v>0.835426810809667</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.81673456</c:v>
+                  <c:v>0.835426632695333</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.8174249951</c:v>
+                  <c:v>0.835319284125667</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.8180010793</c:v>
+                  <c:v>0.834438025278667</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.8183843582</c:v>
+                  <c:v>0.833632072968</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.8196218696</c:v>
+                  <c:v>0.835138461641667</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.8213147302</c:v>
+                  <c:v>0.835732019030333</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.8197619351</c:v>
+                  <c:v>0.834366196916667</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.817377989</c:v>
+                  <c:v>0.833691312811</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.8196474594</c:v>
+                  <c:v>0.834053640966667</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.8199407784</c:v>
+                  <c:v>0.832434189582333</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.8193396008</c:v>
+                  <c:v>0.833976646415667</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.8202320058</c:v>
+                  <c:v>0.835189444088</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.8222360077</c:v>
+                  <c:v>0.835013367615333</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.8180404355</c:v>
+                  <c:v>0.836040502795</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.8198757764</c:v>
+                  <c:v>0.833585905436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5084,11 +5084,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="42061576"/>
-        <c:axId val="86992418"/>
+        <c:axId val="57423728"/>
+        <c:axId val="21658547"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42061576"/>
+        <c:axId val="57423728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5123,14 +5123,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86992418"/>
+        <c:crossAx val="21658547"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86992418"/>
+        <c:axId val="21658547"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5174,7 +5174,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42061576"/>
+        <c:crossAx val="57423728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5222,9 +5222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>302760</xdr:colOff>
+      <xdr:colOff>302400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5232,8 +5232,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3590640" y="338040"/>
-        <a:ext cx="4436640" cy="2741400"/>
+        <a:off x="3543120" y="338040"/>
+        <a:ext cx="4369680" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5252,9 +5252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>317160</xdr:colOff>
+      <xdr:colOff>316800</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5262,8 +5262,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3605040" y="3414600"/>
-        <a:ext cx="4436640" cy="2741400"/>
+        <a:off x="3557520" y="3414600"/>
+        <a:ext cx="4369680" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5282,9 +5282,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>483840</xdr:colOff>
+      <xdr:colOff>483480</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5292,8 +5292,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11449080" y="338040"/>
-        <a:ext cx="4436640" cy="2741400"/>
+        <a:off x="11277360" y="338040"/>
+        <a:ext cx="4369680" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5312,9 +5312,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>464760</xdr:colOff>
+      <xdr:colOff>464400</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5322,8 +5322,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11430000" y="3414600"/>
-        <a:ext cx="4436640" cy="2741400"/>
+        <a:off x="11258280" y="3414600"/>
+        <a:ext cx="4369680" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5347,9 +5347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>762840</xdr:colOff>
+      <xdr:colOff>762480</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5358,7 +5358,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="168480" y="21352320"/>
-        <a:ext cx="16596360" cy="6702840"/>
+        <a:ext cx="16214760" cy="6702480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5384,7 +5384,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6691,22 +6691,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6632653061225"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.6632653061225"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.6632653061225"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.6632653061225"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.6632653061225"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7031,7 +7031,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7353,7 +7353,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.71938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7493,10 +7493,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8412,7 +8412,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8489,7 +8489,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8667,16 +8667,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:M202"/>
+  <dimension ref="B1:W202"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
@@ -8721,10 +8718,34 @@
         <v>0.582955349817</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.5490736372</v>
+        <v>0.637964346201333</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>167</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.5490736372</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.637964346201333</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0.671641791045</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0.631272727273</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>0.610978520286</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8754,7 +8775,31 @@
         <v>0.671683602510333</v>
       </c>
       <c r="K4" s="0" t="n">
+        <v>0.718984819786667</v>
+      </c>
+      <c r="O4" s="0" t="n">
         <v>0.6642383982</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.718984819786667</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>0.686520376176</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>0.711813393529</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>0.758620689655</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8784,7 +8829,35 @@
         <v>0.732885307357</v>
       </c>
       <c r="K5" s="0" t="n">
+        <v>0.756419815339333</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">MAX(K3:K202)</f>
+        <v>0.844294122188</v>
+      </c>
+      <c r="O5" s="0" t="n">
         <v>0.7351148098</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.756419815339333</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>0.749003984064</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0.72186836518</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>0.798387096774</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8814,7 +8887,31 @@
         <v>0.746346741711667</v>
       </c>
       <c r="K6" s="0" t="n">
+        <v>0.767008005067667</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>0.7405055733</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.767008005067667</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0.760633861551</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>0.732728541521</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>0.807661612131</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8844,7 +8941,31 @@
         <v>0.783395772440333</v>
       </c>
       <c r="K7" s="0" t="n">
+        <v>0.770266205402333</v>
+      </c>
+      <c r="O7" s="0" t="n">
         <v>0.7734545952</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0.770266205402333</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>0.77893056664</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>0.715893108298</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>0.815974941269</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8874,7 +8995,31 @@
         <v>0.794644906197667</v>
       </c>
       <c r="K8" s="0" t="n">
+        <v>0.807427260808333</v>
+      </c>
+      <c r="O8" s="0" t="n">
         <v>0.7862022852</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0.807427260808333</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>0.801909307876</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>0.795076031861</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>0.825296442688</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8904,7 +9049,31 @@
         <v>0.801879349467333</v>
       </c>
       <c r="K9" s="0" t="n">
+        <v>0.806515272935</v>
+      </c>
+      <c r="O9" s="0" t="n">
         <v>0.7910897148</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.806515272935</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>0.811023622047</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>0.784992784993</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>0.823529411765</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8934,7 +9103,31 @@
         <v>0.811661714688</v>
       </c>
       <c r="K10" s="0" t="n">
+        <v>0.817554691146666</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>0.7963624696</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.817554691146666</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>0.816101026046</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>0.799426934097</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>0.837136113297</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8964,7 +9157,31 @@
         <v>0.812307382206</v>
       </c>
       <c r="K11" s="0" t="n">
+        <v>0.815348472983333</v>
+      </c>
+      <c r="O11" s="0" t="n">
         <v>0.8076267518</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.815348472983333</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>0.809710258418</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>0.836335160532</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8994,7 +9211,31 @@
         <v>0.813669373284</v>
       </c>
       <c r="K12" s="0" t="n">
+        <v>0.824559036967333</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <v>0.8155558801</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.824559036967333</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>0.813846153846</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>0.812772133527</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>0.847058823529</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9024,7 +9265,31 @@
         <v>0.824729541776333</v>
       </c>
       <c r="K13" s="0" t="n">
+        <v>0.821942867101</v>
+      </c>
+      <c r="O13" s="0" t="n">
         <v>0.8128106654</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.821942867101</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>0.816720257235</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>0.814598540146</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>0.834509803922</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9054,7 +9319,31 @@
         <v>0.831412011346667</v>
       </c>
       <c r="K14" s="0" t="n">
+        <v>0.832213739814333</v>
+      </c>
+      <c r="O14" s="0" t="n">
         <v>0.8167831898</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.832213739814333</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>0.829770387965</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>0.820475847152</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>0.846394984326</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9084,7 +9373,31 @@
         <v>0.835836875571333</v>
       </c>
       <c r="K15" s="0" t="n">
+        <v>0.829379026955333</v>
+      </c>
+      <c r="O15" s="0" t="n">
         <v>0.8199583517</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.829379026955333</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>0.826771653543</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>0.818181818182</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>0.843183609141</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9114,7 +9427,31 @@
         <v>0.834872069107667</v>
       </c>
       <c r="K16" s="0" t="n">
+        <v>0.829483438854333</v>
+      </c>
+      <c r="O16" s="0" t="n">
         <v>0.8224781495</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0.829483438854333</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>0.824159021407</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>0.816860465116</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>0.84743083004</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9144,7 +9481,31 @@
         <v>0.84386518453</v>
       </c>
       <c r="K17" s="0" t="n">
+        <v>0.834812366074</v>
+      </c>
+      <c r="O17" s="0" t="n">
         <v>0.818846499</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.834812366074</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>0.836052836053</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>0.817719680465</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>0.850664581704</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9174,7 +9535,31 @@
         <v>0.831397230590667</v>
       </c>
       <c r="K18" s="0" t="n">
+        <v>0.837884096665667</v>
+      </c>
+      <c r="O18" s="0" t="n">
         <v>0.824894952</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.837884096665667</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>0.827747466875</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>0.832361516035</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>0.853543307087</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9204,7 +9589,31 @@
         <v>0.840001944036667</v>
       </c>
       <c r="K19" s="0" t="n">
+        <v>0.830302066889333</v>
+      </c>
+      <c r="O19" s="0" t="n">
         <v>0.8244922126</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.830302066889333</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>0.824695121951</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>0.813411078717</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>0.8528</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9234,7 +9643,31 @@
         <v>0.847456752646667</v>
       </c>
       <c r="K20" s="0" t="n">
+        <v>0.843442196741333</v>
+      </c>
+      <c r="O20" s="0" t="n">
         <v>0.8273505981</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.843442196741333</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>0.836078431373</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>0.835294117647</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>0.858954041204</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9264,7 +9697,31 @@
         <v>0.842722277327333</v>
       </c>
       <c r="K21" s="0" t="n">
+        <v>0.840077099325</v>
+      </c>
+      <c r="O21" s="0" t="n">
         <v>0.8276256175</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0.840077099325</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>0.835147744946</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>0.825928623452</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>0.859154929577</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9294,7 +9751,31 @@
         <v>0.845354211624667</v>
       </c>
       <c r="K22" s="0" t="n">
+        <v>0.838027529943</v>
+      </c>
+      <c r="O22" s="0" t="n">
         <v>0.8283407923</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0.838027529943</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>0.833594976452</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>0.827133479212</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>0.853354134165</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9324,7 +9805,31 @@
         <v>0.845215825110333</v>
       </c>
       <c r="K23" s="0" t="n">
+        <v>0.843846847201667</v>
+      </c>
+      <c r="O23" s="0" t="n">
         <v>0.8292704898</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0.843846847201667</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>0.832678711705</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>0.830996309963</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>0.867865519937</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9354,7 +9859,31 @@
         <v>0.844901069911333</v>
       </c>
       <c r="K24" s="0" t="n">
+        <v>0.837761299801667</v>
+      </c>
+      <c r="O24" s="0" t="n">
         <v>0.8292163146</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0.837761299801667</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>0.822327044025</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>0.830656934307</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>0.860299921073</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9384,7 +9913,31 @@
         <v>0.842493237945333</v>
       </c>
       <c r="K25" s="0" t="n">
+        <v>0.84162932521</v>
+      </c>
+      <c r="O25" s="0" t="n">
         <v>0.8251775675</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0.84162932521</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>0.834365325077</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>0.829802775749</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>0.860719874804</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9414,7 +9967,31 @@
         <v>0.846022612353</v>
       </c>
       <c r="K26" s="0" t="n">
+        <v>0.838217351907333</v>
+      </c>
+      <c r="O26" s="0" t="n">
         <v>0.8273954141</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>0.838217351907333</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>0.826997672614</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>0.828488372093</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>0.859166011015</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9444,7 +10021,31 @@
         <v>0.848474470259333</v>
       </c>
       <c r="K27" s="0" t="n">
+        <v>0.8415421103</v>
+      </c>
+      <c r="O27" s="0" t="n">
         <v>0.8322608685</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0.8415421103</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>0.830745341615</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>0.830244625649</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>0.863636363636</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9474,7 +10075,31 @@
         <v>0.849721579819667</v>
       </c>
       <c r="K28" s="0" t="n">
+        <v>0.841332864345333</v>
+      </c>
+      <c r="O28" s="0" t="n">
         <v>0.8280899315</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0.841332864345333</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>0.828926905132</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>0.830545454545</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>0.864526233359</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9503,8 +10128,32 @@
         <f aca="false">AVERAGE(C29,E29,G29)</f>
         <v>0.847630786619</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="27" t="n">
+        <v>0.844294122188</v>
+      </c>
+      <c r="O29" s="0" t="n">
         <v>0.8289827079</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>0.844294122188</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>0.835266821346</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>0.833089311859</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>0.864526233359</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9534,7 +10183,31 @@
         <v>0.845877862153</v>
       </c>
       <c r="K30" s="0" t="n">
+        <v>0.843366219719333</v>
+      </c>
+      <c r="O30" s="0" t="n">
         <v>0.8325657609</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>0.843366219719333</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>0.830218068536</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>0.833578792342</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>0.86630179828</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9564,7 +10237,31 @@
         <v>0.843373769846333</v>
       </c>
       <c r="K31" s="0" t="n">
+        <v>0.838307904282333</v>
+      </c>
+      <c r="O31" s="0" t="n">
         <v>0.8317071896</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>0.838307904282333</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>0.823899371069</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>0.827636363636</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>0.863387978142</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9594,7 +10291,31 @@
         <v>0.846746047259</v>
       </c>
       <c r="K32" s="0" t="n">
+        <v>0.842909537423667</v>
+      </c>
+      <c r="O32" s="0" t="n">
         <v>0.831731555</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>0.842909537423667</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>0.833204034135</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>0.833455612619</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>0.862068965517</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9623,8 +10344,32 @@
         <f aca="false">AVERAGE(C33,E33,G33)</f>
         <v>0.847666193441667</v>
       </c>
-      <c r="K33" s="27" t="n">
+      <c r="K33" s="0" t="n">
+        <v>0.843382771965667</v>
+      </c>
+      <c r="O33" s="27" t="n">
         <v>0.8345088855</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.843382771965667</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>0.831128404669</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0.833089311859</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>0.865930599369</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9654,7 +10399,31 @@
         <v>0.846435698093333</v>
       </c>
       <c r="K34" s="0" t="n">
+        <v>0.840714401638</v>
+      </c>
+      <c r="O34" s="0" t="n">
         <v>0.8331399168</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.840714401638</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>0.834498834499</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.826686004351</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>0.860958366064</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9684,7 +10453,31 @@
         <v>0.846703229368667</v>
       </c>
       <c r="K35" s="0" t="n">
+        <v>0.839371153667667</v>
+      </c>
+      <c r="O35" s="0" t="n">
         <v>0.8324325064</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.839371153667667</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>0.831652443755</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.825741142444</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>0.860719874804</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9714,7 +10507,31 @@
         <v>0.846019439038667</v>
       </c>
       <c r="K36" s="0" t="n">
+        <v>0.840491204213</v>
+      </c>
+      <c r="O36" s="0" t="n">
         <v>0.8324232969</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0.840491204213</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>0.833850931677</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0.829802775749</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>0.857819905213</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9744,7 +10561,31 @@
         <v>0.846022700181333</v>
       </c>
       <c r="K37" s="0" t="n">
+        <v>0.840126755526667</v>
+      </c>
+      <c r="O37" s="0" t="n">
         <v>0.8322055707</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0.840126755526667</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>0.831775700935</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0.82876204596</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>0.859842519685</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9774,7 +10615,31 @@
         <v>0.845364120996667</v>
       </c>
       <c r="K38" s="0" t="n">
+        <v>0.829413680735667</v>
+      </c>
+      <c r="O38" s="0" t="n">
         <v>0.8327981282</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>0.829413680735667</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>0.8265625</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>0.803195352215</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <v>0.858483189992</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9804,7 +10669,31 @@
         <v>0.844876431785667</v>
       </c>
       <c r="K39" s="0" t="n">
+        <v>0.840030921254667</v>
+      </c>
+      <c r="O39" s="0" t="n">
         <v>0.8312514372</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>0.840030921254667</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>0.832424006235</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>0.828947368421</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <v>0.858721389108</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9834,7 +10723,31 @@
         <v>0.844579523091666</v>
       </c>
       <c r="K40" s="0" t="n">
+        <v>0.839356047621333</v>
+      </c>
+      <c r="O40" s="0" t="n">
         <v>0.8329322629</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>0.839356047621333</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>0.828125</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>0.828090709583</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <v>0.861852433281</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9864,7 +10777,31 @@
         <v>0.842176440927</v>
       </c>
       <c r="K41" s="0" t="n">
+        <v>0.839321633797667</v>
+      </c>
+      <c r="O41" s="0" t="n">
         <v>0.8343152134</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>0.839321633797667</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>0.829953198128</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>0.825235678028</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>0.862776025237</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9894,7 +10831,31 @@
         <v>0.846178748757</v>
       </c>
       <c r="K42" s="0" t="n">
+        <v>0.841832448910667</v>
+      </c>
+      <c r="O42" s="0" t="n">
         <v>0.8216662015</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0.841832448910667</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>0.834108527132</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0.830409356725</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>0.860979462875</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9924,7 +10885,31 @@
         <v>0.844696809562333</v>
       </c>
       <c r="K43" s="0" t="n">
+        <v>0.838125394726667</v>
+      </c>
+      <c r="O43" s="0" t="n">
         <v>0.8318716997</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0.838125394726667</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>0.829953198128</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0.825256975037</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>0.859166011015</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9954,7 +10939,31 @@
         <v>0.843484556325</v>
       </c>
       <c r="K44" s="0" t="n">
+        <v>0.838909689518667</v>
+      </c>
+      <c r="O44" s="0" t="n">
         <v>0.8314786949</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0.838909689518667</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>0.828235294118</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>0.830903790087</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>0.857589984351</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9984,7 +10993,31 @@
         <v>0.843713908595667</v>
       </c>
       <c r="K45" s="0" t="n">
+        <v>0.841561486444667</v>
+      </c>
+      <c r="O45" s="0" t="n">
         <v>0.8300189682</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>0.841561486444667</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>0.834498834499</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>0.828550404709</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <v>0.861635220126</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10014,7 +11047,31 @@
         <v>0.843943647354667</v>
       </c>
       <c r="K46" s="0" t="n">
+        <v>0.839533667902333</v>
+      </c>
+      <c r="O46" s="0" t="n">
         <v>0.8271076019</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>0.839533667902333</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>0.833204034135</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>0.830051057622</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="W46" s="0" t="n">
+        <v>0.85534591195</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10044,7 +11101,31 @@
         <v>0.845934106589</v>
       </c>
       <c r="K47" s="0" t="n">
+        <v>0.840314034799333</v>
+      </c>
+      <c r="O47" s="0" t="n">
         <v>0.8296943481</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>0.840314034799333</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>0.833073322933</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>0.827586206897</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <v>0.860282574568</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10074,7 +11155,31 @@
         <v>0.845411230772</v>
       </c>
       <c r="K48" s="0" t="n">
+        <v>0.837944868533333</v>
+      </c>
+      <c r="O48" s="0" t="n">
         <v>0.8323619982</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>0.837944868533333</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>0.834498834499</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>0.822416302766</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <v>0.856919468335</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10104,7 +11209,31 @@
         <v>0.84240729181</v>
       </c>
       <c r="K49" s="0" t="n">
+        <v>0.836756958527667</v>
+      </c>
+      <c r="O49" s="0" t="n">
         <v>0.8323742599</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>0.836756958527667</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>0.832424006235</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <v>0.821376281113</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="W49" s="0" t="n">
+        <v>0.856470588235</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10134,7 +11263,31 @@
         <v>0.843596004473667</v>
       </c>
       <c r="K50" s="0" t="n">
+        <v>0.836792826094333</v>
+      </c>
+      <c r="O50" s="0" t="n">
         <v>0.8304847874</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>0.836792826094333</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>0.829571984436</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <v>0.824561403509</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <v>0.856245090338</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10164,7 +11317,31 @@
         <v>0.844975906437333</v>
       </c>
       <c r="K51" s="0" t="n">
+        <v>0.838675772843667</v>
+      </c>
+      <c r="O51" s="0" t="n">
         <v>0.8327848409</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>0.838675772843667</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>0.834241245136</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <v>0.830051057622</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="W51" s="0" t="n">
+        <v>0.851735015773</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10194,7 +11371,31 @@
         <v>0.840822481556333</v>
       </c>
       <c r="K52" s="0" t="n">
+        <v>0.835442507191</v>
+      </c>
+      <c r="O52" s="0" t="n">
         <v>0.8306132193</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>0.835442507191</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>0.829571984436</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>0.821637426901</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="W52" s="0" t="n">
+        <v>0.855118110236</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10224,7 +11425,31 @@
         <v>0.846433106900667</v>
       </c>
       <c r="K53" s="0" t="n">
+        <v>0.838449724592</v>
+      </c>
+      <c r="O53" s="0" t="n">
         <v>0.8322748023</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>0.838449724592</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <v>0.830218068536</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <v>0.829339143065</v>
+      </c>
+      <c r="V53" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="W53" s="0" t="n">
+        <v>0.855791962175</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10254,7 +11479,31 @@
         <v>0.847178174037</v>
       </c>
       <c r="K54" s="0" t="n">
+        <v>0.836833467218</v>
+      </c>
+      <c r="O54" s="0" t="n">
         <v>0.8312398391</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>0.836833467218</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>0.828660436137</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <v>0.824471959213</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="W54" s="0" t="n">
+        <v>0.857368006304</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10284,7 +11533,31 @@
         <v>0.844009805516333</v>
       </c>
       <c r="K55" s="0" t="n">
+        <v>0.836227740348667</v>
+      </c>
+      <c r="O55" s="0" t="n">
         <v>0.8306925263</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>0.836227740348667</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>0.8265625</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>0.824304538799</v>
+      </c>
+      <c r="V55" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="W55" s="0" t="n">
+        <v>0.857816182247</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10314,7 +11587,31 @@
         <v>0.843509824610667</v>
       </c>
       <c r="K56" s="0" t="n">
+        <v>0.839003343953</v>
+      </c>
+      <c r="O56" s="0" t="n">
         <v>0.8314054429</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>0.839003343953</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>0.832424006235</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <v>0.825420014609</v>
+      </c>
+      <c r="V56" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="W56" s="0" t="n">
+        <v>0.859166011015</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10344,7 +11641,31 @@
         <v>0.843539054129667</v>
       </c>
       <c r="K57" s="0" t="n">
+        <v>0.837912588947667</v>
+      </c>
+      <c r="O57" s="0" t="n">
         <v>0.8313942866</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>0.837912588947667</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>0.830601092896</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>0.825768667643</v>
+      </c>
+      <c r="V57" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="W57" s="0" t="n">
+        <v>0.857368006304</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10374,7 +11695,31 @@
         <v>0.844031039425667</v>
       </c>
       <c r="K58" s="0" t="n">
+        <v>0.837650719302667</v>
+      </c>
+      <c r="O58" s="0" t="n">
         <v>0.8321088583</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>0.837650719302667</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>0.83151326053</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <v>0.825420014609</v>
+      </c>
+      <c r="V58" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="W58" s="0" t="n">
+        <v>0.856018882769</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10404,7 +11749,31 @@
         <v>0.843733225105667</v>
       </c>
       <c r="K59" s="0" t="n">
+        <v>0.833691012449333</v>
+      </c>
+      <c r="O59" s="0" t="n">
         <v>0.8319892258</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>0.833691012449333</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>0.829420970266</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>0.815406976744</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="W59" s="0" t="n">
+        <v>0.856245090338</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10434,7 +11803,31 @@
         <v>0.842914804862333</v>
       </c>
       <c r="K60" s="0" t="n">
+        <v>0.838487219004333</v>
+      </c>
+      <c r="O60" s="0" t="n">
         <v>0.830991231</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>0.838487219004333</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>0.833073322933</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>0.823444283647</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="W60" s="0" t="n">
+        <v>0.858944050433</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10464,7 +11857,31 @@
         <v>0.843530572816333</v>
       </c>
       <c r="K61" s="0" t="n">
+        <v>0.838159932585</v>
+      </c>
+      <c r="O61" s="0" t="n">
         <v>0.8306857987</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>0.838159932585</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>0.8328125</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>0.825648414986</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <v>0.856018882769</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10494,7 +11911,31 @@
         <v>0.844971946958667</v>
       </c>
       <c r="K62" s="0" t="n">
+        <v>0.834789613499333</v>
+      </c>
+      <c r="O62" s="0" t="n">
         <v>0.8337282454</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>0.834789613499333</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>0.828772478499</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <v>0.822931785196</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <v>0.852664576803</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10524,7 +11965,31 @@
         <v>0.845367606695333</v>
       </c>
       <c r="K63" s="0" t="n">
+        <v>0.833232539989</v>
+      </c>
+      <c r="O63" s="0" t="n">
         <v>0.8305851757</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>0.833232539989</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>0.822152886115</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>0.823099415205</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <v>0.854445318647</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10554,7 +12019,31 @@
         <v>0.842688169196</v>
       </c>
       <c r="K64" s="0" t="n">
+        <v>0.836092113115667</v>
+      </c>
+      <c r="O64" s="0" t="n">
         <v>0.8303073416</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>0.836092113115667</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>0.832684824903</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>0.824561403509</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="W64" s="0" t="n">
+        <v>0.851030110935</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10584,7 +12073,31 @@
         <v>0.843357684040667</v>
       </c>
       <c r="K65" s="0" t="n">
+        <v>0.834219231382333</v>
+      </c>
+      <c r="O65" s="0" t="n">
         <v>0.829268237</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>0.834219231382333</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>0.825371965544</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <v>0.822840409956</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="W65" s="0" t="n">
+        <v>0.854445318647</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10614,7 +12127,31 @@
         <v>0.842831139421333</v>
       </c>
       <c r="K66" s="0" t="n">
+        <v>0.838629166796333</v>
+      </c>
+      <c r="O66" s="0" t="n">
         <v>0.8293379738</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>0.838629166796333</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>0.829953198128</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <v>0.828341855369</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <v>0.857592446892</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10644,7 +12181,31 @@
         <v>0.843971278162333</v>
       </c>
       <c r="K67" s="0" t="n">
+        <v>0.839809788357333</v>
+      </c>
+      <c r="O67" s="0" t="n">
         <v>0.8293662573</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>0.839809788357333</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>0.830218068536</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="U67" s="0" t="n">
+        <v>0.827332843497</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <v>0.861878453039</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10674,7 +12235,31 @@
         <v>0.844342639748333</v>
       </c>
       <c r="K68" s="0" t="n">
+        <v>0.835015091929</v>
+      </c>
+      <c r="O68" s="0" t="n">
         <v>0.8295918802</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>0.835015091929</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <v>0.828660436137</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="U68" s="0" t="n">
+        <v>0.819241982507</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="W68" s="0" t="n">
+        <v>0.857142857143</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10704,7 +12289,31 @@
         <v>0.844803385530333</v>
       </c>
       <c r="K69" s="0" t="n">
+        <v>0.833962328414333</v>
+      </c>
+      <c r="O69" s="0" t="n">
         <v>0.8288995117</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>0.833962328414333</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>0.825645035184</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="U69" s="0" t="n">
+        <v>0.815942028986</v>
+      </c>
+      <c r="V69" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="W69" s="0" t="n">
+        <v>0.860299921073</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10734,7 +12343,31 @@
         <v>0.842970390709</v>
       </c>
       <c r="K70" s="0" t="n">
+        <v>0.835081556584</v>
+      </c>
+      <c r="O70" s="0" t="n">
         <v>0.829116747</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>0.835081556584</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="T70" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="U70" s="0" t="n">
+        <v>0.819505094614</v>
+      </c>
+      <c r="V70" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="W70" s="0" t="n">
+        <v>0.860739575138</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10764,7 +12397,31 @@
         <v>0.843114240614</v>
       </c>
       <c r="K71" s="0" t="n">
+        <v>0.837614280202</v>
+      </c>
+      <c r="O71" s="0" t="n">
         <v>0.8284970447</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>0.837614280202</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <v>0.83114992722</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <v>0.856692913386</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10794,7 +12451,31 @@
         <v>0.842558819168</v>
       </c>
       <c r="K72" s="0" t="n">
+        <v>0.835066788417</v>
+      </c>
+      <c r="O72" s="0" t="n">
         <v>0.8270329349</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>0.835066788417</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="S72" s="0" t="n">
+        <v>0.824355971897</v>
+      </c>
+      <c r="T72" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="U72" s="0" t="n">
+        <v>0.823701536211</v>
+      </c>
+      <c r="V72" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="W72" s="0" t="n">
+        <v>0.857142857143</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10824,7 +12505,31 @@
         <v>0.842882922125333</v>
       </c>
       <c r="K73" s="0" t="n">
+        <v>0.838062831732667</v>
+      </c>
+      <c r="O73" s="0" t="n">
         <v>0.8266108296</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>0.838062831732667</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>0.830218068536</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="U73" s="0" t="n">
+        <v>0.824127906977</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="W73" s="0" t="n">
+        <v>0.859842519685</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10854,7 +12559,31 @@
         <v>0.844500793746333</v>
       </c>
       <c r="K74" s="0" t="n">
+        <v>0.83390794124</v>
+      </c>
+      <c r="O74" s="0" t="n">
         <v>0.8273578671</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>0.83390794124</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>0.8234375</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="U74" s="0" t="n">
+        <v>0.818443804035</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>0.859842519685</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10884,7 +12613,31 @@
         <v>0.844502111818333</v>
       </c>
       <c r="K75" s="0" t="n">
+        <v>0.836314985360667</v>
+      </c>
+      <c r="O75" s="0" t="n">
         <v>0.8228271471</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>0.836314985360667</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <v>0.829039812646</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>0.821637426901</v>
+      </c>
+      <c r="V75" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="W75" s="0" t="n">
+        <v>0.858267716535</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10914,7 +12667,31 @@
         <v>0.844251582812333</v>
       </c>
       <c r="K76" s="0" t="n">
+        <v>0.835561282701</v>
+      </c>
+      <c r="O76" s="0" t="n">
         <v>0.8230904736</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <v>0.835561282701</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="S76" s="0" t="n">
+        <v>0.824355971897</v>
+      </c>
+      <c r="T76" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="U76" s="0" t="n">
+        <v>0.82361516035</v>
+      </c>
+      <c r="V76" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="W76" s="0" t="n">
+        <v>0.858712715856</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10944,7 +12721,31 @@
         <v>0.844760156924</v>
       </c>
       <c r="K77" s="0" t="n">
+        <v>0.840059212419667</v>
+      </c>
+      <c r="O77" s="0" t="n">
         <v>0.8265103095</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <v>0.840059212419667</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="S77" s="0" t="n">
+        <v>0.833982852689</v>
+      </c>
+      <c r="T77" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="U77" s="0" t="n">
+        <v>0.825674690007</v>
+      </c>
+      <c r="V77" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="W77" s="0" t="n">
+        <v>0.860520094563</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10974,7 +12775,31 @@
         <v>0.844970731749667</v>
       </c>
       <c r="K78" s="0" t="n">
+        <v>0.838249655303</v>
+      </c>
+      <c r="O78" s="0" t="n">
         <v>0.8236056708</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <v>0.838249655303</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="S78" s="0" t="n">
+        <v>0.83255086072</v>
+      </c>
+      <c r="T78" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="U78" s="0" t="n">
+        <v>0.820101966497</v>
+      </c>
+      <c r="V78" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="W78" s="0" t="n">
+        <v>0.862096138692</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11004,7 +12829,31 @@
         <v>0.84417414081</v>
       </c>
       <c r="K79" s="0" t="n">
+        <v>0.837943294394667</v>
+      </c>
+      <c r="O79" s="0" t="n">
         <v>0.8236641666</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <v>0.837943294394667</v>
+      </c>
+      <c r="R79" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="S79" s="0" t="n">
+        <v>0.830985915493</v>
+      </c>
+      <c r="T79" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="U79" s="0" t="n">
+        <v>0.823444283647</v>
+      </c>
+      <c r="V79" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="W79" s="0" t="n">
+        <v>0.859399684044</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11034,7 +12883,31 @@
         <v>0.845022322345</v>
       </c>
       <c r="K80" s="0" t="n">
+        <v>0.836106298006667</v>
+      </c>
+      <c r="O80" s="0" t="n">
         <v>0.8250432874</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <v>0.836106298006667</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="S80" s="0" t="n">
+        <v>0.822152886115</v>
+      </c>
+      <c r="T80" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="U80" s="0" t="n">
+        <v>0.826086956522</v>
+      </c>
+      <c r="V80" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="W80" s="0" t="n">
+        <v>0.860079051383</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11064,7 +12937,31 @@
         <v>0.845548176264667</v>
       </c>
       <c r="K81" s="0" t="n">
+        <v>0.834433284644</v>
+      </c>
+      <c r="O81" s="0" t="n">
         <v>0.8284814663</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>0.834433284644</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>0.827478532397</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <v>0.821818181818</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="W81" s="0" t="n">
+        <v>0.854003139717</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11094,7 +12991,31 @@
         <v>0.844482615459333</v>
       </c>
       <c r="K82" s="0" t="n">
+        <v>0.834890881564333</v>
+      </c>
+      <c r="O82" s="0" t="n">
         <v>0.8285345613</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>0.834890881564333</v>
+      </c>
+      <c r="R82" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S82" s="0" t="n">
+        <v>0.821875</v>
+      </c>
+      <c r="T82" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <v>0.821818181818</v>
+      </c>
+      <c r="V82" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="W82" s="0" t="n">
+        <v>0.860979462875</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11124,7 +13045,31 @@
         <v>0.844425575858333</v>
       </c>
       <c r="K83" s="0" t="n">
+        <v>0.834726831159</v>
+      </c>
+      <c r="O83" s="0" t="n">
         <v>0.8229964583</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <v>0.834726831159</v>
+      </c>
+      <c r="R83" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="S83" s="0" t="n">
+        <v>0.827747466875</v>
+      </c>
+      <c r="T83" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="U83" s="0" t="n">
+        <v>0.81884057971</v>
+      </c>
+      <c r="V83" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="W83" s="0" t="n">
+        <v>0.857592446892</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11154,7 +13099,31 @@
         <v>0.843214285754333</v>
       </c>
       <c r="K84" s="0" t="n">
+        <v>0.835958523087</v>
+      </c>
+      <c r="O84" s="0" t="n">
         <v>0.827321608</v>
+      </c>
+      <c r="P84" s="0" t="n">
+        <v>0.835958523087</v>
+      </c>
+      <c r="R84" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="S84" s="0" t="n">
+        <v>0.830218068536</v>
+      </c>
+      <c r="T84" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="U84" s="0" t="n">
+        <v>0.818713450292</v>
+      </c>
+      <c r="V84" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="W84" s="0" t="n">
+        <v>0.858944050433</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11184,7 +13153,31 @@
         <v>0.844761236342667</v>
       </c>
       <c r="K85" s="0" t="n">
+        <v>0.833826932445333</v>
+      </c>
+      <c r="O85" s="0" t="n">
         <v>0.8287308142</v>
+      </c>
+      <c r="P85" s="0" t="n">
+        <v>0.833826932445333</v>
+      </c>
+      <c r="R85" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="S85" s="0" t="n">
+        <v>0.824355971897</v>
+      </c>
+      <c r="T85" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="U85" s="0" t="n">
+        <v>0.820884699057</v>
+      </c>
+      <c r="V85" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="W85" s="0" t="n">
+        <v>0.856240126382</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11214,7 +13207,31 @@
         <v>0.842032737591333</v>
       </c>
       <c r="K86" s="0" t="n">
+        <v>0.837120584919333</v>
+      </c>
+      <c r="O86" s="0" t="n">
         <v>0.8268054261</v>
+      </c>
+      <c r="P86" s="0" t="n">
+        <v>0.837120584919333</v>
+      </c>
+      <c r="R86" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="S86" s="0" t="n">
+        <v>0.829953198128</v>
+      </c>
+      <c r="T86" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="U86" s="0" t="n">
+        <v>0.824040550326</v>
+      </c>
+      <c r="V86" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="W86" s="0" t="n">
+        <v>0.857368006304</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11244,7 +13261,31 @@
         <v>0.843424935269</v>
       </c>
       <c r="K87" s="0" t="n">
+        <v>0.83680659364</v>
+      </c>
+      <c r="O87" s="0" t="n">
         <v>0.8251238451</v>
+      </c>
+      <c r="P87" s="0" t="n">
+        <v>0.83680659364</v>
+      </c>
+      <c r="R87" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="S87" s="0" t="n">
+        <v>0.825816485226</v>
+      </c>
+      <c r="T87" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="U87" s="0" t="n">
+        <v>0.82498184459</v>
+      </c>
+      <c r="V87" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="W87" s="0" t="n">
+        <v>0.859621451104</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11274,7 +13315,31 @@
         <v>0.842028441152</v>
       </c>
       <c r="K88" s="0" t="n">
+        <v>0.838543882536</v>
+      </c>
+      <c r="O88" s="0" t="n">
         <v>0.8249479952</v>
+      </c>
+      <c r="P88" s="0" t="n">
+        <v>0.838543882536</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="S88" s="0" t="n">
+        <v>0.828393135725</v>
+      </c>
+      <c r="T88" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="U88" s="0" t="n">
+        <v>0.827838827839</v>
+      </c>
+      <c r="V88" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="W88" s="0" t="n">
+        <v>0.859399684044</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11304,7 +13369,31 @@
         <v>0.843548231772</v>
       </c>
       <c r="K89" s="0" t="n">
+        <v>0.829024072721667</v>
+      </c>
+      <c r="O89" s="0" t="n">
         <v>0.8207811268</v>
+      </c>
+      <c r="P89" s="0" t="n">
+        <v>0.829024072721667</v>
+      </c>
+      <c r="R89" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="S89" s="0" t="n">
+        <v>0.818958818959</v>
+      </c>
+      <c r="T89" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="U89" s="0" t="n">
+        <v>0.823529411765</v>
+      </c>
+      <c r="V89" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="W89" s="0" t="n">
+        <v>0.844583987441</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11334,7 +13423,31 @@
         <v>0.843237943965667</v>
       </c>
       <c r="K90" s="0" t="n">
+        <v>0.838019130048</v>
+      </c>
+      <c r="O90" s="0" t="n">
         <v>0.8233186344</v>
+      </c>
+      <c r="P90" s="0" t="n">
+        <v>0.838019130048</v>
+      </c>
+      <c r="R90" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="S90" s="0" t="n">
+        <v>0.830482115086</v>
+      </c>
+      <c r="T90" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="U90" s="0" t="n">
+        <v>0.823953823954</v>
+      </c>
+      <c r="V90" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="W90" s="0" t="n">
+        <v>0.859621451104</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11364,7 +13477,31 @@
         <v>0.845375732768</v>
       </c>
       <c r="K91" s="0" t="n">
+        <v>0.834001770935333</v>
+      </c>
+      <c r="O91" s="0" t="n">
         <v>0.8216100099</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <v>0.834001770935333</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="S91" s="0" t="n">
+        <v>0.827478532397</v>
+      </c>
+      <c r="T91" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="U91" s="0" t="n">
+        <v>0.819624819625</v>
+      </c>
+      <c r="V91" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="W91" s="0" t="n">
+        <v>0.854901960784</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11394,7 +13531,31 @@
         <v>0.843973848713333</v>
       </c>
       <c r="K92" s="0" t="n">
+        <v>0.836029244311667</v>
+      </c>
+      <c r="O92" s="0" t="n">
         <v>0.8227652381</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <v>0.836029244311667</v>
+      </c>
+      <c r="R92" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="S92" s="0" t="n">
+        <v>0.822152886115</v>
+      </c>
+      <c r="T92" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="U92" s="0" t="n">
+        <v>0.827436823105</v>
+      </c>
+      <c r="V92" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="W92" s="0" t="n">
+        <v>0.858498023715</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11424,7 +13585,31 @@
         <v>0.845465939629667</v>
       </c>
       <c r="K93" s="0" t="n">
+        <v>0.836119208085</v>
+      </c>
+      <c r="O93" s="0" t="n">
         <v>0.8216853994</v>
+      </c>
+      <c r="P93" s="0" t="n">
+        <v>0.836119208085</v>
+      </c>
+      <c r="R93" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="S93" s="0" t="n">
+        <v>0.828125</v>
+      </c>
+      <c r="T93" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="U93" s="0" t="n">
+        <v>0.819033886085</v>
+      </c>
+      <c r="V93" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="W93" s="0" t="n">
+        <v>0.86119873817</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11454,7 +13639,31 @@
         <v>0.8453741146</v>
       </c>
       <c r="K94" s="0" t="n">
+        <v>0.834764310944</v>
+      </c>
+      <c r="O94" s="0" t="n">
         <v>0.8215388987</v>
+      </c>
+      <c r="P94" s="0" t="n">
+        <v>0.834764310944</v>
+      </c>
+      <c r="R94" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="S94" s="0" t="n">
+        <v>0.8265625</v>
+      </c>
+      <c r="T94" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="U94" s="0" t="n">
+        <v>0.822157434402</v>
+      </c>
+      <c r="V94" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="W94" s="0" t="n">
+        <v>0.85557299843</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11484,7 +13693,31 @@
         <v>0.841263881760667</v>
       </c>
       <c r="K95" s="0" t="n">
+        <v>0.833104067244333</v>
+      </c>
+      <c r="O95" s="0" t="n">
         <v>0.8271575168</v>
+      </c>
+      <c r="P95" s="0" t="n">
+        <v>0.833104067244333</v>
+      </c>
+      <c r="R95" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="S95" s="0" t="n">
+        <v>0.8171875</v>
+      </c>
+      <c r="T95" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="U95" s="0" t="n">
+        <v>0.82498184459</v>
+      </c>
+      <c r="V95" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="W95" s="0" t="n">
+        <v>0.857142857143</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11514,7 +13747,31 @@
         <v>0.844307786146667</v>
       </c>
       <c r="K96" s="0" t="n">
+        <v>0.836215582549666</v>
+      </c>
+      <c r="O96" s="0" t="n">
         <v>0.8265552228</v>
+      </c>
+      <c r="P96" s="0" t="n">
+        <v>0.836215582549666</v>
+      </c>
+      <c r="R96" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="S96" s="0" t="n">
+        <v>0.8296875</v>
+      </c>
+      <c r="T96" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="U96" s="0" t="n">
+        <v>0.824727272727</v>
+      </c>
+      <c r="V96" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="W96" s="0" t="n">
+        <v>0.854231974922</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11544,7 +13801,31 @@
         <v>0.844535357873333</v>
       </c>
       <c r="K97" s="0" t="n">
+        <v>0.836835514237</v>
+      </c>
+      <c r="O97" s="0" t="n">
         <v>0.8243149166</v>
+      </c>
+      <c r="P97" s="0" t="n">
+        <v>0.836835514237</v>
+      </c>
+      <c r="R97" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="S97" s="0" t="n">
+        <v>0.826833073323</v>
+      </c>
+      <c r="T97" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="U97" s="0" t="n">
+        <v>0.826530612245</v>
+      </c>
+      <c r="V97" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="W97" s="0" t="n">
+        <v>0.857142857143</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11574,7 +13855,31 @@
         <v>0.843627532989333</v>
       </c>
       <c r="K98" s="0" t="n">
+        <v>0.839551182501333</v>
+      </c>
+      <c r="O98" s="0" t="n">
         <v>0.8221389339</v>
+      </c>
+      <c r="P98" s="0" t="n">
+        <v>0.839551182501333</v>
+      </c>
+      <c r="R98" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="S98" s="0" t="n">
+        <v>0.826459143969</v>
+      </c>
+      <c r="T98" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="U98" s="0" t="n">
+        <v>0.835051546392</v>
+      </c>
+      <c r="V98" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="W98" s="0" t="n">
+        <v>0.857142857143</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11604,7 +13909,31 @@
         <v>0.844277084217</v>
       </c>
       <c r="K99" s="0" t="n">
+        <v>0.835401536891333</v>
+      </c>
+      <c r="O99" s="0" t="n">
         <v>0.8216292279</v>
+      </c>
+      <c r="P99" s="0" t="n">
+        <v>0.835401536891333</v>
+      </c>
+      <c r="R99" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="S99" s="0" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="T99" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="U99" s="0" t="n">
+        <v>0.826530612245</v>
+      </c>
+      <c r="V99" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="W99" s="0" t="n">
+        <v>0.854673998429</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11634,7 +13963,31 @@
         <v>0.842924442029667</v>
       </c>
       <c r="K100" s="0" t="n">
+        <v>0.837442112507333</v>
+      </c>
+      <c r="O100" s="0" t="n">
         <v>0.8240629083</v>
+      </c>
+      <c r="P100" s="0" t="n">
+        <v>0.837442112507333</v>
+      </c>
+      <c r="R100" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="S100" s="0" t="n">
+        <v>0.825371965544</v>
+      </c>
+      <c r="T100" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="U100" s="0" t="n">
+        <v>0.826434277415</v>
+      </c>
+      <c r="V100" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="W100" s="0" t="n">
+        <v>0.860520094563</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11664,7 +14017,31 @@
         <v>0.843054219820667</v>
       </c>
       <c r="K101" s="0" t="n">
+        <v>0.834109536940667</v>
+      </c>
+      <c r="O101" s="0" t="n">
         <v>0.827004807</v>
+      </c>
+      <c r="P101" s="0" t="n">
+        <v>0.834109536940667</v>
+      </c>
+      <c r="R101" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="S101" s="0" t="n">
+        <v>0.827586206897</v>
+      </c>
+      <c r="T101" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="U101" s="0" t="n">
+        <v>0.818049490539</v>
+      </c>
+      <c r="V101" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="W101" s="0" t="n">
+        <v>0.856692913386</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11694,7 +14071,31 @@
         <v>0.844402321529333</v>
       </c>
       <c r="K102" s="0" t="n">
+        <v>0.838290992311</v>
+      </c>
+      <c r="O102" s="0" t="n">
         <v>0.8217679987</v>
+      </c>
+      <c r="P102" s="0" t="n">
+        <v>0.838290992311</v>
+      </c>
+      <c r="R102" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S102" s="0" t="n">
+        <v>0.827586206897</v>
+      </c>
+      <c r="T102" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U102" s="0" t="n">
+        <v>0.829694323144</v>
+      </c>
+      <c r="V102" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="W102" s="0" t="n">
+        <v>0.857592446892</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11724,7 +14125,31 @@
         <v>0.843370594974333</v>
       </c>
       <c r="K103" s="0" t="n">
+        <v>0.836448168805667</v>
+      </c>
+      <c r="O103" s="0" t="n">
         <v>0.8228434373</v>
+      </c>
+      <c r="P103" s="0" t="n">
+        <v>0.836448168805667</v>
+      </c>
+      <c r="R103" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="S103" s="0" t="n">
+        <v>0.828393135725</v>
+      </c>
+      <c r="T103" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="U103" s="0" t="n">
+        <v>0.826277372263</v>
+      </c>
+      <c r="V103" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="W103" s="0" t="n">
+        <v>0.854673998429</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11754,7 +14179,31 @@
         <v>0.842181909437333</v>
       </c>
       <c r="K104" s="0" t="n">
+        <v>0.83757602375</v>
+      </c>
+      <c r="O104" s="0" t="n">
         <v>0.8210998318</v>
+      </c>
+      <c r="P104" s="0" t="n">
+        <v>0.83757602375</v>
+      </c>
+      <c r="R104" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="S104" s="0" t="n">
+        <v>0.825645035184</v>
+      </c>
+      <c r="T104" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="U104" s="0" t="n">
+        <v>0.826783114993</v>
+      </c>
+      <c r="V104" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="W104" s="0" t="n">
+        <v>0.860299921073</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11784,7 +14233,31 @@
         <v>0.844284191937333</v>
       </c>
       <c r="K105" s="0" t="n">
+        <v>0.836771735089667</v>
+      </c>
+      <c r="O105" s="0" t="n">
         <v>0.8236285265</v>
+      </c>
+      <c r="P105" s="0" t="n">
+        <v>0.836771735089667</v>
+      </c>
+      <c r="R105" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="S105" s="0" t="n">
+        <v>0.827208756841</v>
+      </c>
+      <c r="T105" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="U105" s="0" t="n">
+        <v>0.827988338192</v>
+      </c>
+      <c r="V105" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="W105" s="0" t="n">
+        <v>0.855118110236</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11814,7 +14287,31 @@
         <v>0.844356066822333</v>
       </c>
       <c r="K106" s="0" t="n">
+        <v>0.836296553052</v>
+      </c>
+      <c r="O106" s="0" t="n">
         <v>0.8263889839</v>
+      </c>
+      <c r="P106" s="0" t="n">
+        <v>0.836296553052</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="S106" s="0" t="n">
+        <v>0.824081313526</v>
+      </c>
+      <c r="T106" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="U106" s="0" t="n">
+        <v>0.826086956522</v>
+      </c>
+      <c r="V106" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="W106" s="0" t="n">
+        <v>0.858721389108</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11844,7 +14341,31 @@
         <v>0.842209487453333</v>
       </c>
       <c r="K107" s="0" t="n">
+        <v>0.837816712437333</v>
+      </c>
+      <c r="O107" s="0" t="n">
         <v>0.8251434782</v>
+      </c>
+      <c r="P107" s="0" t="n">
+        <v>0.837816712437333</v>
+      </c>
+      <c r="R107" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="S107" s="0" t="n">
+        <v>0.828125</v>
+      </c>
+      <c r="T107" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="U107" s="0" t="n">
+        <v>0.827285921626</v>
+      </c>
+      <c r="V107" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="W107" s="0" t="n">
+        <v>0.858039215686</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11874,7 +14395,31 @@
         <v>0.843651264993</v>
       </c>
       <c r="K108" s="0" t="n">
+        <v>0.83341718124</v>
+      </c>
+      <c r="O108" s="0" t="n">
         <v>0.8242395424</v>
+      </c>
+      <c r="P108" s="0" t="n">
+        <v>0.83341718124</v>
+      </c>
+      <c r="R108" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="S108" s="0" t="n">
+        <v>0.823346303502</v>
+      </c>
+      <c r="T108" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="U108" s="0" t="n">
+        <v>0.824471959213</v>
+      </c>
+      <c r="V108" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="W108" s="0" t="n">
+        <v>0.852433281005</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11904,7 +14449,31 @@
         <v>0.843729063631667</v>
       </c>
       <c r="K109" s="0" t="n">
+        <v>0.834493408185333</v>
+      </c>
+      <c r="O109" s="0" t="n">
         <v>0.8238318617</v>
+      </c>
+      <c r="P109" s="0" t="n">
+        <v>0.834493408185333</v>
+      </c>
+      <c r="R109" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="S109" s="0" t="n">
+        <v>0.822239624119</v>
+      </c>
+      <c r="T109" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="U109" s="0" t="n">
+        <v>0.826338639653</v>
+      </c>
+      <c r="V109" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="W109" s="0" t="n">
+        <v>0.854901960784</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11934,7 +14503,31 @@
         <v>0.844502887439667</v>
       </c>
       <c r="K110" s="0" t="n">
+        <v>0.835619335136333</v>
+      </c>
+      <c r="O110" s="0" t="n">
         <v>0.8244666725</v>
+      </c>
+      <c r="P110" s="0" t="n">
+        <v>0.835619335136333</v>
+      </c>
+      <c r="R110" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="S110" s="0" t="n">
+        <v>0.826938136257</v>
+      </c>
+      <c r="T110" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="U110" s="0" t="n">
+        <v>0.824127906977</v>
+      </c>
+      <c r="V110" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="W110" s="0" t="n">
+        <v>0.855791962175</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11964,7 +14557,31 @@
         <v>0.842084257713667</v>
       </c>
       <c r="K111" s="0" t="n">
+        <v>0.836548761753333</v>
+      </c>
+      <c r="O111" s="0" t="n">
         <v>0.8217578986</v>
+      </c>
+      <c r="P111" s="0" t="n">
+        <v>0.836548761753333</v>
+      </c>
+      <c r="R111" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="S111" s="0" t="n">
+        <v>0.824726134585</v>
+      </c>
+      <c r="T111" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="U111" s="0" t="n">
+        <v>0.826880934989</v>
+      </c>
+      <c r="V111" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="W111" s="0" t="n">
+        <v>0.858039215686</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11994,7 +14611,31 @@
         <v>0.844101403594667</v>
       </c>
       <c r="K112" s="0" t="n">
+        <v>0.837606280775333</v>
+      </c>
+      <c r="O112" s="0" t="n">
         <v>0.8227791464</v>
+      </c>
+      <c r="P112" s="0" t="n">
+        <v>0.837606280775333</v>
+      </c>
+      <c r="R112" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="S112" s="0" t="n">
+        <v>0.827208756841</v>
+      </c>
+      <c r="T112" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="U112" s="0" t="n">
+        <v>0.825327510917</v>
+      </c>
+      <c r="V112" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="W112" s="0" t="n">
+        <v>0.860282574568</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12024,7 +14665,31 @@
         <v>0.844222539462667</v>
       </c>
       <c r="K113" s="0" t="n">
+        <v>0.835743376017</v>
+      </c>
+      <c r="O113" s="0" t="n">
         <v>0.8221314902</v>
+      </c>
+      <c r="P113" s="0" t="n">
+        <v>0.835743376017</v>
+      </c>
+      <c r="R113" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="S113" s="0" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="T113" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="U113" s="0" t="n">
+        <v>0.824637681159</v>
+      </c>
+      <c r="V113" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="W113" s="0" t="n">
+        <v>0.857592446892</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12054,7 +14719,31 @@
         <v>0.843120960095</v>
       </c>
       <c r="K114" s="0" t="n">
+        <v>0.835365583141</v>
+      </c>
+      <c r="O114" s="0" t="n">
         <v>0.8228332105</v>
+      </c>
+      <c r="P114" s="0" t="n">
+        <v>0.835365583141</v>
+      </c>
+      <c r="R114" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="S114" s="0" t="n">
+        <v>0.824629773967</v>
+      </c>
+      <c r="T114" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="U114" s="0" t="n">
+        <v>0.824548736462</v>
+      </c>
+      <c r="V114" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="W114" s="0" t="n">
+        <v>0.856918238994</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12084,7 +14773,31 @@
         <v>0.842965859032667</v>
       </c>
       <c r="K115" s="0" t="n">
+        <v>0.834759195949333</v>
+      </c>
+      <c r="O115" s="0" t="n">
         <v>0.8236659172</v>
+      </c>
+      <c r="P115" s="0" t="n">
+        <v>0.834759195949333</v>
+      </c>
+      <c r="R115" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="S115" s="0" t="n">
+        <v>0.822152886115</v>
+      </c>
+      <c r="T115" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="U115" s="0" t="n">
+        <v>0.82498184459</v>
+      </c>
+      <c r="V115" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="W115" s="0" t="n">
+        <v>0.857142857143</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12114,7 +14827,31 @@
         <v>0.841720863612667</v>
       </c>
       <c r="K116" s="0" t="n">
+        <v>0.836444486191333</v>
+      </c>
+      <c r="O116" s="0" t="n">
         <v>0.8201528402</v>
+      </c>
+      <c r="P116" s="0" t="n">
+        <v>0.836444486191333</v>
+      </c>
+      <c r="R116" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="S116" s="0" t="n">
+        <v>0.827208756841</v>
+      </c>
+      <c r="T116" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="U116" s="0" t="n">
+        <v>0.82498184459</v>
+      </c>
+      <c r="V116" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="W116" s="0" t="n">
+        <v>0.857142857143</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12144,7 +14881,31 @@
         <v>0.841368035574</v>
       </c>
       <c r="K117" s="0" t="n">
+        <v>0.833536461573</v>
+      </c>
+      <c r="O117" s="0" t="n">
         <v>0.8214087774</v>
+      </c>
+      <c r="P117" s="0" t="n">
+        <v>0.833536461573</v>
+      </c>
+      <c r="R117" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="S117" s="0" t="n">
+        <v>0.8234375</v>
+      </c>
+      <c r="T117" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="U117" s="0" t="n">
+        <v>0.820029027576</v>
+      </c>
+      <c r="V117" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="W117" s="0" t="n">
+        <v>0.857142857143</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12174,7 +14935,31 @@
         <v>0.840066489206333</v>
       </c>
       <c r="K118" s="0" t="n">
+        <v>0.833596856479333</v>
+      </c>
+      <c r="O118" s="0" t="n">
         <v>0.8209691947</v>
+      </c>
+      <c r="P118" s="0" t="n">
+        <v>0.833596856479333</v>
+      </c>
+      <c r="R118" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="S118" s="0" t="n">
+        <v>0.822066822067</v>
+      </c>
+      <c r="T118" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="U118" s="0" t="n">
+        <v>0.822931785196</v>
+      </c>
+      <c r="V118" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="W118" s="0" t="n">
+        <v>0.855791962175</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12204,7 +14989,31 @@
         <v>0.841066441792333</v>
       </c>
       <c r="K119" s="0" t="n">
+        <v>0.833069006554667</v>
+      </c>
+      <c r="O119" s="0" t="n">
         <v>0.8229796592</v>
+      </c>
+      <c r="P119" s="0" t="n">
+        <v>0.833069006554667</v>
+      </c>
+      <c r="R119" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="S119" s="0" t="n">
+        <v>0.823712948518</v>
+      </c>
+      <c r="T119" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="U119" s="0" t="n">
+        <v>0.821739130435</v>
+      </c>
+      <c r="V119" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="W119" s="0" t="n">
+        <v>0.853754940711</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12234,7 +15043,31 @@
         <v>0.841260239438</v>
       </c>
       <c r="K120" s="0" t="n">
+        <v>0.832262205835667</v>
+      </c>
+      <c r="O120" s="0" t="n">
         <v>0.8187678261</v>
+      </c>
+      <c r="P120" s="0" t="n">
+        <v>0.832262205835667</v>
+      </c>
+      <c r="R120" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="S120" s="0" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="T120" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="U120" s="0" t="n">
+        <v>0.817126269956</v>
+      </c>
+      <c r="V120" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="W120" s="0" t="n">
+        <v>0.854660347551</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12264,7 +15097,31 @@
         <v>0.84304208233</v>
       </c>
       <c r="K121" s="0" t="n">
+        <v>0.833878658026333</v>
+      </c>
+      <c r="O121" s="0" t="n">
         <v>0.8280878108</v>
+      </c>
+      <c r="P121" s="0" t="n">
+        <v>0.833878658026333</v>
+      </c>
+      <c r="R121" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="S121" s="0" t="n">
+        <v>0.823805794832</v>
+      </c>
+      <c r="T121" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="U121" s="0" t="n">
+        <v>0.824727272727</v>
+      </c>
+      <c r="V121" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="W121" s="0" t="n">
+        <v>0.85310290652</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12294,7 +15151,31 @@
         <v>0.842163816565667</v>
       </c>
       <c r="K122" s="0" t="n">
+        <v>0.837353144133</v>
+      </c>
+      <c r="O122" s="0" t="n">
         <v>0.8237474713</v>
+      </c>
+      <c r="P122" s="0" t="n">
+        <v>0.837353144133</v>
+      </c>
+      <c r="R122" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="S122" s="0" t="n">
+        <v>0.826459143969</v>
+      </c>
+      <c r="T122" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="U122" s="0" t="n">
+        <v>0.826434277415</v>
+      </c>
+      <c r="V122" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="W122" s="0" t="n">
+        <v>0.859166011015</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12324,7 +15205,31 @@
         <v>0.841293868186</v>
       </c>
       <c r="K123" s="0" t="n">
+        <v>0.833345338874</v>
+      </c>
+      <c r="O123" s="0" t="n">
         <v>0.8188146274</v>
+      </c>
+      <c r="P123" s="0" t="n">
+        <v>0.833345338874</v>
+      </c>
+      <c r="R123" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="S123" s="0" t="n">
+        <v>0.8234375</v>
+      </c>
+      <c r="T123" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="U123" s="0" t="n">
+        <v>0.821480406386</v>
+      </c>
+      <c r="V123" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="W123" s="0" t="n">
+        <v>0.855118110236</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12354,7 +15259,31 @@
         <v>0.841763450648333</v>
       </c>
       <c r="K124" s="0" t="n">
+        <v>0.835477172011</v>
+      </c>
+      <c r="O124" s="0" t="n">
         <v>0.8194116407</v>
+      </c>
+      <c r="P124" s="0" t="n">
+        <v>0.835477172011</v>
+      </c>
+      <c r="R124" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="S124" s="0" t="n">
+        <v>0.828125</v>
+      </c>
+      <c r="T124" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="U124" s="0" t="n">
+        <v>0.823188405797</v>
+      </c>
+      <c r="V124" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="W124" s="0" t="n">
+        <v>0.855118110236</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12384,7 +15313,31 @@
         <v>0.843014985489333</v>
       </c>
       <c r="K125" s="0" t="n">
+        <v>0.834725052246667</v>
+      </c>
+      <c r="O125" s="0" t="n">
         <v>0.8204882549</v>
+      </c>
+      <c r="P125" s="0" t="n">
+        <v>0.834725052246667</v>
+      </c>
+      <c r="R125" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="S125" s="0" t="n">
+        <v>0.828125</v>
+      </c>
+      <c r="T125" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="U125" s="0" t="n">
+        <v>0.821818181818</v>
+      </c>
+      <c r="V125" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="W125" s="0" t="n">
+        <v>0.854231974922</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12414,7 +15367,31 @@
         <v>0.841943275598333</v>
       </c>
       <c r="K126" s="0" t="n">
+        <v>0.835176142609667</v>
+      </c>
+      <c r="O126" s="0" t="n">
         <v>0.8214461387</v>
+      </c>
+      <c r="P126" s="0" t="n">
+        <v>0.835176142609667</v>
+      </c>
+      <c r="R126" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="S126" s="0" t="n">
+        <v>0.827478532397</v>
+      </c>
+      <c r="T126" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="U126" s="0" t="n">
+        <v>0.822931785196</v>
+      </c>
+      <c r="V126" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="W126" s="0" t="n">
+        <v>0.855118110236</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12444,7 +15421,31 @@
         <v>0.840213278227</v>
       </c>
       <c r="K127" s="0" t="n">
+        <v>0.834268017810333</v>
+      </c>
+      <c r="O127" s="0" t="n">
         <v>0.8192953466</v>
+      </c>
+      <c r="P127" s="0" t="n">
+        <v>0.834268017810333</v>
+      </c>
+      <c r="R127" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="S127" s="0" t="n">
+        <v>0.826086956522</v>
+      </c>
+      <c r="T127" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="U127" s="0" t="n">
+        <v>0.821144098479</v>
+      </c>
+      <c r="V127" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="W127" s="0" t="n">
+        <v>0.85557299843</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12474,7 +15475,31 @@
         <v>0.841183804703667</v>
       </c>
       <c r="K128" s="0" t="n">
+        <v>0.833516685862</v>
+      </c>
+      <c r="O128" s="0" t="n">
         <v>0.821136676</v>
+      </c>
+      <c r="P128" s="0" t="n">
+        <v>0.833516685862</v>
+      </c>
+      <c r="R128" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="S128" s="0" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="T128" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="U128" s="0" t="n">
+        <v>0.823785351704</v>
+      </c>
+      <c r="V128" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="W128" s="0" t="n">
+        <v>0.851764705882</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12504,7 +15529,31 @@
         <v>0.841840753625</v>
       </c>
       <c r="K129" s="0" t="n">
+        <v>0.832821546387333</v>
+      </c>
+      <c r="O129" s="0" t="n">
         <v>0.8211770796</v>
+      </c>
+      <c r="P129" s="0" t="n">
+        <v>0.832821546387333</v>
+      </c>
+      <c r="R129" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="S129" s="0" t="n">
+        <v>0.818110850898</v>
+      </c>
+      <c r="T129" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="U129" s="0" t="n">
+        <v>0.825235678028</v>
+      </c>
+      <c r="V129" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="W129" s="0" t="n">
+        <v>0.855118110236</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12534,7 +15583,31 @@
         <v>0.84029835845</v>
       </c>
       <c r="K130" s="0" t="n">
+        <v>0.833619998444333</v>
+      </c>
+      <c r="O130" s="0" t="n">
         <v>0.8182655296</v>
+      </c>
+      <c r="P130" s="0" t="n">
+        <v>0.833619998444333</v>
+      </c>
+      <c r="R130" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="S130" s="0" t="n">
+        <v>0.823070927514</v>
+      </c>
+      <c r="T130" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="U130" s="0" t="n">
+        <v>0.821997105644</v>
+      </c>
+      <c r="V130" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="W130" s="0" t="n">
+        <v>0.855791962175</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12564,7 +15637,31 @@
         <v>0.841298898126667</v>
       </c>
       <c r="K131" s="0" t="n">
+        <v>0.833176023157667</v>
+      </c>
+      <c r="O131" s="0" t="n">
         <v>0.8220463631</v>
+      </c>
+      <c r="P131" s="0" t="n">
+        <v>0.833176023157667</v>
+      </c>
+      <c r="R131" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="S131" s="0" t="n">
+        <v>0.82151208106</v>
+      </c>
+      <c r="T131" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="U131" s="0" t="n">
+        <v>0.821997105644</v>
+      </c>
+      <c r="V131" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="W131" s="0" t="n">
+        <v>0.856018882769</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12594,7 +15691,31 @@
         <v>0.837014251368</v>
       </c>
       <c r="K132" s="0" t="n">
+        <v>0.831222703678</v>
+      </c>
+      <c r="O132" s="0" t="n">
         <v>0.8215427969</v>
+      </c>
+      <c r="P132" s="0" t="n">
+        <v>0.831222703678</v>
+      </c>
+      <c r="R132" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="S132" s="0" t="n">
+        <v>0.819107282694</v>
+      </c>
+      <c r="T132" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="U132" s="0" t="n">
+        <v>0.822592324403</v>
+      </c>
+      <c r="V132" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="W132" s="0" t="n">
+        <v>0.851968503937</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12624,7 +15745,31 @@
         <v>0.839548264793667</v>
       </c>
       <c r="K133" s="0" t="n">
+        <v>0.834712672332667</v>
+      </c>
+      <c r="O133" s="0" t="n">
         <v>0.8217578986</v>
+      </c>
+      <c r="P133" s="0" t="n">
+        <v>0.834712672332667</v>
+      </c>
+      <c r="R133" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="S133" s="0" t="n">
+        <v>0.826188620421</v>
+      </c>
+      <c r="T133" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="U133" s="0" t="n">
+        <v>0.822157434402</v>
+      </c>
+      <c r="V133" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="W133" s="0" t="n">
+        <v>0.855791962175</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12654,7 +15799,31 @@
         <v>0.841236222907</v>
       </c>
       <c r="K134" s="0" t="n">
+        <v>0.833982422439333</v>
+      </c>
+      <c r="O134" s="0" t="n">
         <v>0.8210501582</v>
+      </c>
+      <c r="P134" s="0" t="n">
+        <v>0.833982422439333</v>
+      </c>
+      <c r="R134" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="S134" s="0" t="n">
+        <v>0.82554517134</v>
+      </c>
+      <c r="T134" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="U134" s="0" t="n">
+        <v>0.822416302766</v>
+      </c>
+      <c r="V134" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="W134" s="0" t="n">
+        <v>0.853985793212</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12684,7 +15853,31 @@
         <v>0.838258443462333</v>
       </c>
       <c r="K135" s="0" t="n">
+        <v>0.834048154439333</v>
+      </c>
+      <c r="O135" s="0" t="n">
         <v>0.8222180895</v>
+      </c>
+      <c r="P135" s="0" t="n">
+        <v>0.834048154439333</v>
+      </c>
+      <c r="R135" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="S135" s="0" t="n">
+        <v>0.824355971897</v>
+      </c>
+      <c r="T135" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="U135" s="0" t="n">
+        <v>0.823785351704</v>
+      </c>
+      <c r="V135" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="W135" s="0" t="n">
+        <v>0.854003139717</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12714,7 +15907,31 @@
         <v>0.839354610569333</v>
       </c>
       <c r="K136" s="0" t="n">
+        <v>0.833350371205333</v>
+      </c>
+      <c r="O136" s="0" t="n">
         <v>0.8243106867</v>
+      </c>
+      <c r="P136" s="0" t="n">
+        <v>0.833350371205333</v>
+      </c>
+      <c r="R136" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="S136" s="0" t="n">
+        <v>0.823712948518</v>
+      </c>
+      <c r="T136" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="U136" s="0" t="n">
+        <v>0.822335025381</v>
+      </c>
+      <c r="V136" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="W136" s="0" t="n">
+        <v>0.854003139717</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12744,7 +15961,31 @@
         <v>0.842073827407667</v>
       </c>
       <c r="K137" s="0" t="n">
+        <v>0.834433284644</v>
+      </c>
+      <c r="O137" s="0" t="n">
         <v>0.8236934234</v>
+      </c>
+      <c r="P137" s="0" t="n">
+        <v>0.834433284644</v>
+      </c>
+      <c r="R137" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="S137" s="0" t="n">
+        <v>0.827478532397</v>
+      </c>
+      <c r="T137" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="U137" s="0" t="n">
+        <v>0.821818181818</v>
+      </c>
+      <c r="V137" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="W137" s="0" t="n">
+        <v>0.854003139717</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12774,7 +16015,31 @@
         <v>0.842036885133333</v>
       </c>
       <c r="K138" s="0" t="n">
+        <v>0.836685564873333</v>
+      </c>
+      <c r="O138" s="0" t="n">
         <v>0.822520095</v>
+      </c>
+      <c r="P138" s="0" t="n">
+        <v>0.836685564873333</v>
+      </c>
+      <c r="R138" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="S138" s="0" t="n">
+        <v>0.828504306969</v>
+      </c>
+      <c r="T138" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="U138" s="0" t="n">
+        <v>0.826434277415</v>
+      </c>
+      <c r="V138" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="W138" s="0" t="n">
+        <v>0.855118110236</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12804,7 +16069,31 @@
         <v>0.840104248337333</v>
       </c>
       <c r="K139" s="0" t="n">
+        <v>0.835093287154333</v>
+      </c>
+      <c r="O139" s="0" t="n">
         <v>0.8237292409</v>
+      </c>
+      <c r="P139" s="0" t="n">
+        <v>0.835093287154333</v>
+      </c>
+      <c r="R139" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="S139" s="0" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="T139" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="U139" s="0" t="n">
+        <v>0.825834542816</v>
+      </c>
+      <c r="V139" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="W139" s="0" t="n">
+        <v>0.854445318647</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12834,7 +16123,31 @@
         <v>0.840247065164</v>
       </c>
       <c r="K140" s="0" t="n">
+        <v>0.834745763693333</v>
+      </c>
+      <c r="O140" s="0" t="n">
         <v>0.8225998726</v>
+      </c>
+      <c r="P140" s="0" t="n">
+        <v>0.834745763693333</v>
+      </c>
+      <c r="R140" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="S140" s="0" t="n">
+        <v>0.824355971897</v>
+      </c>
+      <c r="T140" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="U140" s="0" t="n">
+        <v>0.823188405797</v>
+      </c>
+      <c r="V140" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="W140" s="0" t="n">
+        <v>0.856692913386</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12864,7 +16177,31 @@
         <v>0.839949337768667</v>
       </c>
       <c r="K141" s="0" t="n">
+        <v>0.834750375233</v>
+      </c>
+      <c r="O141" s="0" t="n">
         <v>0.8260356873</v>
+      </c>
+      <c r="P141" s="0" t="n">
+        <v>0.834750375233</v>
+      </c>
+      <c r="R141" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="S141" s="0" t="n">
+        <v>0.825917252147</v>
+      </c>
+      <c r="T141" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="U141" s="0" t="n">
+        <v>0.823444283647</v>
+      </c>
+      <c r="V141" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="W141" s="0" t="n">
+        <v>0.854889589905</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12894,7 +16231,31 @@
         <v>0.839062175088666</v>
       </c>
       <c r="K142" s="0" t="n">
+        <v>0.833389624842667</v>
+      </c>
+      <c r="O142" s="0" t="n">
         <v>0.8216294375</v>
+      </c>
+      <c r="P142" s="0" t="n">
+        <v>0.833389624842667</v>
+      </c>
+      <c r="R142" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="S142" s="0" t="n">
+        <v>0.822152886115</v>
+      </c>
+      <c r="T142" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="U142" s="0" t="n">
+        <v>0.821997105644</v>
+      </c>
+      <c r="V142" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="W142" s="0" t="n">
+        <v>0.856018882769</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12924,7 +16285,31 @@
         <v>0.836800643040333</v>
       </c>
       <c r="K143" s="0" t="n">
+        <v>0.834004842576667</v>
+      </c>
+      <c r="O143" s="0" t="n">
         <v>0.8235595725</v>
+      </c>
+      <c r="P143" s="0" t="n">
+        <v>0.834004842576667</v>
+      </c>
+      <c r="R143" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="S143" s="0" t="n">
+        <v>0.822794691647</v>
+      </c>
+      <c r="T143" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="U143" s="0" t="n">
+        <v>0.82207697894</v>
+      </c>
+      <c r="V143" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="W143" s="0" t="n">
+        <v>0.857142857143</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12954,7 +16339,31 @@
         <v>0.834178667356333</v>
       </c>
       <c r="K144" s="0" t="n">
+        <v>0.834859432349333</v>
+      </c>
+      <c r="O144" s="0" t="n">
         <v>0.8187774196</v>
+      </c>
+      <c r="P144" s="0" t="n">
+        <v>0.834859432349333</v>
+      </c>
+      <c r="R144" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="S144" s="0" t="n">
+        <v>0.824355971897</v>
+      </c>
+      <c r="T144" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="U144" s="0" t="n">
+        <v>0.823529411765</v>
+      </c>
+      <c r="V144" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="W144" s="0" t="n">
+        <v>0.856692913386</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12984,7 +16393,31 @@
         <v>0.835843363533333</v>
       </c>
       <c r="K145" s="0" t="n">
+        <v>0.834836200927333</v>
+      </c>
+      <c r="O145" s="0" t="n">
         <v>0.8171887891</v>
+      </c>
+      <c r="P145" s="0" t="n">
+        <v>0.834836200927333</v>
+      </c>
+      <c r="R145" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="S145" s="0" t="n">
+        <v>0.824629773967</v>
+      </c>
+      <c r="T145" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="U145" s="0" t="n">
+        <v>0.822510822511</v>
+      </c>
+      <c r="V145" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="W145" s="0" t="n">
+        <v>0.857368006304</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13014,7 +16447,31 @@
         <v>0.837869224213667</v>
       </c>
       <c r="K146" s="0" t="n">
+        <v>0.832536678032667</v>
+      </c>
+      <c r="O146" s="0" t="n">
         <v>0.8191138118</v>
+      </c>
+      <c r="P146" s="0" t="n">
+        <v>0.832536678032667</v>
+      </c>
+      <c r="R146" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="S146" s="0" t="n">
+        <v>0.8234375</v>
+      </c>
+      <c r="T146" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="U146" s="0" t="n">
+        <v>0.819956616052</v>
+      </c>
+      <c r="V146" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="W146" s="0" t="n">
+        <v>0.854215918046</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13044,7 +16501,31 @@
         <v>0.838467154253</v>
       </c>
       <c r="K147" s="0" t="n">
+        <v>0.833521881842333</v>
+      </c>
+      <c r="O147" s="0" t="n">
         <v>0.8192952713</v>
+      </c>
+      <c r="P147" s="0" t="n">
+        <v>0.833521881842333</v>
+      </c>
+      <c r="R147" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="S147" s="0" t="n">
+        <v>0.824629773967</v>
+      </c>
+      <c r="T147" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="U147" s="0" t="n">
+        <v>0.824637681159</v>
+      </c>
+      <c r="V147" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="W147" s="0" t="n">
+        <v>0.851298190401</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13074,7 +16555,31 @@
         <v>0.837171493276</v>
       </c>
       <c r="K148" s="0" t="n">
+        <v>0.834322786171667</v>
+      </c>
+      <c r="O148" s="0" t="n">
         <v>0.8210446626</v>
+      </c>
+      <c r="P148" s="0" t="n">
+        <v>0.834322786171667</v>
+      </c>
+      <c r="R148" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="S148" s="0" t="n">
+        <v>0.824629773967</v>
+      </c>
+      <c r="T148" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="U148" s="0" t="n">
+        <v>0.825235678028</v>
+      </c>
+      <c r="V148" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="W148" s="0" t="n">
+        <v>0.85310290652</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13104,7 +16609,31 @@
         <v>0.836537628184333</v>
       </c>
       <c r="K149" s="0" t="n">
+        <v>0.834589464545333</v>
+      </c>
+      <c r="O149" s="0" t="n">
         <v>0.8176057183</v>
+      </c>
+      <c r="P149" s="0" t="n">
+        <v>0.834589464545333</v>
+      </c>
+      <c r="R149" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="S149" s="0" t="n">
+        <v>0.822517591869</v>
+      </c>
+      <c r="T149" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="U149" s="0" t="n">
+        <v>0.827034883721</v>
+      </c>
+      <c r="V149" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="W149" s="0" t="n">
+        <v>0.854215918046</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13134,7 +16663,31 @@
         <v>0.838062487988333</v>
       </c>
       <c r="K150" s="0" t="n">
+        <v>0.833377179332</v>
+      </c>
+      <c r="O150" s="0" t="n">
         <v>0.8204643605</v>
+      </c>
+      <c r="P150" s="0" t="n">
+        <v>0.833377179332</v>
+      </c>
+      <c r="R150" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="S150" s="0" t="n">
+        <v>0.824355971897</v>
+      </c>
+      <c r="T150" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="U150" s="0" t="n">
+        <v>0.824040550326</v>
+      </c>
+      <c r="V150" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="W150" s="0" t="n">
+        <v>0.851735015773</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13164,7 +16717,31 @@
         <v>0.837243640161333</v>
       </c>
       <c r="K151" s="0" t="n">
+        <v>0.831527958958667</v>
+      </c>
+      <c r="O151" s="0" t="n">
         <v>0.814532437</v>
+      </c>
+      <c r="P151" s="0" t="n">
+        <v>0.831527958958667</v>
+      </c>
+      <c r="R151" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="S151" s="0" t="n">
+        <v>0.821596244131</v>
+      </c>
+      <c r="T151" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="U151" s="0" t="n">
+        <v>0.819884726225</v>
+      </c>
+      <c r="V151" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="W151" s="0" t="n">
+        <v>0.85310290652</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13194,7 +16771,31 @@
         <v>0.838273193865333</v>
       </c>
       <c r="K152" s="0" t="n">
+        <v>0.832617875868</v>
+      </c>
+      <c r="O152" s="0" t="n">
         <v>0.8196707621</v>
+      </c>
+      <c r="P152" s="0" t="n">
+        <v>0.832617875868</v>
+      </c>
+      <c r="R152" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="S152" s="0" t="n">
+        <v>0.822152886115</v>
+      </c>
+      <c r="T152" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U152" s="0" t="n">
+        <v>0.822157434402</v>
+      </c>
+      <c r="V152" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W152" s="0" t="n">
+        <v>0.853543307087</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13224,7 +16825,31 @@
         <v>0.839600310625667</v>
       </c>
       <c r="K153" s="0" t="n">
+        <v>0.832238819599333</v>
+      </c>
+      <c r="O153" s="0" t="n">
         <v>0.8212658669</v>
+      </c>
+      <c r="P153" s="0" t="n">
+        <v>0.832238819599333</v>
+      </c>
+      <c r="R153" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="S153" s="0" t="n">
+        <v>0.823712948518</v>
+      </c>
+      <c r="T153" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="U153" s="0" t="n">
+        <v>0.820363636364</v>
+      </c>
+      <c r="V153" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="W153" s="0" t="n">
+        <v>0.852639873916</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13254,7 +16879,31 @@
         <v>0.839023677265</v>
       </c>
       <c r="K154" s="0" t="n">
+        <v>0.834100713804</v>
+      </c>
+      <c r="O154" s="0" t="n">
         <v>0.8221844284</v>
+      </c>
+      <c r="P154" s="0" t="n">
+        <v>0.834100713804</v>
+      </c>
+      <c r="R154" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="S154" s="0" t="n">
+        <v>0.825645035184</v>
+      </c>
+      <c r="T154" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="U154" s="0" t="n">
+        <v>0.823785351704</v>
+      </c>
+      <c r="V154" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="W154" s="0" t="n">
+        <v>0.852871754524</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13284,7 +16933,31 @@
         <v>0.839058404734333</v>
       </c>
       <c r="K155" s="0" t="n">
+        <v>0.83572323132</v>
+      </c>
+      <c r="O155" s="0" t="n">
         <v>0.8239814057</v>
+      </c>
+      <c r="P155" s="0" t="n">
+        <v>0.83572323132</v>
+      </c>
+      <c r="R155" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="S155" s="0" t="n">
+        <v>0.829039812646</v>
+      </c>
+      <c r="T155" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="U155" s="0" t="n">
+        <v>0.825928623452</v>
+      </c>
+      <c r="V155" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="W155" s="0" t="n">
+        <v>0.852201257862</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13314,7 +16987,31 @@
         <v>0.836297361292333</v>
       </c>
       <c r="K156" s="0" t="n">
+        <v>0.834771064154667</v>
+      </c>
+      <c r="O156" s="0" t="n">
         <v>0.8235499467</v>
+      </c>
+      <c r="P156" s="0" t="n">
+        <v>0.834771064154667</v>
+      </c>
+      <c r="R156" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="S156" s="0" t="n">
+        <v>0.824629773967</v>
+      </c>
+      <c r="T156" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="U156" s="0" t="n">
+        <v>0.828385228096</v>
+      </c>
+      <c r="V156" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="W156" s="0" t="n">
+        <v>0.851298190401</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13344,7 +17041,31 @@
         <v>0.838323521815333</v>
       </c>
       <c r="K157" s="0" t="n">
+        <v>0.834604331720333</v>
+      </c>
+      <c r="O157" s="0" t="n">
         <v>0.8204756304</v>
+      </c>
+      <c r="P157" s="0" t="n">
+        <v>0.834604331720333</v>
+      </c>
+      <c r="R157" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="S157" s="0" t="n">
+        <v>0.82554517134</v>
+      </c>
+      <c r="T157" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="U157" s="0" t="n">
+        <v>0.825834542816</v>
+      </c>
+      <c r="V157" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="W157" s="0" t="n">
+        <v>0.852433281005</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13374,7 +17095,31 @@
         <v>0.837633946201667</v>
       </c>
       <c r="K158" s="0" t="n">
+        <v>0.836498343992667</v>
+      </c>
+      <c r="O158" s="0" t="n">
         <v>0.815083879</v>
+      </c>
+      <c r="P158" s="0" t="n">
+        <v>0.836498343992667</v>
+      </c>
+      <c r="R158" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="S158" s="0" t="n">
+        <v>0.825917252147</v>
+      </c>
+      <c r="T158" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="U158" s="0" t="n">
+        <v>0.827785817656</v>
+      </c>
+      <c r="V158" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="W158" s="0" t="n">
+        <v>0.855791962175</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13404,7 +17149,31 @@
         <v>0.836837697714</v>
       </c>
       <c r="K159" s="0" t="n">
+        <v>0.833906512376333</v>
+      </c>
+      <c r="O159" s="0" t="n">
         <v>0.8203731418</v>
+      </c>
+      <c r="P159" s="0" t="n">
+        <v>0.833906512376333</v>
+      </c>
+      <c r="R159" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="S159" s="0" t="n">
+        <v>0.823620823621</v>
+      </c>
+      <c r="T159" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="U159" s="0" t="n">
+        <v>0.827034883721</v>
+      </c>
+      <c r="V159" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="W159" s="0" t="n">
+        <v>0.851063829787</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13434,7 +17203,31 @@
         <v>0.837125985026667</v>
       </c>
       <c r="K160" s="0" t="n">
+        <v>0.833944607331</v>
+      </c>
+      <c r="O160" s="0" t="n">
         <v>0.8186763991</v>
+      </c>
+      <c r="P160" s="0" t="n">
+        <v>0.833944607331</v>
+      </c>
+      <c r="R160" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="S160" s="0" t="n">
+        <v>0.823620823621</v>
+      </c>
+      <c r="T160" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="U160" s="0" t="n">
+        <v>0.828488372093</v>
+      </c>
+      <c r="V160" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="W160" s="0" t="n">
+        <v>0.849724626279</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13464,7 +17257,31 @@
         <v>0.838074250917</v>
       </c>
       <c r="K161" s="0" t="n">
+        <v>0.834418489136667</v>
+      </c>
+      <c r="O161" s="0" t="n">
         <v>0.8197575172</v>
+      </c>
+      <c r="P161" s="0" t="n">
+        <v>0.834418489136667</v>
+      </c>
+      <c r="R161" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="S161" s="0" t="n">
+        <v>0.8265625</v>
+      </c>
+      <c r="T161" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="U161" s="0" t="n">
+        <v>0.827636363636</v>
+      </c>
+      <c r="V161" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="W161" s="0" t="n">
+        <v>0.849056603774</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13494,7 +17311,31 @@
         <v>0.834848445514667</v>
       </c>
       <c r="K162" s="0" t="n">
+        <v>0.833521257676</v>
+      </c>
+      <c r="O162" s="0" t="n">
         <v>0.8197358197</v>
+      </c>
+      <c r="P162" s="0" t="n">
+        <v>0.833521257676</v>
+      </c>
+      <c r="R162" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="S162" s="0" t="n">
+        <v>0.8265625</v>
+      </c>
+      <c r="T162" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="U162" s="0" t="n">
+        <v>0.824040550326</v>
+      </c>
+      <c r="V162" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="W162" s="0" t="n">
+        <v>0.849960722702</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13524,7 +17365,31 @@
         <v>0.837482999876</v>
       </c>
       <c r="K163" s="0" t="n">
+        <v>0.834626465380333</v>
+      </c>
+      <c r="O163" s="0" t="n">
         <v>0.8194471826</v>
+      </c>
+      <c r="P163" s="0" t="n">
+        <v>0.834626465380333</v>
+      </c>
+      <c r="R163" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="S163" s="0" t="n">
+        <v>0.823070927514</v>
+      </c>
+      <c r="T163" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="U163" s="0" t="n">
+        <v>0.827034883721</v>
+      </c>
+      <c r="V163" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="W163" s="0" t="n">
+        <v>0.853773584906</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13554,7 +17419,31 @@
         <v>0.837151458713667</v>
       </c>
       <c r="K164" s="0" t="n">
+        <v>0.833083310769667</v>
+      </c>
+      <c r="O164" s="0" t="n">
         <v>0.8203679332</v>
+      </c>
+      <c r="P164" s="0" t="n">
+        <v>0.833083310769667</v>
+      </c>
+      <c r="R164" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="S164" s="0" t="n">
+        <v>0.822517591869</v>
+      </c>
+      <c r="T164" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="U164" s="0" t="n">
+        <v>0.826338639653</v>
+      </c>
+      <c r="V164" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="W164" s="0" t="n">
+        <v>0.850393700787</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13584,7 +17473,31 @@
         <v>0.836772586175333</v>
       </c>
       <c r="K165" s="0" t="n">
+        <v>0.834469276265333</v>
+      </c>
+      <c r="O165" s="0" t="n">
         <v>0.8197358197</v>
+      </c>
+      <c r="P165" s="0" t="n">
+        <v>0.834469276265333</v>
+      </c>
+      <c r="R165" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="S165" s="0" t="n">
+        <v>0.823987538941</v>
+      </c>
+      <c r="T165" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="U165" s="0" t="n">
+        <v>0.826086956522</v>
+      </c>
+      <c r="V165" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="W165" s="0" t="n">
+        <v>0.853333333333</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13614,7 +17527,31 @@
         <v>0.836010217610667</v>
       </c>
       <c r="K166" s="0" t="n">
+        <v>0.834443107255667</v>
+      </c>
+      <c r="O166" s="0" t="n">
         <v>0.8190724237</v>
+      </c>
+      <c r="P166" s="0" t="n">
+        <v>0.834443107255667</v>
+      </c>
+      <c r="R166" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="S166" s="0" t="n">
+        <v>0.824261275272</v>
+      </c>
+      <c r="T166" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="U166" s="0" t="n">
+        <v>0.827536231884</v>
+      </c>
+      <c r="V166" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="W166" s="0" t="n">
+        <v>0.851531814611</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13644,7 +17581,31 @@
         <v>0.836849713234667</v>
       </c>
       <c r="K167" s="0" t="n">
+        <v>0.83299295607</v>
+      </c>
+      <c r="O167" s="0" t="n">
         <v>0.8185163874</v>
+      </c>
+      <c r="P167" s="0" t="n">
+        <v>0.83299295607</v>
+      </c>
+      <c r="R167" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="S167" s="0" t="n">
+        <v>0.823987538941</v>
+      </c>
+      <c r="T167" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="U167" s="0" t="n">
+        <v>0.824127906977</v>
+      </c>
+      <c r="V167" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="W167" s="0" t="n">
+        <v>0.850863422292</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13674,7 +17635,31 @@
         <v>0.836969462451</v>
       </c>
       <c r="K168" s="0" t="n">
+        <v>0.833362213087</v>
+      </c>
+      <c r="O168" s="0" t="n">
         <v>0.819589723</v>
+      </c>
+      <c r="P168" s="0" t="n">
+        <v>0.833362213087</v>
+      </c>
+      <c r="R168" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="S168" s="0" t="n">
+        <v>0.823987538941</v>
+      </c>
+      <c r="T168" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="U168" s="0" t="n">
+        <v>0.825235678028</v>
+      </c>
+      <c r="V168" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="W168" s="0" t="n">
+        <v>0.850863422292</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13704,7 +17689,31 @@
         <v>0.835799124087667</v>
       </c>
       <c r="K169" s="0" t="n">
+        <v>0.833769672027</v>
+      </c>
+      <c r="O169" s="0" t="n">
         <v>0.8209785408</v>
+      </c>
+      <c r="P169" s="0" t="n">
+        <v>0.833769672027</v>
+      </c>
+      <c r="R169" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="S169" s="0" t="n">
+        <v>0.824261275272</v>
+      </c>
+      <c r="T169" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="U169" s="0" t="n">
+        <v>0.824383164006</v>
+      </c>
+      <c r="V169" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="W169" s="0" t="n">
+        <v>0.852664576803</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13734,7 +17743,31 @@
         <v>0.834715808044</v>
       </c>
       <c r="K170" s="0" t="n">
+        <v>0.834661457618333</v>
+      </c>
+      <c r="O170" s="0" t="n">
         <v>0.8197802198</v>
+      </c>
+      <c r="P170" s="0" t="n">
+        <v>0.834661457618333</v>
+      </c>
+      <c r="R170" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="S170" s="0" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="T170" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="U170" s="0" t="n">
+        <v>0.826783114993</v>
+      </c>
+      <c r="V170" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="W170" s="0" t="n">
+        <v>0.852201257862</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13764,7 +17797,31 @@
         <v>0.834105972306</v>
       </c>
       <c r="K171" s="0" t="n">
+        <v>0.834453889954</v>
+      </c>
+      <c r="O171" s="0" t="n">
         <v>0.8191898465</v>
+      </c>
+      <c r="P171" s="0" t="n">
+        <v>0.834453889954</v>
+      </c>
+      <c r="R171" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="S171" s="0" t="n">
+        <v>0.824726134585</v>
+      </c>
+      <c r="T171" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="U171" s="0" t="n">
+        <v>0.826434277415</v>
+      </c>
+      <c r="V171" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="W171" s="0" t="n">
+        <v>0.852201257862</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13794,7 +17851,31 @@
         <v>0.835117141245</v>
       </c>
       <c r="K172" s="0" t="n">
+        <v>0.830547832787667</v>
+      </c>
+      <c r="O172" s="0" t="n">
         <v>0.819508834</v>
+      </c>
+      <c r="P172" s="0" t="n">
+        <v>0.830547832787667</v>
+      </c>
+      <c r="R172" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="S172" s="0" t="n">
+        <v>0.819672131148</v>
+      </c>
+      <c r="T172" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="U172" s="0" t="n">
+        <v>0.824727272727</v>
+      </c>
+      <c r="V172" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="W172" s="0" t="n">
+        <v>0.847244094488</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13824,7 +17905,31 @@
         <v>0.834013683271333</v>
       </c>
       <c r="K173" s="0" t="n">
+        <v>0.833703873318333</v>
+      </c>
+      <c r="O173" s="0" t="n">
         <v>0.8201013422</v>
+      </c>
+      <c r="P173" s="0" t="n">
+        <v>0.833703873318333</v>
+      </c>
+      <c r="R173" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="S173" s="0" t="n">
+        <v>0.822706065319</v>
+      </c>
+      <c r="T173" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="U173" s="0" t="n">
+        <v>0.829586656998</v>
+      </c>
+      <c r="V173" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="W173" s="0" t="n">
+        <v>0.848818897638</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13854,7 +17959,31 @@
         <v>0.837052702978333</v>
       </c>
       <c r="K174" s="0" t="n">
+        <v>0.834633385409</v>
+      </c>
+      <c r="O174" s="0" t="n">
         <v>0.8185264556</v>
+      </c>
+      <c r="P174" s="0" t="n">
+        <v>0.834633385409</v>
+      </c>
+      <c r="R174" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="S174" s="0" t="n">
+        <v>0.823070927514</v>
+      </c>
+      <c r="T174" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="U174" s="0" t="n">
+        <v>0.827285921626</v>
+      </c>
+      <c r="V174" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="W174" s="0" t="n">
+        <v>0.853543307087</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13884,7 +18013,31 @@
         <v>0.835295881417</v>
       </c>
       <c r="K175" s="0" t="n">
+        <v>0.835298278883</v>
+      </c>
+      <c r="O175" s="0" t="n">
         <v>0.819888897</v>
+      </c>
+      <c r="P175" s="0" t="n">
+        <v>0.835298278883</v>
+      </c>
+      <c r="R175" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="S175" s="0" t="n">
+        <v>0.825917252147</v>
+      </c>
+      <c r="T175" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="U175" s="0" t="n">
+        <v>0.826434277415</v>
+      </c>
+      <c r="V175" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="W175" s="0" t="n">
+        <v>0.853543307087</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13914,7 +18067,31 @@
         <v>0.833756100981</v>
       </c>
       <c r="K176" s="0" t="n">
+        <v>0.834946488693333</v>
+      </c>
+      <c r="O176" s="0" t="n">
         <v>0.8193396008</v>
+      </c>
+      <c r="P176" s="0" t="n">
+        <v>0.834946488693333</v>
+      </c>
+      <c r="R176" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="S176" s="0" t="n">
+        <v>0.824261275272</v>
+      </c>
+      <c r="T176" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="U176" s="0" t="n">
+        <v>0.827034883721</v>
+      </c>
+      <c r="V176" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="W176" s="0" t="n">
+        <v>0.853543307087</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13944,7 +18121,31 @@
         <v>0.834369280892667</v>
       </c>
       <c r="K177" s="0" t="n">
+        <v>0.835498480985</v>
+      </c>
+      <c r="O177" s="0" t="n">
         <v>0.820075436</v>
+      </c>
+      <c r="P177" s="0" t="n">
+        <v>0.835498480985</v>
+      </c>
+      <c r="R177" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="S177" s="0" t="n">
+        <v>0.825917252147</v>
+      </c>
+      <c r="T177" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="U177" s="0" t="n">
+        <v>0.827034883721</v>
+      </c>
+      <c r="V177" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="W177" s="0" t="n">
+        <v>0.853543307087</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13974,7 +18175,31 @@
         <v>0.834369280892667</v>
       </c>
       <c r="K178" s="0" t="n">
+        <v>0.834555603812667</v>
+      </c>
+      <c r="O178" s="0" t="n">
         <v>0.8196763743</v>
+      </c>
+      <c r="P178" s="0" t="n">
+        <v>0.834555603812667</v>
+      </c>
+      <c r="R178" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="S178" s="0" t="n">
+        <v>0.8234375</v>
+      </c>
+      <c r="T178" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="U178" s="0" t="n">
+        <v>0.826686004351</v>
+      </c>
+      <c r="V178" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="W178" s="0" t="n">
+        <v>0.853543307087</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14004,7 +18229,31 @@
         <v>0.836187451848667</v>
       </c>
       <c r="K179" s="0" t="n">
+        <v>0.833584843533667</v>
+      </c>
+      <c r="O179" s="0" t="n">
         <v>0.8184023142</v>
+      </c>
+      <c r="P179" s="0" t="n">
+        <v>0.833584843533667</v>
+      </c>
+      <c r="R179" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="S179" s="0" t="n">
+        <v>0.824081313526</v>
+      </c>
+      <c r="T179" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="U179" s="0" t="n">
+        <v>0.824471959213</v>
+      </c>
+      <c r="V179" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="W179" s="0" t="n">
+        <v>0.852201257862</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14034,7 +18283,31 @@
         <v>0.834975542878</v>
       </c>
       <c r="K180" s="0" t="n">
+        <v>0.835013984861</v>
+      </c>
+      <c r="O180" s="0" t="n">
         <v>0.8199939616</v>
+      </c>
+      <c r="P180" s="0" t="n">
+        <v>0.835013984861</v>
+      </c>
+      <c r="R180" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="S180" s="0" t="n">
+        <v>0.825917252147</v>
+      </c>
+      <c r="T180" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="U180" s="0" t="n">
+        <v>0.825581395349</v>
+      </c>
+      <c r="V180" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="W180" s="0" t="n">
+        <v>0.853543307087</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14064,7 +18337,31 @@
         <v>0.834298093111667</v>
       </c>
       <c r="K181" s="0" t="n">
+        <v>0.836607615052</v>
+      </c>
+      <c r="O181" s="0" t="n">
         <v>0.8182695538</v>
+      </c>
+      <c r="P181" s="0" t="n">
+        <v>0.836607615052</v>
+      </c>
+      <c r="R181" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="S181" s="0" t="n">
+        <v>0.825917252147</v>
+      </c>
+      <c r="T181" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="U181" s="0" t="n">
+        <v>0.82788671024</v>
+      </c>
+      <c r="V181" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="W181" s="0" t="n">
+        <v>0.856018882769</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14094,7 +18391,31 @@
         <v>0.834266056973667</v>
       </c>
       <c r="K182" s="0" t="n">
+        <v>0.835251624548333</v>
+      </c>
+      <c r="O182" s="0" t="n">
         <v>0.8185529637</v>
+      </c>
+      <c r="P182" s="0" t="n">
+        <v>0.835251624548333</v>
+      </c>
+      <c r="R182" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="S182" s="0" t="n">
+        <v>0.825917252147</v>
+      </c>
+      <c r="T182" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="U182" s="0" t="n">
+        <v>0.827636363636</v>
+      </c>
+      <c r="V182" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="W182" s="0" t="n">
+        <v>0.852201257862</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14124,7 +18445,31 @@
         <v>0.835571652974</v>
       </c>
       <c r="K183" s="0" t="n">
+        <v>0.835406708905</v>
+      </c>
+      <c r="O183" s="0" t="n">
         <v>0.8162393162</v>
+      </c>
+      <c r="P183" s="0" t="n">
+        <v>0.835406708905</v>
+      </c>
+      <c r="R183" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="S183" s="0" t="n">
+        <v>0.825917252147</v>
+      </c>
+      <c r="T183" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="U183" s="0" t="n">
+        <v>0.826086956522</v>
+      </c>
+      <c r="V183" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="W183" s="0" t="n">
+        <v>0.854215918046</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14154,7 +18499,31 @@
         <v>0.835630052688333</v>
       </c>
       <c r="K184" s="0" t="n">
+        <v>0.834732818317</v>
+      </c>
+      <c r="O184" s="0" t="n">
         <v>0.8184023142</v>
+      </c>
+      <c r="P184" s="0" t="n">
+        <v>0.834732818317</v>
+      </c>
+      <c r="R184" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="S184" s="0" t="n">
+        <v>0.8234375</v>
+      </c>
+      <c r="T184" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="U184" s="0" t="n">
+        <v>0.826086956522</v>
+      </c>
+      <c r="V184" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="W184" s="0" t="n">
+        <v>0.854673998429</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14184,7 +18553,31 @@
         <v>0.835831178423</v>
       </c>
       <c r="K185" s="0" t="n">
+        <v>0.834146907669</v>
+      </c>
+      <c r="O185" s="0" t="n">
         <v>0.8172434189</v>
+      </c>
+      <c r="P185" s="0" t="n">
+        <v>0.834146907669</v>
+      </c>
+      <c r="R185" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="S185" s="0" t="n">
+        <v>0.824355971897</v>
+      </c>
+      <c r="T185" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="U185" s="0" t="n">
+        <v>0.82498184459</v>
+      </c>
+      <c r="V185" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="W185" s="0" t="n">
+        <v>0.85310290652</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14214,7 +18607,31 @@
         <v>0.833312134581</v>
       </c>
       <c r="K186" s="0" t="n">
+        <v>0.834207691406</v>
+      </c>
+      <c r="O186" s="0" t="n">
         <v>0.8164357364</v>
+      </c>
+      <c r="P186" s="0" t="n">
+        <v>0.834207691406</v>
+      </c>
+      <c r="R186" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="S186" s="0" t="n">
+        <v>0.823987538941</v>
+      </c>
+      <c r="T186" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="U186" s="0" t="n">
+        <v>0.826434277415</v>
+      </c>
+      <c r="V186" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="W186" s="0" t="n">
+        <v>0.852201257862</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14244,7 +18661,31 @@
         <v>0.833464225275667</v>
       </c>
       <c r="K187" s="0" t="n">
+        <v>0.835426810809667</v>
+      </c>
+      <c r="O187" s="0" t="n">
         <v>0.8180841208</v>
+      </c>
+      <c r="P187" s="0" t="n">
+        <v>0.835426810809667</v>
+      </c>
+      <c r="R187" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="S187" s="0" t="n">
+        <v>0.825917252147</v>
+      </c>
+      <c r="T187" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="U187" s="0" t="n">
+        <v>0.826589595376</v>
+      </c>
+      <c r="V187" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="W187" s="0" t="n">
+        <v>0.853773584906</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14274,7 +18715,31 @@
         <v>0.833464225275667</v>
       </c>
       <c r="K188" s="0" t="n">
+        <v>0.835426632695333</v>
+      </c>
+      <c r="O188" s="0" t="n">
         <v>0.81673456</v>
+      </c>
+      <c r="P188" s="0" t="n">
+        <v>0.835426632695333</v>
+      </c>
+      <c r="R188" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="S188" s="0" t="n">
+        <v>0.824902723735</v>
+      </c>
+      <c r="T188" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="U188" s="0" t="n">
+        <v>0.828737300435</v>
+      </c>
+      <c r="V188" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="W188" s="0" t="n">
+        <v>0.852639873916</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14304,7 +18769,31 @@
         <v>0.833607885127667</v>
       </c>
       <c r="K189" s="0" t="n">
+        <v>0.835319284125667</v>
+      </c>
+      <c r="O189" s="0" t="n">
         <v>0.8174249951</v>
+      </c>
+      <c r="P189" s="0" t="n">
+        <v>0.835319284125667</v>
+      </c>
+      <c r="R189" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="S189" s="0" t="n">
+        <v>0.82554517134</v>
+      </c>
+      <c r="T189" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="U189" s="0" t="n">
+        <v>0.828880866426</v>
+      </c>
+      <c r="V189" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="W189" s="0" t="n">
+        <v>0.851531814611</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14334,7 +18823,31 @@
         <v>0.834227996606667</v>
       </c>
       <c r="K190" s="0" t="n">
+        <v>0.834438025278667</v>
+      </c>
+      <c r="O190" s="0" t="n">
         <v>0.8180010793</v>
+      </c>
+      <c r="P190" s="0" t="n">
+        <v>0.834438025278667</v>
+      </c>
+      <c r="R190" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="S190" s="0" t="n">
+        <v>0.824629773967</v>
+      </c>
+      <c r="T190" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="U190" s="0" t="n">
+        <v>0.825581395349</v>
+      </c>
+      <c r="V190" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="W190" s="0" t="n">
+        <v>0.85310290652</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14364,7 +18877,31 @@
         <v>0.834783607494333</v>
       </c>
       <c r="K191" s="0" t="n">
+        <v>0.833632072968</v>
+      </c>
+      <c r="O191" s="0" t="n">
         <v>0.8183843582</v>
+      </c>
+      <c r="P191" s="0" t="n">
+        <v>0.833632072968</v>
+      </c>
+      <c r="R191" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="S191" s="0" t="n">
+        <v>0.82298136646</v>
+      </c>
+      <c r="T191" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="U191" s="0" t="n">
+        <v>0.827285921626</v>
+      </c>
+      <c r="V191" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="W191" s="0" t="n">
+        <v>0.850628930818</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14394,7 +18931,31 @@
         <v>0.834995208023667</v>
       </c>
       <c r="K192" s="0" t="n">
+        <v>0.835138461641667</v>
+      </c>
+      <c r="O192" s="0" t="n">
         <v>0.8196218696</v>
+      </c>
+      <c r="P192" s="0" t="n">
+        <v>0.835138461641667</v>
+      </c>
+      <c r="R192" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="S192" s="0" t="n">
+        <v>0.824355971897</v>
+      </c>
+      <c r="T192" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="U192" s="0" t="n">
+        <v>0.829090909091</v>
+      </c>
+      <c r="V192" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="W192" s="0" t="n">
+        <v>0.851968503937</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14424,7 +18985,31 @@
         <v>0.835196974399333</v>
       </c>
       <c r="K193" s="0" t="n">
+        <v>0.835732019030333</v>
+      </c>
+      <c r="O193" s="0" t="n">
         <v>0.8213147302</v>
+      </c>
+      <c r="P193" s="0" t="n">
+        <v>0.835732019030333</v>
+      </c>
+      <c r="R193" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="S193" s="0" t="n">
+        <v>0.825645035184</v>
+      </c>
+      <c r="T193" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="U193" s="0" t="n">
+        <v>0.828238719068</v>
+      </c>
+      <c r="V193" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="W193" s="0" t="n">
+        <v>0.853312302839</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14454,7 +19039,31 @@
         <v>0.836102097028333</v>
       </c>
       <c r="K194" s="0" t="n">
+        <v>0.834366196916667</v>
+      </c>
+      <c r="O194" s="0" t="n">
         <v>0.8197619351</v>
+      </c>
+      <c r="P194" s="0" t="n">
+        <v>0.834366196916667</v>
+      </c>
+      <c r="R194" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="S194" s="0" t="n">
+        <v>0.824629773967</v>
+      </c>
+      <c r="T194" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="U194" s="0" t="n">
+        <v>0.826937002172</v>
+      </c>
+      <c r="V194" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="W194" s="0" t="n">
+        <v>0.851531814611</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14484,7 +19093,31 @@
         <v>0.833447505722333</v>
       </c>
       <c r="K195" s="0" t="n">
+        <v>0.833691312811</v>
+      </c>
+      <c r="O195" s="0" t="n">
         <v>0.817377989</v>
+      </c>
+      <c r="P195" s="0" t="n">
+        <v>0.833691312811</v>
+      </c>
+      <c r="R195" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="S195" s="0" t="n">
+        <v>0.823712948518</v>
+      </c>
+      <c r="T195" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="U195" s="0" t="n">
+        <v>0.827636363636</v>
+      </c>
+      <c r="V195" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="W195" s="0" t="n">
+        <v>0.849724626279</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14514,7 +19147,31 @@
         <v>0.834565287154333</v>
       </c>
       <c r="K196" s="0" t="n">
+        <v>0.834053640966667</v>
+      </c>
+      <c r="O196" s="0" t="n">
         <v>0.8196474594</v>
+      </c>
+      <c r="P196" s="0" t="n">
+        <v>0.834053640966667</v>
+      </c>
+      <c r="R196" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="S196" s="0" t="n">
+        <v>0.822794691647</v>
+      </c>
+      <c r="T196" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="U196" s="0" t="n">
+        <v>0.828737300435</v>
+      </c>
+      <c r="V196" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="W196" s="0" t="n">
+        <v>0.850628930818</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14544,7 +19201,31 @@
         <v>0.83480045772</v>
       </c>
       <c r="K197" s="0" t="n">
+        <v>0.832434189582333</v>
+      </c>
+      <c r="O197" s="0" t="n">
         <v>0.8199407784</v>
+      </c>
+      <c r="P197" s="0" t="n">
+        <v>0.832434189582333</v>
+      </c>
+      <c r="R197" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="S197" s="0" t="n">
+        <v>0.824081313526</v>
+      </c>
+      <c r="T197" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="U197" s="0" t="n">
+        <v>0.822592324403</v>
+      </c>
+      <c r="V197" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="W197" s="0" t="n">
+        <v>0.850628930818</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14574,7 +19255,31 @@
         <v>0.834903422646</v>
       </c>
       <c r="K198" s="0" t="n">
+        <v>0.833976646415667</v>
+      </c>
+      <c r="O198" s="0" t="n">
         <v>0.8193396008</v>
+      </c>
+      <c r="P198" s="0" t="n">
+        <v>0.833976646415667</v>
+      </c>
+      <c r="R198" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="S198" s="0" t="n">
+        <v>0.823987538941</v>
+      </c>
+      <c r="T198" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="U198" s="0" t="n">
+        <v>0.825741142444</v>
+      </c>
+      <c r="V198" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="W198" s="0" t="n">
+        <v>0.852201257862</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14604,7 +19309,31 @@
         <v>0.834067683281667</v>
       </c>
       <c r="K199" s="0" t="n">
+        <v>0.835189444088</v>
+      </c>
+      <c r="O199" s="0" t="n">
         <v>0.8202320058</v>
+      </c>
+      <c r="P199" s="0" t="n">
+        <v>0.835189444088</v>
+      </c>
+      <c r="R199" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="S199" s="0" t="n">
+        <v>0.824629773967</v>
+      </c>
+      <c r="T199" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="U199" s="0" t="n">
+        <v>0.828737300435</v>
+      </c>
+      <c r="V199" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="W199" s="0" t="n">
+        <v>0.852201257862</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14634,7 +19363,31 @@
         <v>0.835189563985667</v>
       </c>
       <c r="K200" s="0" t="n">
+        <v>0.835013367615333</v>
+      </c>
+      <c r="O200" s="0" t="n">
         <v>0.8222360077</v>
+      </c>
+      <c r="P200" s="0" t="n">
+        <v>0.835013367615333</v>
+      </c>
+      <c r="R200" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="S200" s="0" t="n">
+        <v>0.824081313526</v>
+      </c>
+      <c r="T200" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="U200" s="0" t="n">
+        <v>0.824040550326</v>
+      </c>
+      <c r="V200" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="W200" s="0" t="n">
+        <v>0.856918238994</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14664,7 +19417,31 @@
         <v>0.834794961516667</v>
       </c>
       <c r="K201" s="0" t="n">
+        <v>0.836040502795</v>
+      </c>
+      <c r="O201" s="0" t="n">
         <v>0.8180404355</v>
+      </c>
+      <c r="P201" s="0" t="n">
+        <v>0.836040502795</v>
+      </c>
+      <c r="R201" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="S201" s="0" t="n">
+        <v>0.825917252147</v>
+      </c>
+      <c r="T201" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="U201" s="0" t="n">
+        <v>0.827988338192</v>
+      </c>
+      <c r="V201" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="W201" s="0" t="n">
+        <v>0.854215918046</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14694,7 +19471,31 @@
         <v>0.837015817366</v>
       </c>
       <c r="K202" s="0" t="n">
+        <v>0.833585905436</v>
+      </c>
+      <c r="O202" s="0" t="n">
         <v>0.8198757764</v>
+      </c>
+      <c r="P202" s="0" t="n">
+        <v>0.833585905436</v>
+      </c>
+      <c r="R202" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="S202" s="0" t="n">
+        <v>0.825917252147</v>
+      </c>
+      <c r="T202" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="U202" s="0" t="n">
+        <v>0.820624546115</v>
+      </c>
+      <c r="V202" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="W202" s="0" t="n">
+        <v>0.854215918046</v>
       </c>
     </row>
   </sheetData>

--- a/Coba2 - Copy.xlsx
+++ b/Coba2 - Copy.xlsx
@@ -905,7 +905,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1228,11 +1228,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="96223500"/>
-        <c:axId val="6641339"/>
+        <c:axId val="36332487"/>
+        <c:axId val="44616736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96223500"/>
+        <c:axId val="36332487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,14 +1268,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6641339"/>
+        <c:crossAx val="44616736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6641339"/>
+        <c:axId val="44616736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1320,7 +1320,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96223500"/>
+        <c:crossAx val="36332487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1358,7 +1358,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1726,11 +1726,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="80774415"/>
-        <c:axId val="61451343"/>
+        <c:axId val="75648861"/>
+        <c:axId val="22300758"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80774415"/>
+        <c:axId val="75648861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,14 +1766,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61451343"/>
+        <c:crossAx val="22300758"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61451343"/>
+        <c:axId val="22300758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1818,7 +1818,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80774415"/>
+        <c:crossAx val="75648861"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1856,7 +1856,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2111,11 +2111,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="44052361"/>
-        <c:axId val="78556918"/>
+        <c:axId val="62801932"/>
+        <c:axId val="61463794"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44052361"/>
+        <c:axId val="62801932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,14 +2151,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78556918"/>
+        <c:crossAx val="61463794"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78556918"/>
+        <c:axId val="61463794"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -2202,7 +2202,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44052361"/>
+        <c:crossAx val="62801932"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2240,7 +2240,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2427,11 +2427,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="49182874"/>
-        <c:axId val="36765330"/>
+        <c:axId val="93580755"/>
+        <c:axId val="10808122"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49182874"/>
+        <c:axId val="93580755"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,14 +2467,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36765330"/>
+        <c:crossAx val="10808122"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36765330"/>
+        <c:axId val="10808122"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.7"/>
@@ -2518,7 +2518,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49182874"/>
+        <c:crossAx val="93580755"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2556,7 +2556,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5084,11 +5084,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="57423728"/>
-        <c:axId val="21658547"/>
+        <c:axId val="78469472"/>
+        <c:axId val="43487529"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57423728"/>
+        <c:axId val="78469472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5123,14 +5123,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21658547"/>
+        <c:crossAx val="43487529"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21658547"/>
+        <c:axId val="43487529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5174,7 +5174,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57423728"/>
+        <c:crossAx val="78469472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8670,7 +8670,7 @@
   <dimension ref="B1:W202"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Coba2 - Copy.xlsx
+++ b/Coba2 - Copy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="CompilePref" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Baseline" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Epoch" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Partial" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="171">
   <si>
     <t xml:space="preserve">Embedding</t>
   </si>
@@ -532,6 +533,15 @@
   <si>
     <t xml:space="preserve">← non transfer data will be updated with datas from hpc</t>
   </si>
+  <si>
+    <t xml:space="preserve">Based on log E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage</t>
+  </si>
 </sst>
 </file>
 
@@ -905,7 +915,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -952,6 +962,7 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1228,11 +1239,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="36332487"/>
-        <c:axId val="44616736"/>
+        <c:axId val="3867157"/>
+        <c:axId val="78603152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36332487"/>
+        <c:axId val="3867157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,14 +1279,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44616736"/>
+        <c:crossAx val="78603152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44616736"/>
+        <c:axId val="78603152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1320,7 +1331,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36332487"/>
+        <c:crossAx val="3867157"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1358,7 +1369,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1405,6 +1416,7 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1726,11 +1738,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="75648861"/>
-        <c:axId val="22300758"/>
+        <c:axId val="81933598"/>
+        <c:axId val="2361349"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75648861"/>
+        <c:axId val="81933598"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,14 +1778,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22300758"/>
+        <c:crossAx val="2361349"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22300758"/>
+        <c:axId val="2361349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1818,7 +1830,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75648861"/>
+        <c:crossAx val="81933598"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1856,7 +1868,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2111,11 +2123,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="62801932"/>
-        <c:axId val="61463794"/>
+        <c:axId val="75004820"/>
+        <c:axId val="74158309"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62801932"/>
+        <c:axId val="75004820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,14 +2163,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61463794"/>
+        <c:crossAx val="74158309"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61463794"/>
+        <c:axId val="74158309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -2202,9 +2214,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62801932"/>
+        <c:crossAx val="75004820"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2240,7 +2251,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2427,11 +2438,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="93580755"/>
-        <c:axId val="10808122"/>
+        <c:axId val="64817005"/>
+        <c:axId val="42261182"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93580755"/>
+        <c:axId val="64817005"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,14 +2478,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10808122"/>
+        <c:crossAx val="42261182"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10808122"/>
+        <c:axId val="42261182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.7"/>
@@ -2518,9 +2529,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93580755"/>
+        <c:crossAx val="64817005"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2556,7 +2566,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2564,6 +2574,7 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5084,11 +5095,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="78469472"/>
-        <c:axId val="43487529"/>
+        <c:axId val="850632"/>
+        <c:axId val="80253728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78469472"/>
+        <c:axId val="850632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5123,14 +5134,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43487529"/>
+        <c:crossAx val="80253728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43487529"/>
+        <c:axId val="80253728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5174,7 +5185,357 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78469472"/>
+        <c:crossAx val="850632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Partial!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Partial!$E$4:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.00%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.00%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.00%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.00%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.00%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.00%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Partial!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.19344176196325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.211331280665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29876906564925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.493721972200333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.569769399370333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61387543977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.683770652543667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7234462621875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Partial!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Partial!$E$4:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.00%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.00%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.00%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.00%</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.00%</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.00%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Partial!$G$4:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2405806569795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.254766640913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34827226699025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.491828776494667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.563332953135667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.621881649414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.693129542301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.724956160103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="87662586"/>
+        <c:axId val="96643982"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="87662586"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96643982"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96643982"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87662586"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5222,9 +5583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>302040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5233,7 +5594,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3543120" y="338040"/>
-        <a:ext cx="4369680" cy="2741040"/>
+        <a:ext cx="4369320" cy="2740680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5252,9 +5613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5263,7 +5624,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3557520" y="3414600"/>
-        <a:ext cx="4369680" cy="2741040"/>
+        <a:ext cx="4369320" cy="2740680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5282,9 +5643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>483480</xdr:colOff>
+      <xdr:colOff>483120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5293,7 +5654,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11277360" y="338040"/>
-        <a:ext cx="4369680" cy="2741040"/>
+        <a:ext cx="4369320" cy="2740680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5312,9 +5673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>464400</xdr:colOff>
+      <xdr:colOff>464040</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5323,7 +5684,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11258280" y="3414600"/>
-        <a:ext cx="4369680" cy="2741040"/>
+        <a:ext cx="4369320" cy="2740680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5346,10 +5707,10 @@
       <xdr:rowOff>57240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>762480</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>149760</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5358,7 +5719,42 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="168480" y="21352320"/>
-        <a:ext cx="16214760" cy="6702480"/>
+        <a:ext cx="12836160" cy="6702120"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>376920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6066360" y="487800"/>
+        <a:ext cx="5758920" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5378,13 +5774,13 @@
   </sheetPr>
   <dimension ref="A2:S50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6670,7 +7066,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6685,28 +7081,28 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="6.47959183673469"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="6.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="1" width="6.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7010,7 +7406,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -7025,13 +7421,13 @@
   </sheetPr>
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.47959183673469"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="6.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7332,7 +7728,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -7347,13 +7743,13 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.71938775510204"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="9.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7472,7 +7868,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7487,16 +7883,16 @@
   </sheetPr>
   <dimension ref="B2:W80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I59" activeCellId="0" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8390,7 +8786,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8406,13 +8802,13 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.47959183673469"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="6.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8468,7 +8864,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -8483,13 +8879,13 @@
   </sheetPr>
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8654,7 +9050,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -8669,11 +9065,14 @@
   </sheetPr>
   <dimension ref="B1:W202"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
@@ -19501,7 +19900,203 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>0.7234462621875</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.724956160103</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.19344176196325</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.2405806569795</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.211331280665</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.254766640913</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>0.683770652543667</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.693129542301</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.29876906564925</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.34827226699025</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.493721972200333</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.491828776494667</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.569769399370333</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.563332953135667</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>0.61387543977</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.621881649414</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.61387543977</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.621881649414</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.683770652543667</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.693129542301</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.7234462621875</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.724956160103</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>0.569769399370333</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.563332953135667</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>0.493721972200333</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.491828776494667</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>0.29876906564925</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.34827226699025</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>0.211331280665</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.254766640913</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>0.19344176196325</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.2405806569795</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Coba2 - Copy.xlsx
+++ b/Coba2 - Copy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="POSresults" sheetId="1" state="visible" r:id="rId2"/>
@@ -915,7 +915,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -962,7 +962,6 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1239,11 +1238,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="3867157"/>
-        <c:axId val="78603152"/>
+        <c:axId val="16693045"/>
+        <c:axId val="68616888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3867157"/>
+        <c:axId val="16693045"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,14 +1278,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78603152"/>
+        <c:crossAx val="68616888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78603152"/>
+        <c:axId val="68616888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1331,7 +1330,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3867157"/>
+        <c:crossAx val="16693045"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1369,7 +1368,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1416,7 +1415,6 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1738,11 +1736,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="81933598"/>
-        <c:axId val="2361349"/>
+        <c:axId val="98573409"/>
+        <c:axId val="36945620"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81933598"/>
+        <c:axId val="98573409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,14 +1776,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2361349"/>
+        <c:crossAx val="36945620"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2361349"/>
+        <c:axId val="36945620"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -1830,7 +1828,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81933598"/>
+        <c:crossAx val="98573409"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1868,7 +1866,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2123,11 +2121,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="75004820"/>
-        <c:axId val="74158309"/>
+        <c:axId val="4727203"/>
+        <c:axId val="59061806"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75004820"/>
+        <c:axId val="4727203"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,14 +2161,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74158309"/>
+        <c:crossAx val="59061806"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74158309"/>
+        <c:axId val="59061806"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -2214,8 +2212,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75004820"/>
+        <c:crossAx val="4727203"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2251,7 +2250,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2438,11 +2437,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="64817005"/>
-        <c:axId val="42261182"/>
+        <c:axId val="33067018"/>
+        <c:axId val="47827191"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64817005"/>
+        <c:axId val="33067018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,14 +2477,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42261182"/>
+        <c:crossAx val="47827191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42261182"/>
+        <c:axId val="47827191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.7"/>
@@ -2529,8 +2528,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64817005"/>
+        <c:crossAx val="33067018"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2566,7 +2566,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2574,7 +2574,6 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5095,11 +5094,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="850632"/>
-        <c:axId val="80253728"/>
+        <c:axId val="76750389"/>
+        <c:axId val="34263113"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="850632"/>
+        <c:axId val="76750389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5134,14 +5133,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80253728"/>
+        <c:crossAx val="34263113"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80253728"/>
+        <c:axId val="34263113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5185,7 +5184,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="850632"/>
+        <c:crossAx val="76750389"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5222,7 +5221,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5230,7 +5229,6 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5260,6 +5258,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5363,6 +5362,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5445,11 +5445,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="87662586"/>
-        <c:axId val="96643982"/>
+        <c:axId val="65345576"/>
+        <c:axId val="51743131"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87662586"/>
+        <c:axId val="65345576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5484,14 +5484,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96643982"/>
+        <c:crossAx val="51743131"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96643982"/>
+        <c:axId val="51743131"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5506,7 +5506,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5535,7 +5535,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87662586"/>
+        <c:crossAx val="65345576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5583,9 +5583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>302040</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5593,8 +5593,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3543120" y="338040"/>
-        <a:ext cx="4369320" cy="2740680"/>
+        <a:off x="3495600" y="338040"/>
+        <a:ext cx="4302000" cy="2740320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5613,9 +5613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>316440</xdr:colOff>
+      <xdr:colOff>316080</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5623,8 +5623,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3557520" y="3414600"/>
-        <a:ext cx="4369320" cy="2740680"/>
+        <a:off x="3510000" y="3414600"/>
+        <a:ext cx="4302000" cy="2740320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5643,9 +5643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>483120</xdr:colOff>
+      <xdr:colOff>482760</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5653,8 +5653,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11277360" y="338040"/>
-        <a:ext cx="4369320" cy="2740680"/>
+        <a:off x="11106000" y="338040"/>
+        <a:ext cx="4302360" cy="2740320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5673,9 +5673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>464040</xdr:colOff>
+      <xdr:colOff>463680</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5683,8 +5683,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11258280" y="3414600"/>
-        <a:ext cx="4369320" cy="2740680"/>
+        <a:off x="11086920" y="3414600"/>
+        <a:ext cx="4302360" cy="2740320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5708,9 +5708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
+      <xdr:colOff>149400</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5719,7 +5719,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="168480" y="21352320"/>
-        <a:ext cx="12836160" cy="6702120"/>
+        <a:ext cx="12582360" cy="6701760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5743,9 +5743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>446400</xdr:colOff>
+      <xdr:colOff>446040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5753,8 +5753,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6066360" y="487800"/>
-        <a:ext cx="5758920" cy="3241440"/>
+        <a:off x="5977440" y="487800"/>
+        <a:ext cx="5670000" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5774,14 +5774,11 @@
   </sheetPr>
   <dimension ref="A2:S50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -7066,7 +7063,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7081,28 +7078,28 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="6.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="1" width="6.48"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="6.3469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7406,7 +7403,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -7421,13 +7418,13 @@
   </sheetPr>
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="6.48"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.3469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7728,7 +7725,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -7743,13 +7740,13 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="9.72"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.58673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7868,7 +7865,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7883,16 +7880,14 @@
   </sheetPr>
   <dimension ref="B2:W80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I59" activeCellId="0" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8786,7 +8781,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8802,13 +8797,13 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="6.48"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="6.3469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8864,7 +8859,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -8879,13 +8874,13 @@
   </sheetPr>
   <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9050,7 +9045,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9065,13 +9060,13 @@
   </sheetPr>
   <dimension ref="B1:W202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K202" activeCellId="0" sqref="K202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19900,7 +19895,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -19916,13 +19911,13 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19957,10 +19952,10 @@
       <c r="E4" s="4" t="n">
         <v>0.005</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="4" t="n">
         <v>0.19344176196325</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="4" t="n">
         <v>0.2405806569795</v>
       </c>
     </row>
@@ -19968,10 +19963,10 @@
       <c r="E5" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="4" t="n">
         <v>0.211331280665</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="4" t="n">
         <v>0.254766640913</v>
       </c>
     </row>
@@ -19985,10 +19980,10 @@
       <c r="E6" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="4" t="n">
         <v>0.29876906564925</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="4" t="n">
         <v>0.34827226699025</v>
       </c>
     </row>
@@ -19996,10 +19991,10 @@
       <c r="E7" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="4" t="n">
         <v>0.493721972200333</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="4" t="n">
         <v>0.491828776494667</v>
       </c>
     </row>
@@ -20007,10 +20002,10 @@
       <c r="E8" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="4" t="n">
         <v>0.569769399370333</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="4" t="n">
         <v>0.563332953135667</v>
       </c>
     </row>
@@ -20024,10 +20019,10 @@
       <c r="E9" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="4" t="n">
         <v>0.61387543977</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="4" t="n">
         <v>0.621881649414</v>
       </c>
     </row>
@@ -20035,10 +20030,10 @@
       <c r="E10" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="4" t="n">
         <v>0.683770652543667</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="4" t="n">
         <v>0.693129542301</v>
       </c>
     </row>
@@ -20046,10 +20041,10 @@
       <c r="E11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="4" t="n">
         <v>0.7234462621875</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="4" t="n">
         <v>0.724956160103</v>
       </c>
     </row>
@@ -20096,7 +20091,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
